--- a/Sensitivities.xlsx
+++ b/Sensitivities.xlsx
@@ -167,22 +167,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -194,25 +218,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="107"/>
                 <c:pt idx="0">
-                  <c:v>2.067257303971753</c:v>
+                  <c:v>0.001838289070500272</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.01279604849196638</c:v>
+                  <c:v>0.006537736117068222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.006306877204345419</c:v>
+                  <c:v>0.003538288772458763</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01456142697546765</c:v>
+                  <c:v>0.00582145484088417</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02374731152548061</c:v>
+                  <c:v>0.01942756057031213</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01807277326689681</c:v>
+                  <c:v>0.04774619989190247</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01234460737859068</c:v>
+                  <c:v>0.07999936013966448</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1521005997536056</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3127368001755585</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5271467999513021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4586619999966262</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3004132000068145</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1820007999833127</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.08300382003108321</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.004516039982699659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -245,22 +293,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -272,25 +344,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="107"/>
                 <c:pt idx="0">
-                  <c:v>3.358599082526833</c:v>
+                  <c:v>0.002752165118885509</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.0243776466159359</c:v>
+                  <c:v>0.0300486619925795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02929071668140342</c:v>
+                  <c:v>0.084479079567681</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.07004099026199831</c:v>
+                  <c:v>0.1971645994436015</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02514487595594261</c:v>
+                  <c:v>0.6121728001699969</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.02083174986722304</c:v>
+                  <c:v>0.8722620000420983</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.03050501893623775</c:v>
+                  <c:v>0.9829744001769583</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8557917996244306</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6924996002503295</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3980847999558507</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1287855999642535</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.04328102002799894</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.02124667995531754</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.01560052007682666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.001519271955118551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -323,22 +419,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -350,25 +470,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="107"/>
                 <c:pt idx="0">
-                  <c:v>1.84415230357996</c:v>
+                  <c:v>0.0109629734297965</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01784397460221985</c:v>
+                  <c:v>0.3108642018018755</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03213595405375163</c:v>
+                  <c:v>0.7209819990963922</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01195019650570017</c:v>
+                  <c:v>0.7941424002166518</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.002609368775894648</c:v>
+                  <c:v>0.6954359998225951</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.01649980014209236</c:v>
+                  <c:v>0.4245620000758697</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.02074581282977492</c:v>
+                  <c:v>0.1673812001124159</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0785638197810147</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04012632012603829</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02566103998731549</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.01185183997324454</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.00784567801680942</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00832145598101304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.005927492031308307</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0004191935824416815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -382,7 +526,7 @@
         <c:axId val="50010001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="675.1428571428571"/>
+          <c:max val="699.5999999999999"/>
           <c:min val="400.0"/>
         </c:scaling>
         <c:axPos val="b"/>
@@ -509,22 +653,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,22 +707,46 @@
                   <c:v>0.6488072754826097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.457204914113954</c:v>
+                  <c:v>0.4347329570200189</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.649097462669212</c:v>
+                  <c:v>0.450662138951366</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5829872720627912</c:v>
+                  <c:v>0.5277901238656847</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3574825051614101</c:v>
+                  <c:v>0.6313656135935962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2235573454855335</c:v>
+                  <c:v>0.6599694369264091</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2279146796598687</c:v>
+                  <c:v>0.6144280726547425</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5312185676624699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4232416825218674</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3092924421616493</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2390471815087228</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2199737765268738</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2128851662848669</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23144269967418</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2534752803311507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -587,22 +779,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -617,22 +833,46 @@
                   <c:v>0.1812759934117287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.08228774900524269</c:v>
+                  <c:v>0.09082281808187313</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.09737868917161097</c:v>
+                  <c:v>0.08299910733279234</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3783889470509429</c:v>
+                  <c:v>0.07946604154885499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.652108014764743</c:v>
+                  <c:v>0.0863054676002996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6960442704812181</c:v>
+                  <c:v>0.1553218798483628</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7090518681417881</c:v>
+                  <c:v>0.2861796296181994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4967595532361556</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6146825204173754</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6702296206876757</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6898058160623424</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6981268235776292</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7043023877767057</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7094734940582578</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.713735700955433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -665,22 +905,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -695,22 +959,46 @@
                   <c:v>0.52336277605762</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4170187322505641</c:v>
+                  <c:v>0.3629987357194395</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.514083240980938</c:v>
+                  <c:v>0.407459760504578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2702772406664042</c:v>
+                  <c:v>0.4825898171590876</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1019842684033302</c:v>
+                  <c:v>0.5244937096952952</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.07771037774744548</c:v>
+                  <c:v>0.454921845005265</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.08145232209145785</c:v>
+                  <c:v>0.3247017594129571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2043391919072902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1235110880069189</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09244604629325689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.07947699405386599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.07749554910396697</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.08002804152437942</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.08111110324415541</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0770968435562361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -743,22 +1031,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -773,22 +1085,46 @@
                   <c:v>0.08445097131253371</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04017907778413859</c:v>
+                  <c:v>0.04344880462945845</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03670286327528459</c:v>
+                  <c:v>0.0404327965435776</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.03472124987621308</c:v>
+                  <c:v>0.03867543793368514</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.03396910404580829</c:v>
+                  <c:v>0.03713302934651316</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.03360889237597655</c:v>
+                  <c:v>0.0359957248046988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.03337602258876608</c:v>
+                  <c:v>0.0350934344294276</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.03445878141924506</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0341144238708521</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.03395295573129334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.03376668136287034</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.03361557019894697</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0335499422345955</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.03336469298792442</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.03334340313859333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -821,22 +1157,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -851,22 +1211,46 @@
                   <c:v>0.7926826586955555</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5398400340898113</c:v>
+                  <c:v>0.5804517064036815</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3952981497911421</c:v>
+                  <c:v>0.5453205951471082</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2442178780867606</c:v>
+                  <c:v>0.4973840258549687</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2162468774372034</c:v>
+                  <c:v>0.421246386154503</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2654819792110702</c:v>
+                  <c:v>0.3351300749137697</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3746364143611884</c:v>
+                  <c:v>0.2565085525569364</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2351619407109579</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2070367178327463</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2353059590529074</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2643568072895374</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2759819805227531</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3451531155082759</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3738715324281612</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.367956607174336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -899,22 +1283,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,22 +1337,46 @@
                   <c:v>0.1857473692317587</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09962730490220774</c:v>
+                  <c:v>0.09885375640121002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2016953786809809</c:v>
+                  <c:v>0.09848049678341436</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6110645178023041</c:v>
+                  <c:v>0.1135753604867409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5051446895960722</c:v>
+                  <c:v>0.1645833669806358</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.326247974721096</c:v>
+                  <c:v>0.3875347901573428</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.347210710497077</c:v>
+                  <c:v>0.5925051710679035</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6038254778677831</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5605244289150073</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4466116332602698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3468195324908583</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3217603362011383</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3156977258402178</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3536503482412022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3949249948910861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -977,22 +1409,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1007,22 +1463,46 @@
                   <c:v>0.7460003364130889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3999750111267693</c:v>
+                  <c:v>0.4977646086642832</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21372336918085</c:v>
+                  <c:v>0.4136144050776305</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1097109880173461</c:v>
+                  <c:v>0.3208400192927348</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1740259081264336</c:v>
+                  <c:v>0.2349197358645344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.645108592310256</c:v>
+                  <c:v>0.1770516220862811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9155817896136699</c:v>
+                  <c:v>0.1193611649094793</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1133438259293354</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1197128120995683</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2607424459350037</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5166671318312819</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6888769467811408</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8437349972876644</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9215556624444682</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9502390582642345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1055,22 +1535,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1085,22 +1589,46 @@
                   <c:v>0.2254365122118938</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1176590202840144</c:v>
+                  <c:v>0.1225936861325517</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1061337687444345</c:v>
+                  <c:v>0.1181754266136094</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1021654654604902</c:v>
+                  <c:v>0.1127088089629129</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1002099815225229</c:v>
+                  <c:v>0.1071802258168037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.09574209558444485</c:v>
+                  <c:v>0.1044709880332671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.09141997336606313</c:v>
+                  <c:v>0.1028038393138512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1012321987980609</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1007344004575769</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09968030066265364</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.09747247628862232</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.09520767258025895</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.09322211862432218</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.09105481503673309</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.08921640760166066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1133,22 +1661,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1163,22 +1715,46 @@
                   <c:v>0.1351093209802211</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.06535965071605614</c:v>
+                  <c:v>0.06916767859351255</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.09816841470129203</c:v>
+                  <c:v>0.06533039055669145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1904147902402375</c:v>
+                  <c:v>0.07194541327170055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1341572735734611</c:v>
+                  <c:v>0.09485853984679814</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1076591194721893</c:v>
+                  <c:v>0.1080758083035987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1120037077277653</c:v>
+                  <c:v>0.1752523473983584</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1809953526519291</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1477219181998373</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1251000530482836</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1090559842414567</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1081633099452103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.109562169465182</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1122204149811375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1141982834591928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1211,22 +1787,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1241,22 +1841,46 @@
                   <c:v>0.3116904921886903</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.177161987802859</c:v>
+                  <c:v>0.1926190053073515</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.09099063610242446</c:v>
+                  <c:v>0.1805416937012176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.04807777120429172</c:v>
+                  <c:v>0.1499480830035335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.06344104699438693</c:v>
+                  <c:v>0.1044079345866705</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.09009182888253435</c:v>
+                  <c:v>0.06952994079365557</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2209090350496218</c:v>
+                  <c:v>0.05013270891023185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.04899794774863116</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0512265147872942</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0811036626389848</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.09717899736039784</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.09632852775145957</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1581749323691811</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2298470039126393</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2813055058987556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1289,22 +1913,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1319,22 +1967,46 @@
                   <c:v>0.1567331305278308</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.08078521772788491</c:v>
+                  <c:v>0.08277055401844004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1291711288695227</c:v>
+                  <c:v>0.08064894396138349</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6900765030968399</c:v>
+                  <c:v>0.08501095460739692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7807273569027465</c:v>
+                  <c:v>0.1066168403697455</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7759757673017142</c:v>
+                  <c:v>0.3051953762710589</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7723450891307106</c:v>
+                  <c:v>0.6165784746063054</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7383854550585479</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7720493917799465</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7838388245257166</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7752549142388001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7778072197446565</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.777262184793619</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7636137407505464</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7886372549285607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1367,22 +2039,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1397,22 +2093,46 @@
                   <c:v>0.4234139884682217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2416069225175778</c:v>
+                  <c:v>0.2494387730079491</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.221498320076895</c:v>
+                  <c:v>0.2421624260031691</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2143141984846771</c:v>
+                  <c:v>0.2337520051646986</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2134384663085079</c:v>
+                  <c:v>0.2235228184185657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2048090276964736</c:v>
+                  <c:v>0.2184535927040357</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1960460745489062</c:v>
+                  <c:v>0.2154640044096854</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2131066930112458</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2134772467285938</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2126906405851678</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2082233975303777</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.203647789688445</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1998622986568856</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1952064617688623</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1902302202665669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1445,22 +2165,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1475,22 +2219,46 @@
                   <c:v>0.5952998138327824</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3964714865759596</c:v>
+                  <c:v>0.4021136635337609</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3207985171807302</c:v>
+                  <c:v>0.3974907387431123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2142072595814645</c:v>
+                  <c:v>0.3788587128498926</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1593057855226324</c:v>
+                  <c:v>0.337535459519399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1398603699514422</c:v>
+                  <c:v>0.2801774802806539</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1633383446411817</c:v>
+                  <c:v>0.2264533808719952</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2003076216467726</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1673127702443699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1571760307572394</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1446044666833909</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1409288696396373</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.157083110144318</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1622916094511649</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1483460570965575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1523,22 +2291,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1553,22 +2345,46 @@
                   <c:v>0.3830970805101689</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1647017215930978</c:v>
+                  <c:v>0.1908572770629146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1297302310968755</c:v>
+                  <c:v>0.1668907246545781</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1074949939389243</c:v>
+                  <c:v>0.1505978814576907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1962910467759624</c:v>
+                  <c:v>0.1338215420453873</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6495066758285855</c:v>
+                  <c:v>0.1198244953981753</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6649098722818244</c:v>
+                  <c:v>0.1081311042708425</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1076955784877136</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.119570731514718</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3209195460160733</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5851404155906301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6582818989216397</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6658525494788141</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6644011915623153</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6615519217286496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1601,22 +2417,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1631,22 +2471,46 @@
                   <c:v>0.1081875483902182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05421217084338534</c:v>
+                  <c:v>0.05668250409226823</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05959314149148034</c:v>
+                  <c:v>0.05437802604113692</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.05794021880435995</c:v>
+                  <c:v>0.0562238212471421</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.09571029646392511</c:v>
+                  <c:v>0.06041225162323714</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6041317009256558</c:v>
+                  <c:v>0.05697335502992742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.712951483494438</c:v>
+                  <c:v>0.05785828768971259</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05834524291999936</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.07473596779164723</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1367305252278952</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3997514206166002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6474718586232494</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7034550825951941</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7145375018871296</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7254734897757442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1679,22 +2543,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1709,22 +2597,46 @@
                   <c:v>0.7145033249924913</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4758864802505499</c:v>
+                  <c:v>0.4916650751540857</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4414216375654764</c:v>
+                  <c:v>0.476876710956514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4252028952710529</c:v>
+                  <c:v>0.4626852039690071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4137993087065003</c:v>
+                  <c:v>0.445226879728276</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3988652541491239</c:v>
+                  <c:v>0.434969954963881</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3850157370337398</c:v>
+                  <c:v>0.4278937500704265</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4215644263904983</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4167942103397284</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4114038328645788</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.404192566576467</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3970885935524431</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3905691110550155</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3838342854882096</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3766371866339976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1757,22 +2669,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1787,22 +2723,46 @@
                   <c:v>0.3839313939849524</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2393563679394413</c:v>
+                  <c:v>0.227711520947203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3823197520213393</c:v>
+                  <c:v>0.2354593320415703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.275187049346131</c:v>
+                  <c:v>0.2805083024132445</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3941178046202112</c:v>
+                  <c:v>0.3622654660837951</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6236666231909522</c:v>
+                  <c:v>0.3982663795254776</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7395800541517255</c:v>
+                  <c:v>0.2986188178265894</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2846911703924212</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2987345798605212</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4834817548872505</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5912019632302008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6355719874170213</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6847404283209602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7489180232272532</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8182282006322547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1835,22 +2795,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1865,22 +2849,46 @@
                   <c:v>0.6168976896637373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4926265620822335</c:v>
+                  <c:v>0.450928879936922</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2892246022621957</c:v>
+                  <c:v>0.4897109626367444</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1185967876845971</c:v>
+                  <c:v>0.4597761831091726</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.08855281277394562</c:v>
+                  <c:v>0.3317947200884006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.09077788887884473</c:v>
+                  <c:v>0.2050411060254349</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1519503265138836</c:v>
+                  <c:v>0.1335753366144754</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1053202130782277</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09098904866801216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0884543615631361</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0884703386289349</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.09391454099594941</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1160089319027709</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.160280165406603</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2458437455898719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1913,22 +2921,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1943,22 +2975,46 @@
                   <c:v>0.1572455072800765</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.08585855238290965</c:v>
+                  <c:v>0.0838057434003603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.202148203145582</c:v>
+                  <c:v>0.08473469135661216</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3694045894055291</c:v>
+                  <c:v>0.1011550528825548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1959920480514864</c:v>
+                  <c:v>0.1646111930129424</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.110343109959584</c:v>
+                  <c:v>0.3336503664219168</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1082875080511815</c:v>
+                  <c:v>0.3910926047506786</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.327427734600423</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2379832895316012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1661105404849146</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1210509483299808</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1081447193580127</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1034872277390509</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1097121788865214</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1213355979626553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1991,22 +3047,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2021,22 +3101,46 @@
                   <c:v>0.9150937609709797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7283293516570252</c:v>
+                  <c:v>0.7463966907226641</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6930779432104812</c:v>
+                  <c:v>0.7294881366955092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6723465335293507</c:v>
+                  <c:v>0.7157707838513423</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.658953577510441</c:v>
+                  <c:v>0.6974125697520037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6467507493208376</c:v>
+                  <c:v>0.6851024499038216</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6376193191809731</c:v>
+                  <c:v>0.675692855829284</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6682697646698972</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6624659508095848</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6565693512144085</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6506300472605893</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6454918806457323</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.640926520472392</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6366726202632597</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6316064760268634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2069,22 +3173,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2099,22 +3227,46 @@
                   <c:v>0.1545171542961815</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.07378641289561329</c:v>
+                  <c:v>0.07986756668797161</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.07908377717358028</c:v>
+                  <c:v>0.07414851553735519</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08674260640221736</c:v>
+                  <c:v>0.07414131202510285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.132920768131506</c:v>
+                  <c:v>0.07883930720468198</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1682159797061507</c:v>
+                  <c:v>0.07990580699934111</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1915611043816055</c:v>
+                  <c:v>0.08534079645615686</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08996017461489245</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1114584641962474</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1464611408406017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1574014048692965</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1748110285376251</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1939335526152698</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1891119382620202</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1806701329729885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2147,22 +3299,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2177,22 +3353,46 @@
                   <c:v>0.1071220618523021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0607291626061649</c:v>
+                  <c:v>0.05850943103943414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08585794563921224</c:v>
+                  <c:v>0.06011412526036721</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1730449526751493</c:v>
+                  <c:v>0.06926073654943421</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5483849325166936</c:v>
+                  <c:v>0.08445951935521838</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6566654583041803</c:v>
+                  <c:v>0.09533872767210438</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6646254451392946</c:v>
+                  <c:v>0.1511684761446104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2085716941522843</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3993509097617891</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6190370390849779</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6600585282208832</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6553456349498743</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6545632004050352</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6669226667643215</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6886221653628607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2225,22 +3425,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2255,22 +3479,46 @@
                   <c:v>0.3336891525270994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3351864972902864</c:v>
+                  <c:v>0.26762475031434</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1868244727027755</c:v>
+                  <c:v>0.3284332005976907</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.04954646617914216</c:v>
+                  <c:v>0.3217418075570678</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.03948854883530345</c:v>
+                  <c:v>0.2211238662919866</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04076386831078357</c:v>
+                  <c:v>0.1212994424814587</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.04787423504586857</c:v>
+                  <c:v>0.05825080447758364</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.04464202498886671</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.03950815538700903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.03953217312366047</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.03941666367788391</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.04167463217879418</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.04649386716036969</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.04743076232027005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.04651191485425346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2303,22 +3551,46 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.8571428571428</c:v>
+                  <c:v>421.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.7142857142857</c:v>
+                  <c:v>442.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.5714285714286</c:v>
+                  <c:v>464.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.4285714285714</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>629.2857142857142</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675.1428571428571</c:v>
+                  <c:v>528.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>549.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>571.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>635.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>678.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>699.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2348,6 +3620,30 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2362,7 +3658,7 @@
         <c:axId val="50020001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="675.1428571428571"/>
+          <c:max val="699.5999999999999"/>
           <c:min val="400.0"/>
         </c:scaling>
         <c:axPos val="b"/>
@@ -2786,7 +4082,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2816,97 +4112,209 @@
         <v>400</v>
       </c>
       <c r="B3">
-        <v>2.067257303971753</v>
+        <v>0.001838289070500272</v>
       </c>
       <c r="C3">
-        <v>3.358599082526833</v>
+        <v>0.002752165118885509</v>
       </c>
       <c r="D3">
-        <v>1.84415230357996</v>
+        <v>0.0109629734297965</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>445.8571428571428</v>
+        <v>421.4</v>
       </c>
       <c r="B4">
-        <v>-0.01279604849196638</v>
+        <v>0.006537736117068222</v>
       </c>
       <c r="C4">
-        <v>-0.0243776466159359</v>
+        <v>0.0300486619925795</v>
       </c>
       <c r="D4">
-        <v>0.01784397460221985</v>
+        <v>0.3108642018018755</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>491.7142857142857</v>
+        <v>442.8</v>
       </c>
       <c r="B5">
-        <v>-0.006306877204345419</v>
+        <v>0.003538288772458763</v>
       </c>
       <c r="C5">
-        <v>0.02929071668140342</v>
+        <v>0.084479079567681</v>
       </c>
       <c r="D5">
-        <v>0.03213595405375163</v>
+        <v>0.7209819990963922</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>537.5714285714286</v>
+        <v>464.2</v>
       </c>
       <c r="B6">
-        <v>0.01456142697546765</v>
+        <v>0.00582145484088417</v>
       </c>
       <c r="C6">
-        <v>0.07004099026199831</v>
+        <v>0.1971645994436015</v>
       </c>
       <c r="D6">
-        <v>0.01195019650570017</v>
+        <v>0.7941424002166518</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>583.4285714285714</v>
+        <v>485.6</v>
       </c>
       <c r="B7">
-        <v>0.02374731152548061</v>
+        <v>0.01942756057031213</v>
       </c>
       <c r="C7">
-        <v>0.02514487595594261</v>
+        <v>0.6121728001699969</v>
       </c>
       <c r="D7">
-        <v>0.002609368775894648</v>
+        <v>0.6954359998225951</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>629.2857142857142</v>
+        <v>507</v>
       </c>
       <c r="B8">
-        <v>0.01807277326689681</v>
+        <v>0.04774619989190247</v>
       </c>
       <c r="C8">
-        <v>-0.02083174986722304</v>
+        <v>0.8722620000420983</v>
       </c>
       <c r="D8">
-        <v>-0.01649980014209236</v>
+        <v>0.4245620000758697</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>675.1428571428571</v>
+        <v>528.4</v>
       </c>
       <c r="B9">
-        <v>0.01234460737859068</v>
+        <v>0.07999936013966448</v>
       </c>
       <c r="C9">
-        <v>0.03050501893623775</v>
+        <v>0.9829744001769583</v>
       </c>
       <c r="D9">
-        <v>0.02074581282977492</v>
+        <v>0.1673812001124159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>549.8</v>
+      </c>
+      <c r="B10">
+        <v>0.1521005997536056</v>
+      </c>
+      <c r="C10">
+        <v>0.8557917996244306</v>
+      </c>
+      <c r="D10">
+        <v>0.0785638197810147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>571.2</v>
+      </c>
+      <c r="B11">
+        <v>0.3127368001755585</v>
+      </c>
+      <c r="C11">
+        <v>0.6924996002503295</v>
+      </c>
+      <c r="D11">
+        <v>0.04012632012603829</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>592.6</v>
+      </c>
+      <c r="B12">
+        <v>0.5271467999513021</v>
+      </c>
+      <c r="C12">
+        <v>0.3980847999558507</v>
+      </c>
+      <c r="D12">
+        <v>0.02566103998731549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>614</v>
+      </c>
+      <c r="B13">
+        <v>0.4586619999966262</v>
+      </c>
+      <c r="C13">
+        <v>0.1287855999642535</v>
+      </c>
+      <c r="D13">
+        <v>0.01185183997324454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>635.4</v>
+      </c>
+      <c r="B14">
+        <v>0.3004132000068145</v>
+      </c>
+      <c r="C14">
+        <v>0.04328102002799894</v>
+      </c>
+      <c r="D14">
+        <v>0.00784567801680942</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>656.8</v>
+      </c>
+      <c r="B15">
+        <v>0.1820007999833127</v>
+      </c>
+      <c r="C15">
+        <v>0.02124667995531754</v>
+      </c>
+      <c r="D15">
+        <v>0.00832145598101304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>678.2</v>
+      </c>
+      <c r="B16">
+        <v>0.08300382003108321</v>
+      </c>
+      <c r="C16">
+        <v>0.01560052007682666</v>
+      </c>
+      <c r="D16">
+        <v>0.005927492031308307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>699.5999999999999</v>
+      </c>
+      <c r="B17">
+        <v>0.004516039982699659</v>
+      </c>
+      <c r="C17">
+        <v>0.001519271955118551</v>
+      </c>
+      <c r="D17">
+        <v>0.0004191935824416815</v>
       </c>
     </row>
   </sheetData>
@@ -2917,7 +4325,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3084,76 +4492,76 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4">
-        <v>445.8571428571428</v>
+        <v>421.4</v>
       </c>
       <c r="B4">
-        <v>0.457204914113954</v>
+        <v>0.4347329570200189</v>
       </c>
       <c r="C4">
-        <v>0.08228774900524269</v>
+        <v>0.09082281808187313</v>
       </c>
       <c r="D4">
-        <v>0.4170187322505641</v>
+        <v>0.3629987357194395</v>
       </c>
       <c r="E4">
-        <v>0.04017907778413859</v>
+        <v>0.04344880462945845</v>
       </c>
       <c r="F4">
-        <v>0.5398400340898113</v>
+        <v>0.5804517064036815</v>
       </c>
       <c r="G4">
-        <v>0.09962730490220774</v>
+        <v>0.09885375640121002</v>
       </c>
       <c r="H4">
-        <v>0.3999750111267693</v>
+        <v>0.4977646086642832</v>
       </c>
       <c r="I4">
-        <v>0.1176590202840144</v>
+        <v>0.1225936861325517</v>
       </c>
       <c r="J4">
-        <v>0.06535965071605614</v>
+        <v>0.06916767859351255</v>
       </c>
       <c r="K4">
-        <v>0.177161987802859</v>
+        <v>0.1926190053073515</v>
       </c>
       <c r="L4">
-        <v>0.08078521772788491</v>
+        <v>0.08277055401844004</v>
       </c>
       <c r="M4">
-        <v>0.2416069225175778</v>
+        <v>0.2494387730079491</v>
       </c>
       <c r="N4">
-        <v>0.3964714865759596</v>
+        <v>0.4021136635337609</v>
       </c>
       <c r="O4">
-        <v>0.1647017215930978</v>
+        <v>0.1908572770629146</v>
       </c>
       <c r="P4">
-        <v>0.05421217084338534</v>
+        <v>0.05668250409226823</v>
       </c>
       <c r="Q4">
-        <v>0.4758864802505499</v>
+        <v>0.4916650751540857</v>
       </c>
       <c r="R4">
-        <v>0.2393563679394413</v>
+        <v>0.227711520947203</v>
       </c>
       <c r="S4">
-        <v>0.4926265620822335</v>
+        <v>0.450928879936922</v>
       </c>
       <c r="T4">
-        <v>0.08585855238290965</v>
+        <v>0.0838057434003603</v>
       </c>
       <c r="U4">
-        <v>0.7283293516570252</v>
+        <v>0.7463966907226641</v>
       </c>
       <c r="V4">
-        <v>0.07378641289561329</v>
+        <v>0.07986756668797161</v>
       </c>
       <c r="W4">
-        <v>0.0607291626061649</v>
+        <v>0.05850943103943414</v>
       </c>
       <c r="X4">
-        <v>0.3351864972902864</v>
+        <v>0.26762475031434</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -3161,76 +4569,76 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5">
-        <v>491.7142857142857</v>
+        <v>442.8</v>
       </c>
       <c r="B5">
-        <v>0.649097462669212</v>
+        <v>0.450662138951366</v>
       </c>
       <c r="C5">
-        <v>0.09737868917161097</v>
+        <v>0.08299910733279234</v>
       </c>
       <c r="D5">
-        <v>0.514083240980938</v>
+        <v>0.407459760504578</v>
       </c>
       <c r="E5">
-        <v>0.03670286327528459</v>
+        <v>0.0404327965435776</v>
       </c>
       <c r="F5">
-        <v>0.3952981497911421</v>
+        <v>0.5453205951471082</v>
       </c>
       <c r="G5">
-        <v>0.2016953786809809</v>
+        <v>0.09848049678341436</v>
       </c>
       <c r="H5">
-        <v>0.21372336918085</v>
+        <v>0.4136144050776305</v>
       </c>
       <c r="I5">
-        <v>0.1061337687444345</v>
+        <v>0.1181754266136094</v>
       </c>
       <c r="J5">
-        <v>0.09816841470129203</v>
+        <v>0.06533039055669145</v>
       </c>
       <c r="K5">
-        <v>0.09099063610242446</v>
+        <v>0.1805416937012176</v>
       </c>
       <c r="L5">
-        <v>0.1291711288695227</v>
+        <v>0.08064894396138349</v>
       </c>
       <c r="M5">
-        <v>0.221498320076895</v>
+        <v>0.2421624260031691</v>
       </c>
       <c r="N5">
-        <v>0.3207985171807302</v>
+        <v>0.3974907387431123</v>
       </c>
       <c r="O5">
-        <v>0.1297302310968755</v>
+        <v>0.1668907246545781</v>
       </c>
       <c r="P5">
-        <v>0.05959314149148034</v>
+        <v>0.05437802604113692</v>
       </c>
       <c r="Q5">
-        <v>0.4414216375654764</v>
+        <v>0.476876710956514</v>
       </c>
       <c r="R5">
-        <v>0.3823197520213393</v>
+        <v>0.2354593320415703</v>
       </c>
       <c r="S5">
-        <v>0.2892246022621957</v>
+        <v>0.4897109626367444</v>
       </c>
       <c r="T5">
-        <v>0.202148203145582</v>
+        <v>0.08473469135661216</v>
       </c>
       <c r="U5">
-        <v>0.6930779432104812</v>
+        <v>0.7294881366955092</v>
       </c>
       <c r="V5">
-        <v>0.07908377717358028</v>
+        <v>0.07414851553735519</v>
       </c>
       <c r="W5">
-        <v>0.08585794563921224</v>
+        <v>0.06011412526036721</v>
       </c>
       <c r="X5">
-        <v>0.1868244727027755</v>
+        <v>0.3284332005976907</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -3238,76 +4646,76 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6">
-        <v>537.5714285714286</v>
+        <v>464.2</v>
       </c>
       <c r="B6">
-        <v>0.5829872720627912</v>
+        <v>0.5277901238656847</v>
       </c>
       <c r="C6">
-        <v>0.3783889470509429</v>
+        <v>0.07946604154885499</v>
       </c>
       <c r="D6">
-        <v>0.2702772406664042</v>
+        <v>0.4825898171590876</v>
       </c>
       <c r="E6">
-        <v>0.03472124987621308</v>
+        <v>0.03867543793368514</v>
       </c>
       <c r="F6">
-        <v>0.2442178780867606</v>
+        <v>0.4973840258549687</v>
       </c>
       <c r="G6">
-        <v>0.6110645178023041</v>
+        <v>0.1135753604867409</v>
       </c>
       <c r="H6">
-        <v>0.1097109880173461</v>
+        <v>0.3208400192927348</v>
       </c>
       <c r="I6">
-        <v>0.1021654654604902</v>
+        <v>0.1127088089629129</v>
       </c>
       <c r="J6">
-        <v>0.1904147902402375</v>
+        <v>0.07194541327170055</v>
       </c>
       <c r="K6">
-        <v>0.04807777120429172</v>
+        <v>0.1499480830035335</v>
       </c>
       <c r="L6">
-        <v>0.6900765030968399</v>
+        <v>0.08501095460739692</v>
       </c>
       <c r="M6">
-        <v>0.2143141984846771</v>
+        <v>0.2337520051646986</v>
       </c>
       <c r="N6">
-        <v>0.2142072595814645</v>
+        <v>0.3788587128498926</v>
       </c>
       <c r="O6">
-        <v>0.1074949939389243</v>
+        <v>0.1505978814576907</v>
       </c>
       <c r="P6">
-        <v>0.05794021880435995</v>
+        <v>0.0562238212471421</v>
       </c>
       <c r="Q6">
-        <v>0.4252028952710529</v>
+        <v>0.4626852039690071</v>
       </c>
       <c r="R6">
-        <v>0.275187049346131</v>
+        <v>0.2805083024132445</v>
       </c>
       <c r="S6">
-        <v>0.1185967876845971</v>
+        <v>0.4597761831091726</v>
       </c>
       <c r="T6">
-        <v>0.3694045894055291</v>
+        <v>0.1011550528825548</v>
       </c>
       <c r="U6">
-        <v>0.6723465335293507</v>
+        <v>0.7157707838513423</v>
       </c>
       <c r="V6">
-        <v>0.08674260640221736</v>
+        <v>0.07414131202510285</v>
       </c>
       <c r="W6">
-        <v>0.1730449526751493</v>
+        <v>0.06926073654943421</v>
       </c>
       <c r="X6">
-        <v>0.04954646617914216</v>
+        <v>0.3217418075570678</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -3315,76 +4723,76 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7">
-        <v>583.4285714285714</v>
+        <v>485.6</v>
       </c>
       <c r="B7">
-        <v>0.3574825051614101</v>
+        <v>0.6313656135935962</v>
       </c>
       <c r="C7">
-        <v>0.652108014764743</v>
+        <v>0.0863054676002996</v>
       </c>
       <c r="D7">
-        <v>0.1019842684033302</v>
+        <v>0.5244937096952952</v>
       </c>
       <c r="E7">
-        <v>0.03396910404580829</v>
+        <v>0.03713302934651316</v>
       </c>
       <c r="F7">
-        <v>0.2162468774372034</v>
+        <v>0.421246386154503</v>
       </c>
       <c r="G7">
-        <v>0.5051446895960722</v>
+        <v>0.1645833669806358</v>
       </c>
       <c r="H7">
-        <v>0.1740259081264336</v>
+        <v>0.2349197358645344</v>
       </c>
       <c r="I7">
-        <v>0.1002099815225229</v>
+        <v>0.1071802258168037</v>
       </c>
       <c r="J7">
-        <v>0.1341572735734611</v>
+        <v>0.09485853984679814</v>
       </c>
       <c r="K7">
-        <v>0.06344104699438693</v>
+        <v>0.1044079345866705</v>
       </c>
       <c r="L7">
-        <v>0.7807273569027465</v>
+        <v>0.1066168403697455</v>
       </c>
       <c r="M7">
-        <v>0.2134384663085079</v>
+        <v>0.2235228184185657</v>
       </c>
       <c r="N7">
-        <v>0.1593057855226324</v>
+        <v>0.337535459519399</v>
       </c>
       <c r="O7">
-        <v>0.1962910467759624</v>
+        <v>0.1338215420453873</v>
       </c>
       <c r="P7">
-        <v>0.09571029646392511</v>
+        <v>0.06041225162323714</v>
       </c>
       <c r="Q7">
-        <v>0.4137993087065003</v>
+        <v>0.445226879728276</v>
       </c>
       <c r="R7">
-        <v>0.3941178046202112</v>
+        <v>0.3622654660837951</v>
       </c>
       <c r="S7">
-        <v>0.08855281277394562</v>
+        <v>0.3317947200884006</v>
       </c>
       <c r="T7">
-        <v>0.1959920480514864</v>
+        <v>0.1646111930129424</v>
       </c>
       <c r="U7">
-        <v>0.658953577510441</v>
+        <v>0.6974125697520037</v>
       </c>
       <c r="V7">
-        <v>0.132920768131506</v>
+        <v>0.07883930720468198</v>
       </c>
       <c r="W7">
-        <v>0.5483849325166936</v>
+        <v>0.08445951935521838</v>
       </c>
       <c r="X7">
-        <v>0.03948854883530345</v>
+        <v>0.2211238662919866</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -3392,76 +4800,76 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8">
-        <v>629.2857142857142</v>
+        <v>507</v>
       </c>
       <c r="B8">
-        <v>0.2235573454855335</v>
+        <v>0.6599694369264091</v>
       </c>
       <c r="C8">
-        <v>0.6960442704812181</v>
+        <v>0.1553218798483628</v>
       </c>
       <c r="D8">
-        <v>0.07771037774744548</v>
+        <v>0.454921845005265</v>
       </c>
       <c r="E8">
-        <v>0.03360889237597655</v>
+        <v>0.0359957248046988</v>
       </c>
       <c r="F8">
-        <v>0.2654819792110702</v>
+        <v>0.3351300749137697</v>
       </c>
       <c r="G8">
-        <v>0.326247974721096</v>
+        <v>0.3875347901573428</v>
       </c>
       <c r="H8">
-        <v>0.645108592310256</v>
+        <v>0.1770516220862811</v>
       </c>
       <c r="I8">
-        <v>0.09574209558444485</v>
+        <v>0.1044709880332671</v>
       </c>
       <c r="J8">
-        <v>0.1076591194721893</v>
+        <v>0.1080758083035987</v>
       </c>
       <c r="K8">
-        <v>0.09009182888253435</v>
+        <v>0.06952994079365557</v>
       </c>
       <c r="L8">
-        <v>0.7759757673017142</v>
+        <v>0.3051953762710589</v>
       </c>
       <c r="M8">
-        <v>0.2048090276964736</v>
+        <v>0.2184535927040357</v>
       </c>
       <c r="N8">
-        <v>0.1398603699514422</v>
+        <v>0.2801774802806539</v>
       </c>
       <c r="O8">
-        <v>0.6495066758285855</v>
+        <v>0.1198244953981753</v>
       </c>
       <c r="P8">
-        <v>0.6041317009256558</v>
+        <v>0.05697335502992742</v>
       </c>
       <c r="Q8">
-        <v>0.3988652541491239</v>
+        <v>0.434969954963881</v>
       </c>
       <c r="R8">
-        <v>0.6236666231909522</v>
+        <v>0.3982663795254776</v>
       </c>
       <c r="S8">
-        <v>0.09077788887884473</v>
+        <v>0.2050411060254349</v>
       </c>
       <c r="T8">
-        <v>0.110343109959584</v>
+        <v>0.3336503664219168</v>
       </c>
       <c r="U8">
-        <v>0.6467507493208376</v>
+        <v>0.6851024499038216</v>
       </c>
       <c r="V8">
-        <v>0.1682159797061507</v>
+        <v>0.07990580699934111</v>
       </c>
       <c r="W8">
-        <v>0.6566654583041803</v>
+        <v>0.09533872767210438</v>
       </c>
       <c r="X8">
-        <v>0.04076386831078357</v>
+        <v>0.1212994424814587</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -3469,78 +4877,694 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9">
-        <v>675.1428571428571</v>
+        <v>528.4</v>
       </c>
       <c r="B9">
-        <v>0.2279146796598687</v>
+        <v>0.6144280726547425</v>
       </c>
       <c r="C9">
-        <v>0.7090518681417881</v>
+        <v>0.2861796296181994</v>
       </c>
       <c r="D9">
-        <v>0.08145232209145785</v>
+        <v>0.3247017594129571</v>
       </c>
       <c r="E9">
-        <v>0.03337602258876608</v>
+        <v>0.0350934344294276</v>
       </c>
       <c r="F9">
-        <v>0.3746364143611884</v>
+        <v>0.2565085525569364</v>
       </c>
       <c r="G9">
-        <v>0.347210710497077</v>
+        <v>0.5925051710679035</v>
       </c>
       <c r="H9">
-        <v>0.9155817896136699</v>
+        <v>0.1193611649094793</v>
       </c>
       <c r="I9">
-        <v>0.09141997336606313</v>
+        <v>0.1028038393138512</v>
       </c>
       <c r="J9">
-        <v>0.1120037077277653</v>
+        <v>0.1752523473983584</v>
       </c>
       <c r="K9">
-        <v>0.2209090350496218</v>
+        <v>0.05013270891023185</v>
       </c>
       <c r="L9">
-        <v>0.7723450891307106</v>
+        <v>0.6165784746063054</v>
       </c>
       <c r="M9">
-        <v>0.1960460745489062</v>
+        <v>0.2154640044096854</v>
       </c>
       <c r="N9">
-        <v>0.1633383446411817</v>
+        <v>0.2264533808719952</v>
       </c>
       <c r="O9">
-        <v>0.6649098722818244</v>
+        <v>0.1081311042708425</v>
       </c>
       <c r="P9">
-        <v>0.712951483494438</v>
+        <v>0.05785828768971259</v>
       </c>
       <c r="Q9">
-        <v>0.3850157370337398</v>
+        <v>0.4278937500704265</v>
       </c>
       <c r="R9">
-        <v>0.7395800541517255</v>
+        <v>0.2986188178265894</v>
       </c>
       <c r="S9">
-        <v>0.1519503265138836</v>
+        <v>0.1335753366144754</v>
       </c>
       <c r="T9">
-        <v>0.1082875080511815</v>
+        <v>0.3910926047506786</v>
       </c>
       <c r="U9">
-        <v>0.6376193191809731</v>
+        <v>0.675692855829284</v>
       </c>
       <c r="V9">
-        <v>0.1915611043816055</v>
+        <v>0.08534079645615686</v>
       </c>
       <c r="W9">
-        <v>0.6646254451392946</v>
+        <v>0.1511684761446104</v>
       </c>
       <c r="X9">
-        <v>0.04787423504586857</v>
+        <v>0.05825080447758364</v>
       </c>
       <c r="Y9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10">
+        <v>549.8</v>
+      </c>
+      <c r="B10">
+        <v>0.5312185676624699</v>
+      </c>
+      <c r="C10">
+        <v>0.4967595532361556</v>
+      </c>
+      <c r="D10">
+        <v>0.2043391919072902</v>
+      </c>
+      <c r="E10">
+        <v>0.03445878141924506</v>
+      </c>
+      <c r="F10">
+        <v>0.2351619407109579</v>
+      </c>
+      <c r="G10">
+        <v>0.6038254778677831</v>
+      </c>
+      <c r="H10">
+        <v>0.1133438259293354</v>
+      </c>
+      <c r="I10">
+        <v>0.1012321987980609</v>
+      </c>
+      <c r="J10">
+        <v>0.1809953526519291</v>
+      </c>
+      <c r="K10">
+        <v>0.04899794774863116</v>
+      </c>
+      <c r="L10">
+        <v>0.7383854550585479</v>
+      </c>
+      <c r="M10">
+        <v>0.2131066930112458</v>
+      </c>
+      <c r="N10">
+        <v>0.2003076216467726</v>
+      </c>
+      <c r="O10">
+        <v>0.1076955784877136</v>
+      </c>
+      <c r="P10">
+        <v>0.05834524291999936</v>
+      </c>
+      <c r="Q10">
+        <v>0.4215644263904983</v>
+      </c>
+      <c r="R10">
+        <v>0.2846911703924212</v>
+      </c>
+      <c r="S10">
+        <v>0.1053202130782277</v>
+      </c>
+      <c r="T10">
+        <v>0.327427734600423</v>
+      </c>
+      <c r="U10">
+        <v>0.6682697646698972</v>
+      </c>
+      <c r="V10">
+        <v>0.08996017461489245</v>
+      </c>
+      <c r="W10">
+        <v>0.2085716941522843</v>
+      </c>
+      <c r="X10">
+        <v>0.04464202498886671</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11">
+        <v>571.2</v>
+      </c>
+      <c r="B11">
+        <v>0.4232416825218674</v>
+      </c>
+      <c r="C11">
+        <v>0.6146825204173754</v>
+      </c>
+      <c r="D11">
+        <v>0.1235110880069189</v>
+      </c>
+      <c r="E11">
+        <v>0.0341144238708521</v>
+      </c>
+      <c r="F11">
+        <v>0.2070367178327463</v>
+      </c>
+      <c r="G11">
+        <v>0.5605244289150073</v>
+      </c>
+      <c r="H11">
+        <v>0.1197128120995683</v>
+      </c>
+      <c r="I11">
+        <v>0.1007344004575769</v>
+      </c>
+      <c r="J11">
+        <v>0.1477219181998373</v>
+      </c>
+      <c r="K11">
+        <v>0.0512265147872942</v>
+      </c>
+      <c r="L11">
+        <v>0.7720493917799465</v>
+      </c>
+      <c r="M11">
+        <v>0.2134772467285938</v>
+      </c>
+      <c r="N11">
+        <v>0.1673127702443699</v>
+      </c>
+      <c r="O11">
+        <v>0.119570731514718</v>
+      </c>
+      <c r="P11">
+        <v>0.07473596779164723</v>
+      </c>
+      <c r="Q11">
+        <v>0.4167942103397284</v>
+      </c>
+      <c r="R11">
+        <v>0.2987345798605212</v>
+      </c>
+      <c r="S11">
+        <v>0.09098904866801216</v>
+      </c>
+      <c r="T11">
+        <v>0.2379832895316012</v>
+      </c>
+      <c r="U11">
+        <v>0.6624659508095848</v>
+      </c>
+      <c r="V11">
+        <v>0.1114584641962474</v>
+      </c>
+      <c r="W11">
+        <v>0.3993509097617891</v>
+      </c>
+      <c r="X11">
+        <v>0.03950815538700903</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12">
+        <v>592.6</v>
+      </c>
+      <c r="B12">
+        <v>0.3092924421616493</v>
+      </c>
+      <c r="C12">
+        <v>0.6702296206876757</v>
+      </c>
+      <c r="D12">
+        <v>0.09244604629325689</v>
+      </c>
+      <c r="E12">
+        <v>0.03395295573129334</v>
+      </c>
+      <c r="F12">
+        <v>0.2353059590529074</v>
+      </c>
+      <c r="G12">
+        <v>0.4466116332602698</v>
+      </c>
+      <c r="H12">
+        <v>0.2607424459350037</v>
+      </c>
+      <c r="I12">
+        <v>0.09968030066265364</v>
+      </c>
+      <c r="J12">
+        <v>0.1251000530482836</v>
+      </c>
+      <c r="K12">
+        <v>0.0811036626389848</v>
+      </c>
+      <c r="L12">
+        <v>0.7838388245257166</v>
+      </c>
+      <c r="M12">
+        <v>0.2126906405851678</v>
+      </c>
+      <c r="N12">
+        <v>0.1571760307572394</v>
+      </c>
+      <c r="O12">
+        <v>0.3209195460160733</v>
+      </c>
+      <c r="P12">
+        <v>0.1367305252278952</v>
+      </c>
+      <c r="Q12">
+        <v>0.4114038328645788</v>
+      </c>
+      <c r="R12">
+        <v>0.4834817548872505</v>
+      </c>
+      <c r="S12">
+        <v>0.0884543615631361</v>
+      </c>
+      <c r="T12">
+        <v>0.1661105404849146</v>
+      </c>
+      <c r="U12">
+        <v>0.6565693512144085</v>
+      </c>
+      <c r="V12">
+        <v>0.1464611408406017</v>
+      </c>
+      <c r="W12">
+        <v>0.6190370390849779</v>
+      </c>
+      <c r="X12">
+        <v>0.03953217312366047</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13">
+        <v>614</v>
+      </c>
+      <c r="B13">
+        <v>0.2390471815087228</v>
+      </c>
+      <c r="C13">
+        <v>0.6898058160623424</v>
+      </c>
+      <c r="D13">
+        <v>0.07947699405386599</v>
+      </c>
+      <c r="E13">
+        <v>0.03376668136287034</v>
+      </c>
+      <c r="F13">
+        <v>0.2643568072895374</v>
+      </c>
+      <c r="G13">
+        <v>0.3468195324908583</v>
+      </c>
+      <c r="H13">
+        <v>0.5166671318312819</v>
+      </c>
+      <c r="I13">
+        <v>0.09747247628862232</v>
+      </c>
+      <c r="J13">
+        <v>0.1090559842414567</v>
+      </c>
+      <c r="K13">
+        <v>0.09717899736039784</v>
+      </c>
+      <c r="L13">
+        <v>0.7752549142388001</v>
+      </c>
+      <c r="M13">
+        <v>0.2082233975303777</v>
+      </c>
+      <c r="N13">
+        <v>0.1446044666833909</v>
+      </c>
+      <c r="O13">
+        <v>0.5851404155906301</v>
+      </c>
+      <c r="P13">
+        <v>0.3997514206166002</v>
+      </c>
+      <c r="Q13">
+        <v>0.404192566576467</v>
+      </c>
+      <c r="R13">
+        <v>0.5912019632302008</v>
+      </c>
+      <c r="S13">
+        <v>0.0884703386289349</v>
+      </c>
+      <c r="T13">
+        <v>0.1210509483299808</v>
+      </c>
+      <c r="U13">
+        <v>0.6506300472605893</v>
+      </c>
+      <c r="V13">
+        <v>0.1574014048692965</v>
+      </c>
+      <c r="W13">
+        <v>0.6600585282208832</v>
+      </c>
+      <c r="X13">
+        <v>0.03941666367788391</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14">
+        <v>635.4</v>
+      </c>
+      <c r="B14">
+        <v>0.2199737765268738</v>
+      </c>
+      <c r="C14">
+        <v>0.6981268235776292</v>
+      </c>
+      <c r="D14">
+        <v>0.07749554910396697</v>
+      </c>
+      <c r="E14">
+        <v>0.03361557019894697</v>
+      </c>
+      <c r="F14">
+        <v>0.2759819805227531</v>
+      </c>
+      <c r="G14">
+        <v>0.3217603362011383</v>
+      </c>
+      <c r="H14">
+        <v>0.6888769467811408</v>
+      </c>
+      <c r="I14">
+        <v>0.09520767258025895</v>
+      </c>
+      <c r="J14">
+        <v>0.1081633099452103</v>
+      </c>
+      <c r="K14">
+        <v>0.09632852775145957</v>
+      </c>
+      <c r="L14">
+        <v>0.7778072197446565</v>
+      </c>
+      <c r="M14">
+        <v>0.203647789688445</v>
+      </c>
+      <c r="N14">
+        <v>0.1409288696396373</v>
+      </c>
+      <c r="O14">
+        <v>0.6582818989216397</v>
+      </c>
+      <c r="P14">
+        <v>0.6474718586232494</v>
+      </c>
+      <c r="Q14">
+        <v>0.3970885935524431</v>
+      </c>
+      <c r="R14">
+        <v>0.6355719874170213</v>
+      </c>
+      <c r="S14">
+        <v>0.09391454099594941</v>
+      </c>
+      <c r="T14">
+        <v>0.1081447193580127</v>
+      </c>
+      <c r="U14">
+        <v>0.6454918806457323</v>
+      </c>
+      <c r="V14">
+        <v>0.1748110285376251</v>
+      </c>
+      <c r="W14">
+        <v>0.6553456349498743</v>
+      </c>
+      <c r="X14">
+        <v>0.04167463217879418</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15">
+        <v>656.8</v>
+      </c>
+      <c r="B15">
+        <v>0.2128851662848669</v>
+      </c>
+      <c r="C15">
+        <v>0.7043023877767057</v>
+      </c>
+      <c r="D15">
+        <v>0.08002804152437942</v>
+      </c>
+      <c r="E15">
+        <v>0.0335499422345955</v>
+      </c>
+      <c r="F15">
+        <v>0.3451531155082759</v>
+      </c>
+      <c r="G15">
+        <v>0.3156977258402178</v>
+      </c>
+      <c r="H15">
+        <v>0.8437349972876644</v>
+      </c>
+      <c r="I15">
+        <v>0.09322211862432218</v>
+      </c>
+      <c r="J15">
+        <v>0.109562169465182</v>
+      </c>
+      <c r="K15">
+        <v>0.1581749323691811</v>
+      </c>
+      <c r="L15">
+        <v>0.777262184793619</v>
+      </c>
+      <c r="M15">
+        <v>0.1998622986568856</v>
+      </c>
+      <c r="N15">
+        <v>0.157083110144318</v>
+      </c>
+      <c r="O15">
+        <v>0.6658525494788141</v>
+      </c>
+      <c r="P15">
+        <v>0.7034550825951941</v>
+      </c>
+      <c r="Q15">
+        <v>0.3905691110550155</v>
+      </c>
+      <c r="R15">
+        <v>0.6847404283209602</v>
+      </c>
+      <c r="S15">
+        <v>0.1160089319027709</v>
+      </c>
+      <c r="T15">
+        <v>0.1034872277390509</v>
+      </c>
+      <c r="U15">
+        <v>0.640926520472392</v>
+      </c>
+      <c r="V15">
+        <v>0.1939335526152698</v>
+      </c>
+      <c r="W15">
+        <v>0.6545632004050352</v>
+      </c>
+      <c r="X15">
+        <v>0.04649386716036969</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16">
+        <v>678.2</v>
+      </c>
+      <c r="B16">
+        <v>0.23144269967418</v>
+      </c>
+      <c r="C16">
+        <v>0.7094734940582578</v>
+      </c>
+      <c r="D16">
+        <v>0.08111110324415541</v>
+      </c>
+      <c r="E16">
+        <v>0.03336469298792442</v>
+      </c>
+      <c r="F16">
+        <v>0.3738715324281612</v>
+      </c>
+      <c r="G16">
+        <v>0.3536503482412022</v>
+      </c>
+      <c r="H16">
+        <v>0.9215556624444682</v>
+      </c>
+      <c r="I16">
+        <v>0.09105481503673309</v>
+      </c>
+      <c r="J16">
+        <v>0.1122204149811375</v>
+      </c>
+      <c r="K16">
+        <v>0.2298470039126393</v>
+      </c>
+      <c r="L16">
+        <v>0.7636137407505464</v>
+      </c>
+      <c r="M16">
+        <v>0.1952064617688623</v>
+      </c>
+      <c r="N16">
+        <v>0.1622916094511649</v>
+      </c>
+      <c r="O16">
+        <v>0.6644011915623153</v>
+      </c>
+      <c r="P16">
+        <v>0.7145375018871296</v>
+      </c>
+      <c r="Q16">
+        <v>0.3838342854882096</v>
+      </c>
+      <c r="R16">
+        <v>0.7489180232272532</v>
+      </c>
+      <c r="S16">
+        <v>0.160280165406603</v>
+      </c>
+      <c r="T16">
+        <v>0.1097121788865214</v>
+      </c>
+      <c r="U16">
+        <v>0.6366726202632597</v>
+      </c>
+      <c r="V16">
+        <v>0.1891119382620202</v>
+      </c>
+      <c r="W16">
+        <v>0.6669226667643215</v>
+      </c>
+      <c r="X16">
+        <v>0.04743076232027005</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17">
+        <v>699.5999999999999</v>
+      </c>
+      <c r="B17">
+        <v>0.2534752803311507</v>
+      </c>
+      <c r="C17">
+        <v>0.713735700955433</v>
+      </c>
+      <c r="D17">
+        <v>0.0770968435562361</v>
+      </c>
+      <c r="E17">
+        <v>0.03334340313859333</v>
+      </c>
+      <c r="F17">
+        <v>0.367956607174336</v>
+      </c>
+      <c r="G17">
+        <v>0.3949249948910861</v>
+      </c>
+      <c r="H17">
+        <v>0.9502390582642345</v>
+      </c>
+      <c r="I17">
+        <v>0.08921640760166066</v>
+      </c>
+      <c r="J17">
+        <v>0.1141982834591928</v>
+      </c>
+      <c r="K17">
+        <v>0.2813055058987556</v>
+      </c>
+      <c r="L17">
+        <v>0.7886372549285607</v>
+      </c>
+      <c r="M17">
+        <v>0.1902302202665669</v>
+      </c>
+      <c r="N17">
+        <v>0.1483460570965575</v>
+      </c>
+      <c r="O17">
+        <v>0.6615519217286496</v>
+      </c>
+      <c r="P17">
+        <v>0.7254734897757442</v>
+      </c>
+      <c r="Q17">
+        <v>0.3766371866339976</v>
+      </c>
+      <c r="R17">
+        <v>0.8182282006322547</v>
+      </c>
+      <c r="S17">
+        <v>0.2458437455898719</v>
+      </c>
+      <c r="T17">
+        <v>0.1213355979626553</v>
+      </c>
+      <c r="U17">
+        <v>0.6316064760268634</v>
+      </c>
+      <c r="V17">
+        <v>0.1806701329729885</v>
+      </c>
+      <c r="W17">
+        <v>0.6886221653628607</v>
+      </c>
+      <c r="X17">
+        <v>0.04651191485425346</v>
+      </c>
+      <c r="Y17">
         <v>1</v>
       </c>
     </row>

--- a/Sensitivities.xlsx
+++ b/Sensitivities.xlsx
@@ -167,46 +167,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -218,49 +248,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="107"/>
                 <c:pt idx="0">
-                  <c:v>0.001838289070500272</c:v>
+                  <c:v>-363.327038317814</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.006537736117068222</c:v>
+                  <c:v>65.75277967090516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.003538288772458763</c:v>
+                  <c:v>-32.32306387308964</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00582145484088417</c:v>
+                  <c:v>20.79451530841157</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01942756057031213</c:v>
+                  <c:v>-1.61312506762994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04774619989190247</c:v>
+                  <c:v>-11.7463040372929</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.07999936013966448</c:v>
+                  <c:v>11.1348969507975</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1521005997536056</c:v>
+                  <c:v>-6.156225756995777</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3127368001755585</c:v>
+                  <c:v>4.575759236185307</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5271467999513021</c:v>
+                  <c:v>-4.248111257944408</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4586619999966262</c:v>
+                  <c:v>4.312137176424557</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3004132000068145</c:v>
+                  <c:v>-4.041441658518585</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1820007999833127</c:v>
+                  <c:v>3.603050966673726</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.08300382003108321</c:v>
+                  <c:v>-2.060516934834879</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.004516039982699659</c:v>
+                  <c:v>-0.111663218709537</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.043083605863323</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.110941427057093</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8940461639871738</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1290365082098336</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.7293678843070037</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.0919826743243085</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.903796079862488</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.5202415760480433</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.1860200132682474</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2735890499766356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -293,46 +353,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -344,49 +434,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="107"/>
                 <c:pt idx="0">
-                  <c:v>0.002752165118885509</c:v>
+                  <c:v>-683.7251001263381</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0300486619925795</c:v>
+                  <c:v>124.6080251560893</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.084479079567681</c:v>
+                  <c:v>-60.30614722800714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1971645994436015</c:v>
+                  <c:v>38.02229454491415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6121728001699969</c:v>
+                  <c:v>-2.940117417563144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8722620000420983</c:v>
+                  <c:v>-21.04774890973204</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9829744001769583</c:v>
+                  <c:v>19.87441414623451</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8557917996244306</c:v>
+                  <c:v>-11.14062216633227</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6924996002503295</c:v>
+                  <c:v>8.567805106828864</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3980847999558507</c:v>
+                  <c:v>-7.889874114853217</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1287855999642535</c:v>
+                  <c:v>7.782328906391562</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.04328102002799894</c:v>
+                  <c:v>-6.884960147544373</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.02124667995531754</c:v>
+                  <c:v>5.698299519473196</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.01560052007682666</c:v>
+                  <c:v>-2.68265257748876</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.001519271955118551</c:v>
+                  <c:v>-1.361078204803232</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.145358730033443</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.30151873555414</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.603114765525391</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.02870246322480668</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.46980687587801</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.7784293619914654</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.777365752362178</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.37903043522145</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.6055206702969567</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.7286199772033797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -419,46 +539,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -470,49 +620,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="107"/>
                 <c:pt idx="0">
-                  <c:v>0.0109629734297965</c:v>
+                  <c:v>-379.8025674046206</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3108642018018755</c:v>
+                  <c:v>68.61670588532886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7209819990963922</c:v>
+                  <c:v>-32.23807370886274</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7941424002166518</c:v>
+                  <c:v>19.44877785283403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6954359998225951</c:v>
+                  <c:v>-0.5782061939730138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4245620000758697</c:v>
+                  <c:v>-12.04398436272964</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1673812001124159</c:v>
+                  <c:v>11.0472491576753</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0785638197810147</c:v>
+                  <c:v>-6.051469504117474</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.04012632012603829</c:v>
+                  <c:v>4.622555424908695</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.02566103998731549</c:v>
+                  <c:v>-4.309815027198881</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.01185183997324454</c:v>
+                  <c:v>4.250495625113364</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00784567801680942</c:v>
+                  <c:v>-3.782512376564083</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00832145598101304</c:v>
+                  <c:v>3.269651583937446</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.005927492031308307</c:v>
+                  <c:v>-1.771212025147741</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0004191935824416815</c:v>
+                  <c:v>-0.4800254024868146</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.555624617170388</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.748201720611311</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.409272495611002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.03821105837885601</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.8870895187031208</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.4240108615043727</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.456450766061734</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.405503310423084</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.7376463130148195</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5639391647687262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -526,7 +706,7 @@
         <c:axId val="50010001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="699.5999999999999"/>
+          <c:max val="708.16"/>
           <c:min val="400.0"/>
         </c:scaling>
         <c:axPos val="b"/>
@@ -653,46 +833,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -707,46 +917,76 @@
                   <c:v>0.6488072754826097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4347329570200189</c:v>
+                  <c:v>0.4685439505245996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.450662138951366</c:v>
+                  <c:v>0.4323417470105326</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.4438556820016037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4720921843983164</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.5277901238656847</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6313656135935962</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6599694369264091</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.594724019097997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6449324202361191</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6613473930764241</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.648418445300732</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.6144280726547425</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5312185676624699</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4232416825218674</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.5684174800162075</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5105583394059047</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4459103537252172</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3773762149194356</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.3092924421616493</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2390471815087228</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.2199737765268738</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.2576846727301093</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2330462420812781</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.222447961922059</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2152531051395715</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.2128851662848669</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.23144269967418</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.2534752803311507</c:v>
+                <c:pt idx="21">
+                  <c:v>0.2218279355076964</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2364256274874956</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2501100583442569</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2555139384672083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,46 +1019,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -833,46 +1103,76 @@
                   <c:v>0.1812759934117287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09082281808187313</c:v>
+                  <c:v>0.1046122689234193</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08299910733279234</c:v>
+                  <c:v>0.08775914635177288</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.08395021349775375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08116853337867512</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.07946604154885499</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0863054676002996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1553218798483628</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.08074638398336077</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0928341855855076</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1373979084129121</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1934685867543067</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.2861796296181994</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4967595532361556</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6146825204173754</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.4168699239877078</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5287502002802529</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.597969732491908</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6425868122779325</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.6702296206876757</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.6898058160623424</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.6981268235776292</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.6842234466868482</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6916016566279234</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.6967465415949592</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.7006732347934385</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.7043023877767057</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.7094734940582578</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.713735700955433</c:v>
+                <c:pt idx="21">
+                  <c:v>0.7081283806910793</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.7102565102783217</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.7125736259310903</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.7161217584863073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -905,46 +1205,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,46 +1289,76 @@
                   <c:v>0.52336277605762</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3629987357194395</c:v>
+                  <c:v>0.3861691698626604</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.407459760504578</c:v>
+                  <c:v>0.3659059735018432</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.393817799059601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4337427993928161</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.4825898171590876</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5244937096952952</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.454921845005265</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.5219933462009281</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5184855637794091</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4754216449216259</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4066817987842468</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.3247017594129571</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2043391919072902</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1235110880069189</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.2495333300966107</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1835483892801249</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1346642340606418</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1070300231327412</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.09244604629325689</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.07947699405386599</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.07749554910396697</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.08264677554818069</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.07867000310160636</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.07762321074360291</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0778621048355574</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.08002804152437942</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.08111110324415541</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0770968435562361</c:v>
+                <c:pt idx="21">
+                  <c:v>0.08177422894255207</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.08051625507301026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.07802693839047203</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.07642358541052743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1031,46 +1391,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1085,46 +1475,76 @@
                   <c:v>0.08445097131253371</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04344880462945845</c:v>
+                  <c:v>0.04892800860591436</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0404327965435776</c:v>
+                  <c:v>0.04245977086799079</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.04079608234195384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03962487960973968</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.03867543793368514</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.03713302934651316</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0359957248046988</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.03770601981870382</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.03681597910016357</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.03618181880431212</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.03550723031069651</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.0350934344294276</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.03445878141924506</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0341144238708521</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.03461593430206435</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.03438202692245384</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.03420677440951865</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.03400281247620346</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.03395295573129334</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.03376668136287034</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.03361557019894697</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.03382257191139167</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.03369751051523048</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.03361278445281578</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.03358519467191981</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.0335499422345955</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.03336469298792442</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.03334340313859333</c:v>
+                <c:pt idx="21">
+                  <c:v>0.03353158045284264</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.03338262835808414</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.03324976729012255</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.03324015398572081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1157,46 +1577,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1211,46 +1661,76 @@
                   <c:v>0.7926826586955555</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5804517064036815</c:v>
+                  <c:v>0.6262508908608899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5453205951471082</c:v>
+                  <c:v>0.570688790040585</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.552024647218466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5288166151804854</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.4973840258549687</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.421246386154503</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3351300749137697</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.4562614657426493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4029766225725901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3518336657806266</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2998211672714612</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.2565085525569364</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2351619407109579</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.2070367178327463</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.2416543903502961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2293230465776907</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2096237815474969</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2108701707447131</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.2353059590529074</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2643568072895374</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.2759819805227531</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.259508127276315</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2630158366988096</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2679812590423069</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2999837965153988</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.3451531155082759</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.3738715324281612</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.367956607174336</c:v>
+                <c:pt idx="21">
+                  <c:v>0.3725090388537519</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.3715850342947475</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.3667828436162879</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.3740569873121176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1283,46 +1763,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1337,46 +1847,76 @@
                   <c:v>0.1857473692317587</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09885375640121002</c:v>
+                  <c:v>0.1103895157872606</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.09848049678341436</c:v>
+                  <c:v>0.09709742165502827</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.097380895791529</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1022604466283135</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.1135753604867409</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1645833669806358</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3875347901573428</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.1360549055504654</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.187673190116929</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3262848470190031</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4975854969306405</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.5925051710679035</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.6038254778677831</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5605244289150073</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.6112098007717001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5976267934911961</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5731569912741171</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5252655234404918</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.4466116332602698</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.3468195324908583</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.3217603362011383</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.3738243021287979</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3384420282310752</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32488141515091</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.3158280642136861</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.3156977258402178</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.3536503482412022</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.3949249948910861</c:v>
+                <c:pt idx="21">
+                  <c:v>0.3355200035425461</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.3625078840778043</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.3879098121048203</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.4001497106037067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1409,46 +1949,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1463,46 +2033,76 @@
                   <c:v>0.7460003364130889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4977646086642832</c:v>
+                  <c:v>0.5518091488263303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4136144050776305</c:v>
+                  <c:v>0.482148199530851</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.4321674493512073</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3753739416579606</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.3208400192927348</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2349197358645344</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1770516220862811</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.269787235954207</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2194791152799857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1863167860377807</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1542740272365249</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.1193611649094793</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1133438259293354</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1197128120995683</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.1097416536572284</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1139286327945258</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1139296966353181</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.150351967699638</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.2607424459350037</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.5166671318312819</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.6888769467811408</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.417198169396282</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5581816706544865</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.6582470835246668</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.7524278346655889</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.8437349972876644</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.9215556624444682</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.9502390582642345</c:v>
+                <c:pt idx="21">
+                  <c:v>0.9015191875150884</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9284034811146669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9448833115460862</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9600450715451473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1535,46 +2135,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1589,46 +2219,76 @@
                   <c:v>0.2254365122118938</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1225936861325517</c:v>
+                  <c:v>0.1365580745944328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1181754266136094</c:v>
+                  <c:v>0.1202546724087258</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.118491819427888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1166413922364662</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.1127088089629129</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1071802258168037</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1044709880332671</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.1091525722162794</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1064298170062736</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1048560212571006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1038282674885511</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.1028038393138512</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1012321987980609</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1007344004575769</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.1018493775132656</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1010017579231176</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1008188834551415</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1003917287740532</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.09968030066265364</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.09747247628862232</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.09520767258025895</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.09832213639395039</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.09692846586963315</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0955842094597342</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.09434977850036035</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.09322211862432218</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.09105481503673309</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.08921640760166066</c:v>
+                <c:pt idx="21">
+                  <c:v>0.09206322827196926</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.09064290869122366</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.08946503636153487</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0887139127717404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1661,46 +2321,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1715,46 +2405,76 @@
                   <c:v>0.1351093209802211</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.06916767859351255</c:v>
+                  <c:v>0.0784686687823811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06533039055669145</c:v>
+                  <c:v>0.06757486669410752</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.0655625810500359</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.06591287591031271</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.07194541327170055</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.09485853984679814</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1080758083035987</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.08659274527794905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.09740532167693769</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1036085206870841</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1269024840120741</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.1752523473983584</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1809953526519291</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1477219181998373</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.1898102564697663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1743683866037493</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1536989380430493</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1378376734465215</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.1251000530482836</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1090559842414567</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1081633099452103</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.1134790825020595</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1079064197470687</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.107799339288184</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.108644930134664</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.109562169465182</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1122204149811375</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1141982834591928</c:v>
+                <c:pt idx="21">
+                  <c:v>0.1115038085548583</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1124150565327673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1133837005190606</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1155216329555275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1787,46 +2507,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1841,46 +2591,76 @@
                   <c:v>0.3116904921886903</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1926190053073515</c:v>
+                  <c:v>0.2087992307403293</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1805416937012176</c:v>
+                  <c:v>0.190455338504125</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.1841940222904618</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1699415992344246</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.1499480830035335</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1044079345866705</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.06952994079365557</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.125136679037743</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.09460399035092201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.07431980977605138</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.06039360301892283</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.05013270891023185</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.04899794774863116</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0512265147872942</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.04819595498266541</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.04912284618086885</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.04956206251966189</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.05836750086395711</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.0811036626389848</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.09717899736039784</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.09632852775145957</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.09960378907893255</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.09324484188540408</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.09139527210113672</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1144743655352528</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.1581749323691811</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.2298470039126393</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.2813055058987556</c:v>
+                <c:pt idx="21">
+                  <c:v>0.2036677421806396</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2416039232869702</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2724822429910248</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2952625346374641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1913,46 +2693,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1967,46 +2777,76 @@
                   <c:v>0.1567331305278308</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.08277055401844004</c:v>
+                  <c:v>0.09311602610729811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08064894396138349</c:v>
+                  <c:v>0.08104445902082762</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.08054393058138408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08145249392765631</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.08501095460739692</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1066168403697455</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3051953762710589</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.09344620583865594</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1197527675488112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2378380066265688</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4460049822405305</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.6165784746063054</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7383854550585479</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.7720493917799465</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.7090840817790416</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7481868945570838</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7678292072407618</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7787678302873372</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.7838388245257166</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.7752549142388001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.7778072197446565</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.7811795473576992</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.773203635035614</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.7766653597510929</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.77758810753935</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.777262184793619</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.7636137407505464</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.7886372549285607</c:v>
+                <c:pt idx="21">
+                  <c:v>0.7812648025376341</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.7512661132405285</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.7678261153585093</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.8223903273377025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2039,46 +2879,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2093,46 +2963,76 @@
                   <c:v>0.4234139884682217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2494387730079491</c:v>
+                  <c:v>0.2764657705736084</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2421624260031691</c:v>
+                  <c:v>0.245121789729718</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.2425555509101393</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2400694058053233</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.2337520051646986</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2235228184185657</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2184535927040357</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.2271726772197657</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2220211575013454</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2191634182833755</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2173057639377863</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.2154640044096854</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2131066930112458</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.2134772467285938</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.2138659579843078</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2128810287882874</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2133220872819948</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2135426519942946</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.2126906405851678</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2082233975303777</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.203647789688445</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.2099982634920664</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2071657841917004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2044632999204866</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2020223161457034</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.1998622986568856</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1952064617688623</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1902302202665669</c:v>
+                <c:pt idx="21">
+                  <c:v>0.1974108005894847</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1940727823597639</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1910656905457834</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1886396271230781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2165,46 +3065,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2219,46 +3149,76 @@
                   <c:v>0.5952998138327824</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4021136635337609</c:v>
+                  <c:v>0.4356228735139015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3974907387431123</c:v>
+                  <c:v>0.3985353436011195</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.3975866951837677</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3929534321422301</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.3788587128498926</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.337535459519399</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2801774802806539</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.3578986423823703</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3259226292371704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.291283206790285</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2571807772247179</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.2264533808719952</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2003076216467726</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1673127702443699</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.2102391018823024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1935723024428119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.172475426537515</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1607327757375961</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.1571760307572394</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1446044666833909</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1409288696396373</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.1499553537622536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1423886768566398</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1400002218337876</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.14562318747179</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.157083110144318</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1622916094511649</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1483460570965575</c:v>
+                <c:pt idx="21">
+                  <c:v>0.1640629074065657</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.160415052017845</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1517140581896468</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1439415707977572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2291,46 +3251,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2345,46 +3335,76 @@
                   <c:v>0.3830970805101689</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1908572770629146</c:v>
+                  <c:v>0.2230788965479373</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1668907246545781</c:v>
+                  <c:v>0.1833134273638597</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.170138411616997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1606655032282085</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.1505978814576907</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1338215420453873</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1198244953981753</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.1402662629194932</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1309206119030956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1227961090341548</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1138428478433568</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.1081311042708425</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1076955784877136</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.119570731514718</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.1074791293953237</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1079800548324523</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.112085412644381</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1616452672146133</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.3209195460160733</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.5851404155906301</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.6582818989216397</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.5039801317987715</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6113757881596968</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.6527813166628044</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.6636675483115069</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.6658525494788141</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.6644011915623153</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.6615519217286496</c:v>
+                <c:pt idx="21">
+                  <c:v>0.6659106520911736</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.6638379782401594</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.6618013319525217</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6612824146258011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2417,46 +3437,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2471,46 +3521,76 @@
                   <c:v>0.1081875483902182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05668250409226823</c:v>
+                  <c:v>0.06382933678833112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05437802604113692</c:v>
+                  <c:v>0.05551261276675242</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.05458970076415379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05425005436844002</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.0562238212471421</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.06041225162323714</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05697335502992742</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.06008619840692023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.059883395607591</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0575242425017237</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05671034240964951</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.05785828768971259</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.05834524291999936</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.07473596779164723</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.05784333422721158</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05948636921992204</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.06936536860909598</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.08747563826284591</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.1367305252278952</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.3997514206166002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.6474718586232494</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.2690025403281924</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.4670961131880757</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.619298434491655</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.6812862189086554</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.7034550825951941</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.7145375018871296</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.7254734897757442</c:v>
+                <c:pt idx="21">
+                  <c:v>0.7106852983820113</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.7170791023561807</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.7236062530729239</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.7288335190984719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2543,46 +3623,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2597,46 +3707,76 @@
                   <c:v>0.7145033249924913</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4916650751540857</c:v>
+                  <c:v>0.5341745384857109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.476876710956514</c:v>
+                  <c:v>0.4844386638635849</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.4778943780351502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4730208196259328</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.4626852039690071</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.445226879728276</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.434969954963881</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.4516172150393023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4424554267096747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4365347582115235</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4322095222689682</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.4278937500704265</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4215644263904983</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4167942103397284</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.4240246284588073</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4204210943769739</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4177870467497778</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.414800507862402</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.4114038328645788</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.404192566576467</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.3970885935524431</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.4068667125742453</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.4025653041600848</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.3983503984506421</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.3944509760152904</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.3905691110550155</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.3838342854882096</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.3766371866339976</c:v>
+                <c:pt idx="21">
+                  <c:v>0.3869259667555478</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.3822676082443071</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.3778332482492934</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.3749210898518254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2669,46 +3809,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2723,46 +3893,76 @@
                   <c:v>0.3839313939849524</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.227711520947203</c:v>
+                  <c:v>0.2497093762043111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2354593320415703</c:v>
+                  <c:v>0.2254315618171514</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.2309748076838851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2482646847662704</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.2805083024132445</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3622654660837951</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3982663795254776</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.3284119889283764</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3770372675838254</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4007309902532086</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3699151208593314</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.2986188178265894</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2846911703924212</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.2987345798605212</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.2755101754112462</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2855993035393564</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2848178875836143</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3583006868684646</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.4834817548872505</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.5912019632302008</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.6355719874170213</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.5631682469896837</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6011787293758194</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.6272712219667582</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.6531457328322543</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.6847404283209602</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.7489180232272532</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.8182282006322547</c:v>
+                <c:pt idx="21">
+                  <c:v>0.7227898127522395</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.7623966101871245</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.8045823626574784</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.8412724177536893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2795,46 +3995,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2849,46 +4079,76 @@
                   <c:v>0.6168976896637373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.450928879936922</c:v>
+                  <c:v>0.4695115400128939</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4897109626367444</c:v>
+                  <c:v>0.4552823495274133</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.482404535987195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4918818473380902</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.4597761831091726</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3317947200884006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2050411060254349</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.3918102626911327</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3015041837292964</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22530424669374</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1705280631567393</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.1335753366144754</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1053202130782277</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.09098904866801216</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.1140393559261186</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1014979099193979</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0927748192302576</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.08888346663171637</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.0884543615631361</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0884703386289349</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.09391454099594941</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.08845467421477932</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.08855576060713495</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.09156442935526493</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1005749878011828</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.1160089319027709</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.160280165406603</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.2458437455898719</c:v>
+                <c:pt idx="21">
+                  <c:v>0.1389141125058763</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1733514795925935</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2244847195209155</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2940181942507496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2921,46 +4181,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2975,46 +4265,76 @@
                   <c:v>0.1572455072800765</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0838057434003603</c:v>
+                  <c:v>0.0935985779805758</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08473469135661216</c:v>
+                  <c:v>0.08277796966111485</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.08369089680800225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0886439943963637</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.1011550528825548</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1646111930129424</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3336503664219168</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.1291186834271249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1892919927289007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2949744143363829</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3884116398514347</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.3910926047506786</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.327427734600423</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.2379832895316012</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.3582929449029189</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3089238925111869</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2539817613747851</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2082958274245059</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.1661105404849146</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1210509483299808</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1081447193580127</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.1333534260995626</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1168661622124868</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.109634892361266</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1055264277165176</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.1034872277390509</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1097121788865214</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1213355979626553</c:v>
+                <c:pt idx="21">
+                  <c:v>0.1061717197604893</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1119803817979237</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1190847194103115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1236608084531398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3047,46 +4367,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3101,46 +4451,76 @@
                   <c:v>0.9150937609709797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7463966907226641</c:v>
+                  <c:v>0.7881806260065471</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7294881366955092</c:v>
+                  <c:v>0.7389595279085115</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.7310331717055742</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7254634905307636</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.7157707838513423</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6974125697520037</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6851024499038216</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.7046565167547308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6942536035988165</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6871671087426254</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6815124456853909</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.675692855829284</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.6682697646698972</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6624659508095848</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.6710228607903798</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6669987168852678</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6637322423974804</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6600470920477383</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.6565693512144085</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.6506300472605893</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.6454918806457323</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.6526539069231106</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.649322699147114</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.6463981134736121</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.6435132282221144</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.640926520472392</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.6366726202632597</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.6316064760268634</c:v>
+                <c:pt idx="21">
+                  <c:v>0.6389743417732776</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.6355546429880465</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.6323063594270154</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6305479599344083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3173,46 +4553,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3227,46 +4637,76 @@
                   <c:v>0.1545171542961815</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.07986756668797161</c:v>
+                  <c:v>0.09097568212137061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.07414851553735519</c:v>
+                  <c:v>0.07790000453797477</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.07464998087303727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.07316304982717231</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.07414131202510285</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.07883930720468198</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.07990580699934111</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.07755797393157478</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.07906052448809951</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.07949674640216589</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.08181763349762909</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.08534079645615686</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.08996017461489245</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1114584641962474</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.08738412053367794</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.09233446347412458</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1050496469697881</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1263769041088109</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.1464611408406017</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1574014048692965</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1748110285376251</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.1545946545791693</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1593388147976424</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1701516416778579</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1837913971593523</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.1939335526152698</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1891119382620202</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1806701329729885</c:v>
+                <c:pt idx="21">
+                  <c:v>0.1949170298522238</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.185656489562535</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1800219119890771</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1852937545811668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3299,46 +4739,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3353,46 +4823,76 @@
                   <c:v>0.1071220618523021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05850943103943414</c:v>
+                  <c:v>0.06423390409150365</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06011412526036721</c:v>
+                  <c:v>0.05820901030246763</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.05943214960679671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.06216817651637731</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.06926073654943421</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.08445951935521838</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.09533872767210438</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.08033588596237477</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08543351130319993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09094415628653364</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1121265923820925</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.1511684761446104</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2085716941522843</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.3993509097617891</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.1814419719759224</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2306762702627479</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3458161514362533</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5079956754375623</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.6190370390849779</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.6600585282208832</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.6553456349498743</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.6556344011775627</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6593527847888848</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.6562749056662375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.6538102583896045</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.6545632004050352</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.6669226667643215</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.6886221653628607</c:v>
+                <c:pt idx="21">
+                  <c:v>0.6610027481017213</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.6705940429536131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.6836217841999797</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6985931854361312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3425,46 +4925,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3479,46 +5009,76 @@
                   <c:v>0.3336891525270994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26762475031434</c:v>
+                  <c:v>0.2676558293934719</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3284332005976907</c:v>
+                  <c:v>0.277048681170129</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.3152359271527244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3402240562982976</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.3217418075570678</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2211238662919866</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1212994424814587</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.2707030237065057</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1965034246290727</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.137585966283826</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0906681375445758</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.05825080447758364</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.04464202498886671</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.03950815538700903</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.04777367763900309</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.04306302106209655</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0398481700844251</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.03948992692584799</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.03953217312366047</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.03941666367788391</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.04167463217879418</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.03925457130103115</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.03964882103427038</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.04102596508563991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.04329206110912055</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.04649386716036969</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.04743076232027005</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.04651191485425346</c:v>
+                <c:pt idx="21">
+                  <c:v>0.04828530693328217</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.04683592547636722</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.04613614780764209</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.04847641544693275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3551,46 +5111,76 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.4</c:v>
+                  <c:v>412.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>442.8</c:v>
+                  <c:v>425.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>438.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>464.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>485.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>507</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>477.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>502.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>528.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>549.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>541.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554.0799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>566.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>592.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>635.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>605.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>618.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>643.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>656.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>678.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>699.5999999999999</c:v>
+                <c:pt idx="21">
+                  <c:v>669.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>682.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.3199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>708.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3644,6 +5234,36 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3658,7 +5278,7 @@
         <c:axId val="50020001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="699.5999999999999"/>
+          <c:max val="708.16"/>
           <c:min val="400.0"/>
         </c:scaling>
         <c:axPos val="b"/>
@@ -4082,7 +5702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4112,209 +5732,349 @@
         <v>400</v>
       </c>
       <c r="B3">
-        <v>0.001838289070500272</v>
+        <v>-363.327038317814</v>
       </c>
       <c r="C3">
-        <v>0.002752165118885509</v>
+        <v>-683.7251001263381</v>
       </c>
       <c r="D3">
-        <v>0.0109629734297965</v>
+        <v>-379.8025674046206</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>421.4</v>
+        <v>412.84</v>
       </c>
       <c r="B4">
-        <v>0.006537736117068222</v>
+        <v>65.75277967090516</v>
       </c>
       <c r="C4">
-        <v>0.0300486619925795</v>
+        <v>124.6080251560893</v>
       </c>
       <c r="D4">
-        <v>0.3108642018018755</v>
+        <v>68.61670588532886</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>442.8</v>
+        <v>425.68</v>
       </c>
       <c r="B5">
-        <v>0.003538288772458763</v>
+        <v>-32.32306387308964</v>
       </c>
       <c r="C5">
-        <v>0.084479079567681</v>
+        <v>-60.30614722800714</v>
       </c>
       <c r="D5">
-        <v>0.7209819990963922</v>
+        <v>-32.23807370886274</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>464.2</v>
+        <v>438.52</v>
       </c>
       <c r="B6">
-        <v>0.00582145484088417</v>
+        <v>20.79451530841157</v>
       </c>
       <c r="C6">
-        <v>0.1971645994436015</v>
+        <v>38.02229454491415</v>
       </c>
       <c r="D6">
-        <v>0.7941424002166518</v>
+        <v>19.44877785283403</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>485.6</v>
+        <v>451.36</v>
       </c>
       <c r="B7">
-        <v>0.01942756057031213</v>
+        <v>-1.61312506762994</v>
       </c>
       <c r="C7">
-        <v>0.6121728001699969</v>
+        <v>-2.940117417563144</v>
       </c>
       <c r="D7">
-        <v>0.6954359998225951</v>
+        <v>-0.5782061939730138</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>507</v>
+        <v>464.2</v>
       </c>
       <c r="B8">
-        <v>0.04774619989190247</v>
+        <v>-11.7463040372929</v>
       </c>
       <c r="C8">
-        <v>0.8722620000420983</v>
+        <v>-21.04774890973204</v>
       </c>
       <c r="D8">
-        <v>0.4245620000758697</v>
+        <v>-12.04398436272964</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>528.4</v>
+        <v>477.04</v>
       </c>
       <c r="B9">
-        <v>0.07999936013966448</v>
+        <v>11.1348969507975</v>
       </c>
       <c r="C9">
-        <v>0.9829744001769583</v>
+        <v>19.87441414623451</v>
       </c>
       <c r="D9">
-        <v>0.1673812001124159</v>
+        <v>11.0472491576753</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>549.8</v>
+        <v>489.88</v>
       </c>
       <c r="B10">
-        <v>0.1521005997536056</v>
+        <v>-6.156225756995777</v>
       </c>
       <c r="C10">
-        <v>0.8557917996244306</v>
+        <v>-11.14062216633227</v>
       </c>
       <c r="D10">
-        <v>0.0785638197810147</v>
+        <v>-6.051469504117474</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>571.2</v>
+        <v>502.72</v>
       </c>
       <c r="B11">
-        <v>0.3127368001755585</v>
+        <v>4.575759236185307</v>
       </c>
       <c r="C11">
-        <v>0.6924996002503295</v>
+        <v>8.567805106828864</v>
       </c>
       <c r="D11">
-        <v>0.04012632012603829</v>
+        <v>4.622555424908695</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>592.6</v>
+        <v>515.5599999999999</v>
       </c>
       <c r="B12">
-        <v>0.5271467999513021</v>
+        <v>-4.248111257944408</v>
       </c>
       <c r="C12">
-        <v>0.3980847999558507</v>
+        <v>-7.889874114853217</v>
       </c>
       <c r="D12">
-        <v>0.02566103998731549</v>
+        <v>-4.309815027198881</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>614</v>
+        <v>528.4</v>
       </c>
       <c r="B13">
-        <v>0.4586619999966262</v>
+        <v>4.312137176424557</v>
       </c>
       <c r="C13">
-        <v>0.1287855999642535</v>
+        <v>7.782328906391562</v>
       </c>
       <c r="D13">
-        <v>0.01185183997324454</v>
+        <v>4.250495625113364</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>635.4</v>
+        <v>541.24</v>
       </c>
       <c r="B14">
-        <v>0.3004132000068145</v>
+        <v>-4.041441658518585</v>
       </c>
       <c r="C14">
-        <v>0.04328102002799894</v>
+        <v>-6.884960147544373</v>
       </c>
       <c r="D14">
-        <v>0.00784567801680942</v>
+        <v>-3.782512376564083</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>656.8</v>
+        <v>554.0799999999999</v>
       </c>
       <c r="B15">
-        <v>0.1820007999833127</v>
+        <v>3.603050966673726</v>
       </c>
       <c r="C15">
-        <v>0.02124667995531754</v>
+        <v>5.698299519473196</v>
       </c>
       <c r="D15">
-        <v>0.00832145598101304</v>
+        <v>3.269651583937446</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>678.2</v>
+        <v>566.92</v>
       </c>
       <c r="B16">
-        <v>0.08300382003108321</v>
+        <v>-2.060516934834879</v>
       </c>
       <c r="C16">
-        <v>0.01560052007682666</v>
+        <v>-2.68265257748876</v>
       </c>
       <c r="D16">
-        <v>0.005927492031308307</v>
+        <v>-1.771212025147741</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>699.5999999999999</v>
+        <v>579.76</v>
       </c>
       <c r="B17">
-        <v>0.004516039982699659</v>
+        <v>-0.111663218709537</v>
       </c>
       <c r="C17">
-        <v>0.001519271955118551</v>
+        <v>-1.361078204803232</v>
       </c>
       <c r="D17">
-        <v>0.0004191935824416815</v>
+        <v>-0.4800254024868146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>592.6</v>
+      </c>
+      <c r="B18">
+        <v>1.043083605863323</v>
+      </c>
+      <c r="C18">
+        <v>3.145358730033443</v>
+      </c>
+      <c r="D18">
+        <v>1.555624617170388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>605.4400000000001</v>
+      </c>
+      <c r="B19">
+        <v>-1.110941427057093</v>
+      </c>
+      <c r="C19">
+        <v>-3.30151873555414</v>
+      </c>
+      <c r="D19">
+        <v>-1.748201720611311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>618.28</v>
+      </c>
+      <c r="B20">
+        <v>0.8940461639871738</v>
+      </c>
+      <c r="C20">
+        <v>2.603114765525391</v>
+      </c>
+      <c r="D20">
+        <v>1.409272495611002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>631.12</v>
+      </c>
+      <c r="B21">
+        <v>0.1290365082098336</v>
+      </c>
+      <c r="C21">
+        <v>-0.02870246322480668</v>
+      </c>
+      <c r="D21">
+        <v>0.03821105837885601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>643.96</v>
+      </c>
+      <c r="B22">
+        <v>-0.7293678843070037</v>
+      </c>
+      <c r="C22">
+        <v>-1.46980687587801</v>
+      </c>
+      <c r="D22">
+        <v>-0.8870895187031208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>656.8</v>
+      </c>
+      <c r="B23">
+        <v>-0.0919826743243085</v>
+      </c>
+      <c r="C23">
+        <v>-0.7784293619914654</v>
+      </c>
+      <c r="D23">
+        <v>-0.4240108615043727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>669.64</v>
+      </c>
+      <c r="B24">
+        <v>0.903796079862488</v>
+      </c>
+      <c r="C24">
+        <v>2.777365752362178</v>
+      </c>
+      <c r="D24">
+        <v>1.456450766061734</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>682.48</v>
+      </c>
+      <c r="B25">
+        <v>-0.5202415760480433</v>
+      </c>
+      <c r="C25">
+        <v>-1.37903043522145</v>
+      </c>
+      <c r="D25">
+        <v>-0.405503310423084</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>695.3199999999999</v>
+      </c>
+      <c r="B26">
+        <v>-0.1860200132682474</v>
+      </c>
+      <c r="C26">
+        <v>-0.6055206702969567</v>
+      </c>
+      <c r="D26">
+        <v>-0.7376463130148195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>708.16</v>
+      </c>
+      <c r="B27">
+        <v>0.2735890499766356</v>
+      </c>
+      <c r="C27">
+        <v>0.7286199772033797</v>
+      </c>
+      <c r="D27">
+        <v>0.5639391647687262</v>
       </c>
     </row>
   </sheetData>
@@ -4325,7 +6085,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4492,76 +6252,76 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4">
-        <v>421.4</v>
+        <v>412.84</v>
       </c>
       <c r="B4">
-        <v>0.4347329570200189</v>
+        <v>0.4685439505245996</v>
       </c>
       <c r="C4">
-        <v>0.09082281808187313</v>
+        <v>0.1046122689234193</v>
       </c>
       <c r="D4">
-        <v>0.3629987357194395</v>
+        <v>0.3861691698626604</v>
       </c>
       <c r="E4">
-        <v>0.04344880462945845</v>
+        <v>0.04892800860591436</v>
       </c>
       <c r="F4">
-        <v>0.5804517064036815</v>
+        <v>0.6262508908608899</v>
       </c>
       <c r="G4">
-        <v>0.09885375640121002</v>
+        <v>0.1103895157872606</v>
       </c>
       <c r="H4">
-        <v>0.4977646086642832</v>
+        <v>0.5518091488263303</v>
       </c>
       <c r="I4">
-        <v>0.1225936861325517</v>
+        <v>0.1365580745944328</v>
       </c>
       <c r="J4">
-        <v>0.06916767859351255</v>
+        <v>0.0784686687823811</v>
       </c>
       <c r="K4">
-        <v>0.1926190053073515</v>
+        <v>0.2087992307403293</v>
       </c>
       <c r="L4">
-        <v>0.08277055401844004</v>
+        <v>0.09311602610729811</v>
       </c>
       <c r="M4">
-        <v>0.2494387730079491</v>
+        <v>0.2764657705736084</v>
       </c>
       <c r="N4">
-        <v>0.4021136635337609</v>
+        <v>0.4356228735139015</v>
       </c>
       <c r="O4">
-        <v>0.1908572770629146</v>
+        <v>0.2230788965479373</v>
       </c>
       <c r="P4">
-        <v>0.05668250409226823</v>
+        <v>0.06382933678833112</v>
       </c>
       <c r="Q4">
-        <v>0.4916650751540857</v>
+        <v>0.5341745384857109</v>
       </c>
       <c r="R4">
-        <v>0.227711520947203</v>
+        <v>0.2497093762043111</v>
       </c>
       <c r="S4">
-        <v>0.450928879936922</v>
+        <v>0.4695115400128939</v>
       </c>
       <c r="T4">
-        <v>0.0838057434003603</v>
+        <v>0.0935985779805758</v>
       </c>
       <c r="U4">
-        <v>0.7463966907226641</v>
+        <v>0.7881806260065471</v>
       </c>
       <c r="V4">
-        <v>0.07986756668797161</v>
+        <v>0.09097568212137061</v>
       </c>
       <c r="W4">
-        <v>0.05850943103943414</v>
+        <v>0.06423390409150365</v>
       </c>
       <c r="X4">
-        <v>0.26762475031434</v>
+        <v>0.2676558293934719</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -4569,76 +6329,76 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5">
-        <v>442.8</v>
+        <v>425.68</v>
       </c>
       <c r="B5">
-        <v>0.450662138951366</v>
+        <v>0.4323417470105326</v>
       </c>
       <c r="C5">
-        <v>0.08299910733279234</v>
+        <v>0.08775914635177288</v>
       </c>
       <c r="D5">
-        <v>0.407459760504578</v>
+        <v>0.3659059735018432</v>
       </c>
       <c r="E5">
-        <v>0.0404327965435776</v>
+        <v>0.04245977086799079</v>
       </c>
       <c r="F5">
-        <v>0.5453205951471082</v>
+        <v>0.570688790040585</v>
       </c>
       <c r="G5">
-        <v>0.09848049678341436</v>
+        <v>0.09709742165502827</v>
       </c>
       <c r="H5">
-        <v>0.4136144050776305</v>
+        <v>0.482148199530851</v>
       </c>
       <c r="I5">
-        <v>0.1181754266136094</v>
+        <v>0.1202546724087258</v>
       </c>
       <c r="J5">
-        <v>0.06533039055669145</v>
+        <v>0.06757486669410752</v>
       </c>
       <c r="K5">
-        <v>0.1805416937012176</v>
+        <v>0.190455338504125</v>
       </c>
       <c r="L5">
-        <v>0.08064894396138349</v>
+        <v>0.08104445902082762</v>
       </c>
       <c r="M5">
-        <v>0.2421624260031691</v>
+        <v>0.245121789729718</v>
       </c>
       <c r="N5">
-        <v>0.3974907387431123</v>
+        <v>0.3985353436011195</v>
       </c>
       <c r="O5">
-        <v>0.1668907246545781</v>
+        <v>0.1833134273638597</v>
       </c>
       <c r="P5">
-        <v>0.05437802604113692</v>
+        <v>0.05551261276675242</v>
       </c>
       <c r="Q5">
-        <v>0.476876710956514</v>
+        <v>0.4844386638635849</v>
       </c>
       <c r="R5">
-        <v>0.2354593320415703</v>
+        <v>0.2254315618171514</v>
       </c>
       <c r="S5">
-        <v>0.4897109626367444</v>
+        <v>0.4552823495274133</v>
       </c>
       <c r="T5">
-        <v>0.08473469135661216</v>
+        <v>0.08277796966111485</v>
       </c>
       <c r="U5">
-        <v>0.7294881366955092</v>
+        <v>0.7389595279085115</v>
       </c>
       <c r="V5">
-        <v>0.07414851553735519</v>
+        <v>0.07790000453797477</v>
       </c>
       <c r="W5">
-        <v>0.06011412526036721</v>
+        <v>0.05820901030246763</v>
       </c>
       <c r="X5">
-        <v>0.3284332005976907</v>
+        <v>0.277048681170129</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -4646,76 +6406,76 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6">
-        <v>464.2</v>
+        <v>438.52</v>
       </c>
       <c r="B6">
-        <v>0.5277901238656847</v>
+        <v>0.4438556820016037</v>
       </c>
       <c r="C6">
-        <v>0.07946604154885499</v>
+        <v>0.08395021349775375</v>
       </c>
       <c r="D6">
-        <v>0.4825898171590876</v>
+        <v>0.393817799059601</v>
       </c>
       <c r="E6">
-        <v>0.03867543793368514</v>
+        <v>0.04079608234195384</v>
       </c>
       <c r="F6">
-        <v>0.4973840258549687</v>
+        <v>0.552024647218466</v>
       </c>
       <c r="G6">
-        <v>0.1135753604867409</v>
+        <v>0.097380895791529</v>
       </c>
       <c r="H6">
-        <v>0.3208400192927348</v>
+        <v>0.4321674493512073</v>
       </c>
       <c r="I6">
-        <v>0.1127088089629129</v>
+        <v>0.118491819427888</v>
       </c>
       <c r="J6">
-        <v>0.07194541327170055</v>
+        <v>0.0655625810500359</v>
       </c>
       <c r="K6">
-        <v>0.1499480830035335</v>
+        <v>0.1841940222904618</v>
       </c>
       <c r="L6">
-        <v>0.08501095460739692</v>
+        <v>0.08054393058138408</v>
       </c>
       <c r="M6">
-        <v>0.2337520051646986</v>
+        <v>0.2425555509101393</v>
       </c>
       <c r="N6">
-        <v>0.3788587128498926</v>
+        <v>0.3975866951837677</v>
       </c>
       <c r="O6">
-        <v>0.1505978814576907</v>
+        <v>0.170138411616997</v>
       </c>
       <c r="P6">
-        <v>0.0562238212471421</v>
+        <v>0.05458970076415379</v>
       </c>
       <c r="Q6">
-        <v>0.4626852039690071</v>
+        <v>0.4778943780351502</v>
       </c>
       <c r="R6">
-        <v>0.2805083024132445</v>
+        <v>0.2309748076838851</v>
       </c>
       <c r="S6">
-        <v>0.4597761831091726</v>
+        <v>0.482404535987195</v>
       </c>
       <c r="T6">
-        <v>0.1011550528825548</v>
+        <v>0.08369089680800225</v>
       </c>
       <c r="U6">
-        <v>0.7157707838513423</v>
+        <v>0.7310331717055742</v>
       </c>
       <c r="V6">
-        <v>0.07414131202510285</v>
+        <v>0.07464998087303727</v>
       </c>
       <c r="W6">
-        <v>0.06926073654943421</v>
+        <v>0.05943214960679671</v>
       </c>
       <c r="X6">
-        <v>0.3217418075570678</v>
+        <v>0.3152359271527244</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -4723,76 +6483,76 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7">
-        <v>485.6</v>
+        <v>451.36</v>
       </c>
       <c r="B7">
-        <v>0.6313656135935962</v>
+        <v>0.4720921843983164</v>
       </c>
       <c r="C7">
-        <v>0.0863054676002996</v>
+        <v>0.08116853337867512</v>
       </c>
       <c r="D7">
-        <v>0.5244937096952952</v>
+        <v>0.4337427993928161</v>
       </c>
       <c r="E7">
-        <v>0.03713302934651316</v>
+        <v>0.03962487960973968</v>
       </c>
       <c r="F7">
-        <v>0.421246386154503</v>
+        <v>0.5288166151804854</v>
       </c>
       <c r="G7">
-        <v>0.1645833669806358</v>
+        <v>0.1022604466283135</v>
       </c>
       <c r="H7">
-        <v>0.2349197358645344</v>
+        <v>0.3753739416579606</v>
       </c>
       <c r="I7">
-        <v>0.1071802258168037</v>
+        <v>0.1166413922364662</v>
       </c>
       <c r="J7">
-        <v>0.09485853984679814</v>
+        <v>0.06591287591031271</v>
       </c>
       <c r="K7">
-        <v>0.1044079345866705</v>
+        <v>0.1699415992344246</v>
       </c>
       <c r="L7">
-        <v>0.1066168403697455</v>
+        <v>0.08145249392765631</v>
       </c>
       <c r="M7">
-        <v>0.2235228184185657</v>
+        <v>0.2400694058053233</v>
       </c>
       <c r="N7">
-        <v>0.337535459519399</v>
+        <v>0.3929534321422301</v>
       </c>
       <c r="O7">
-        <v>0.1338215420453873</v>
+        <v>0.1606655032282085</v>
       </c>
       <c r="P7">
-        <v>0.06041225162323714</v>
+        <v>0.05425005436844002</v>
       </c>
       <c r="Q7">
-        <v>0.445226879728276</v>
+        <v>0.4730208196259328</v>
       </c>
       <c r="R7">
-        <v>0.3622654660837951</v>
+        <v>0.2482646847662704</v>
       </c>
       <c r="S7">
-        <v>0.3317947200884006</v>
+        <v>0.4918818473380902</v>
       </c>
       <c r="T7">
-        <v>0.1646111930129424</v>
+        <v>0.0886439943963637</v>
       </c>
       <c r="U7">
-        <v>0.6974125697520037</v>
+        <v>0.7254634905307636</v>
       </c>
       <c r="V7">
-        <v>0.07883930720468198</v>
+        <v>0.07316304982717231</v>
       </c>
       <c r="W7">
-        <v>0.08445951935521838</v>
+        <v>0.06216817651637731</v>
       </c>
       <c r="X7">
-        <v>0.2211238662919866</v>
+        <v>0.3402240562982976</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -4800,76 +6560,76 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8">
-        <v>507</v>
+        <v>464.2</v>
       </c>
       <c r="B8">
-        <v>0.6599694369264091</v>
+        <v>0.5277901238656847</v>
       </c>
       <c r="C8">
-        <v>0.1553218798483628</v>
+        <v>0.07946604154885499</v>
       </c>
       <c r="D8">
-        <v>0.454921845005265</v>
+        <v>0.4825898171590876</v>
       </c>
       <c r="E8">
-        <v>0.0359957248046988</v>
+        <v>0.03867543793368514</v>
       </c>
       <c r="F8">
-        <v>0.3351300749137697</v>
+        <v>0.4973840258549687</v>
       </c>
       <c r="G8">
-        <v>0.3875347901573428</v>
+        <v>0.1135753604867409</v>
       </c>
       <c r="H8">
-        <v>0.1770516220862811</v>
+        <v>0.3208400192927348</v>
       </c>
       <c r="I8">
-        <v>0.1044709880332671</v>
+        <v>0.1127088089629129</v>
       </c>
       <c r="J8">
-        <v>0.1080758083035987</v>
+        <v>0.07194541327170055</v>
       </c>
       <c r="K8">
-        <v>0.06952994079365557</v>
+        <v>0.1499480830035335</v>
       </c>
       <c r="L8">
-        <v>0.3051953762710589</v>
+        <v>0.08501095460739692</v>
       </c>
       <c r="M8">
-        <v>0.2184535927040357</v>
+        <v>0.2337520051646986</v>
       </c>
       <c r="N8">
-        <v>0.2801774802806539</v>
+        <v>0.3788587128498926</v>
       </c>
       <c r="O8">
-        <v>0.1198244953981753</v>
+        <v>0.1505978814576907</v>
       </c>
       <c r="P8">
-        <v>0.05697335502992742</v>
+        <v>0.0562238212471421</v>
       </c>
       <c r="Q8">
-        <v>0.434969954963881</v>
+        <v>0.4626852039690071</v>
       </c>
       <c r="R8">
-        <v>0.3982663795254776</v>
+        <v>0.2805083024132445</v>
       </c>
       <c r="S8">
-        <v>0.2050411060254349</v>
+        <v>0.4597761831091726</v>
       </c>
       <c r="T8">
-        <v>0.3336503664219168</v>
+        <v>0.1011550528825548</v>
       </c>
       <c r="U8">
-        <v>0.6851024499038216</v>
+        <v>0.7157707838513423</v>
       </c>
       <c r="V8">
-        <v>0.07990580699934111</v>
+        <v>0.07414131202510285</v>
       </c>
       <c r="W8">
-        <v>0.09533872767210438</v>
+        <v>0.06926073654943421</v>
       </c>
       <c r="X8">
-        <v>0.1212994424814587</v>
+        <v>0.3217418075570678</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -4877,76 +6637,76 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9">
-        <v>528.4</v>
+        <v>477.04</v>
       </c>
       <c r="B9">
-        <v>0.6144280726547425</v>
+        <v>0.594724019097997</v>
       </c>
       <c r="C9">
-        <v>0.2861796296181994</v>
+        <v>0.08074638398336077</v>
       </c>
       <c r="D9">
-        <v>0.3247017594129571</v>
+        <v>0.5219933462009281</v>
       </c>
       <c r="E9">
-        <v>0.0350934344294276</v>
+        <v>0.03770601981870382</v>
       </c>
       <c r="F9">
-        <v>0.2565085525569364</v>
+        <v>0.4562614657426493</v>
       </c>
       <c r="G9">
-        <v>0.5925051710679035</v>
+        <v>0.1360549055504654</v>
       </c>
       <c r="H9">
-        <v>0.1193611649094793</v>
+        <v>0.269787235954207</v>
       </c>
       <c r="I9">
-        <v>0.1028038393138512</v>
+        <v>0.1091525722162794</v>
       </c>
       <c r="J9">
-        <v>0.1752523473983584</v>
+        <v>0.08659274527794905</v>
       </c>
       <c r="K9">
-        <v>0.05013270891023185</v>
+        <v>0.125136679037743</v>
       </c>
       <c r="L9">
-        <v>0.6165784746063054</v>
+        <v>0.09344620583865594</v>
       </c>
       <c r="M9">
-        <v>0.2154640044096854</v>
+        <v>0.2271726772197657</v>
       </c>
       <c r="N9">
-        <v>0.2264533808719952</v>
+        <v>0.3578986423823703</v>
       </c>
       <c r="O9">
-        <v>0.1081311042708425</v>
+        <v>0.1402662629194932</v>
       </c>
       <c r="P9">
-        <v>0.05785828768971259</v>
+        <v>0.06008619840692023</v>
       </c>
       <c r="Q9">
-        <v>0.4278937500704265</v>
+        <v>0.4516172150393023</v>
       </c>
       <c r="R9">
-        <v>0.2986188178265894</v>
+        <v>0.3284119889283764</v>
       </c>
       <c r="S9">
-        <v>0.1335753366144754</v>
+        <v>0.3918102626911327</v>
       </c>
       <c r="T9">
-        <v>0.3910926047506786</v>
+        <v>0.1291186834271249</v>
       </c>
       <c r="U9">
-        <v>0.675692855829284</v>
+        <v>0.7046565167547308</v>
       </c>
       <c r="V9">
-        <v>0.08534079645615686</v>
+        <v>0.07755797393157478</v>
       </c>
       <c r="W9">
-        <v>0.1511684761446104</v>
+        <v>0.08033588596237477</v>
       </c>
       <c r="X9">
-        <v>0.05825080447758364</v>
+        <v>0.2707030237065057</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -4954,76 +6714,76 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10">
-        <v>549.8</v>
+        <v>489.88</v>
       </c>
       <c r="B10">
-        <v>0.5312185676624699</v>
+        <v>0.6449324202361191</v>
       </c>
       <c r="C10">
-        <v>0.4967595532361556</v>
+        <v>0.0928341855855076</v>
       </c>
       <c r="D10">
-        <v>0.2043391919072902</v>
+        <v>0.5184855637794091</v>
       </c>
       <c r="E10">
-        <v>0.03445878141924506</v>
+        <v>0.03681597910016357</v>
       </c>
       <c r="F10">
-        <v>0.2351619407109579</v>
+        <v>0.4029766225725901</v>
       </c>
       <c r="G10">
-        <v>0.6038254778677831</v>
+        <v>0.187673190116929</v>
       </c>
       <c r="H10">
-        <v>0.1133438259293354</v>
+        <v>0.2194791152799857</v>
       </c>
       <c r="I10">
-        <v>0.1012321987980609</v>
+        <v>0.1064298170062736</v>
       </c>
       <c r="J10">
-        <v>0.1809953526519291</v>
+        <v>0.09740532167693769</v>
       </c>
       <c r="K10">
-        <v>0.04899794774863116</v>
+        <v>0.09460399035092201</v>
       </c>
       <c r="L10">
-        <v>0.7383854550585479</v>
+        <v>0.1197527675488112</v>
       </c>
       <c r="M10">
-        <v>0.2131066930112458</v>
+        <v>0.2220211575013454</v>
       </c>
       <c r="N10">
-        <v>0.2003076216467726</v>
+        <v>0.3259226292371704</v>
       </c>
       <c r="O10">
-        <v>0.1076955784877136</v>
+        <v>0.1309206119030956</v>
       </c>
       <c r="P10">
-        <v>0.05834524291999936</v>
+        <v>0.059883395607591</v>
       </c>
       <c r="Q10">
-        <v>0.4215644263904983</v>
+        <v>0.4424554267096747</v>
       </c>
       <c r="R10">
-        <v>0.2846911703924212</v>
+        <v>0.3770372675838254</v>
       </c>
       <c r="S10">
-        <v>0.1053202130782277</v>
+        <v>0.3015041837292964</v>
       </c>
       <c r="T10">
-        <v>0.327427734600423</v>
+        <v>0.1892919927289007</v>
       </c>
       <c r="U10">
-        <v>0.6682697646698972</v>
+        <v>0.6942536035988165</v>
       </c>
       <c r="V10">
-        <v>0.08996017461489245</v>
+        <v>0.07906052448809951</v>
       </c>
       <c r="W10">
-        <v>0.2085716941522843</v>
+        <v>0.08543351130319993</v>
       </c>
       <c r="X10">
-        <v>0.04464202498886671</v>
+        <v>0.1965034246290727</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -5031,76 +6791,76 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11">
-        <v>571.2</v>
+        <v>502.72</v>
       </c>
       <c r="B11">
-        <v>0.4232416825218674</v>
+        <v>0.6613473930764241</v>
       </c>
       <c r="C11">
-        <v>0.6146825204173754</v>
+        <v>0.1373979084129121</v>
       </c>
       <c r="D11">
-        <v>0.1235110880069189</v>
+        <v>0.4754216449216259</v>
       </c>
       <c r="E11">
-        <v>0.0341144238708521</v>
+        <v>0.03618181880431212</v>
       </c>
       <c r="F11">
-        <v>0.2070367178327463</v>
+        <v>0.3518336657806266</v>
       </c>
       <c r="G11">
-        <v>0.5605244289150073</v>
+        <v>0.3262848470190031</v>
       </c>
       <c r="H11">
-        <v>0.1197128120995683</v>
+        <v>0.1863167860377807</v>
       </c>
       <c r="I11">
-        <v>0.1007344004575769</v>
+        <v>0.1048560212571006</v>
       </c>
       <c r="J11">
-        <v>0.1477219181998373</v>
+        <v>0.1036085206870841</v>
       </c>
       <c r="K11">
-        <v>0.0512265147872942</v>
+        <v>0.07431980977605138</v>
       </c>
       <c r="L11">
-        <v>0.7720493917799465</v>
+        <v>0.2378380066265688</v>
       </c>
       <c r="M11">
-        <v>0.2134772467285938</v>
+        <v>0.2191634182833755</v>
       </c>
       <c r="N11">
-        <v>0.1673127702443699</v>
+        <v>0.291283206790285</v>
       </c>
       <c r="O11">
-        <v>0.119570731514718</v>
+        <v>0.1227961090341548</v>
       </c>
       <c r="P11">
-        <v>0.07473596779164723</v>
+        <v>0.0575242425017237</v>
       </c>
       <c r="Q11">
-        <v>0.4167942103397284</v>
+        <v>0.4365347582115235</v>
       </c>
       <c r="R11">
-        <v>0.2987345798605212</v>
+        <v>0.4007309902532086</v>
       </c>
       <c r="S11">
-        <v>0.09098904866801216</v>
+        <v>0.22530424669374</v>
       </c>
       <c r="T11">
-        <v>0.2379832895316012</v>
+        <v>0.2949744143363829</v>
       </c>
       <c r="U11">
-        <v>0.6624659508095848</v>
+        <v>0.6871671087426254</v>
       </c>
       <c r="V11">
-        <v>0.1114584641962474</v>
+        <v>0.07949674640216589</v>
       </c>
       <c r="W11">
-        <v>0.3993509097617891</v>
+        <v>0.09094415628653364</v>
       </c>
       <c r="X11">
-        <v>0.03950815538700903</v>
+        <v>0.137585966283826</v>
       </c>
       <c r="Y11">
         <v>1</v>
@@ -5108,76 +6868,76 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12">
-        <v>592.6</v>
+        <v>515.5599999999999</v>
       </c>
       <c r="B12">
-        <v>0.3092924421616493</v>
+        <v>0.648418445300732</v>
       </c>
       <c r="C12">
-        <v>0.6702296206876757</v>
+        <v>0.1934685867543067</v>
       </c>
       <c r="D12">
-        <v>0.09244604629325689</v>
+        <v>0.4066817987842468</v>
       </c>
       <c r="E12">
-        <v>0.03395295573129334</v>
+        <v>0.03550723031069651</v>
       </c>
       <c r="F12">
-        <v>0.2353059590529074</v>
+        <v>0.2998211672714612</v>
       </c>
       <c r="G12">
-        <v>0.4466116332602698</v>
+        <v>0.4975854969306405</v>
       </c>
       <c r="H12">
-        <v>0.2607424459350037</v>
+        <v>0.1542740272365249</v>
       </c>
       <c r="I12">
-        <v>0.09968030066265364</v>
+        <v>0.1038282674885511</v>
       </c>
       <c r="J12">
-        <v>0.1251000530482836</v>
+        <v>0.1269024840120741</v>
       </c>
       <c r="K12">
-        <v>0.0811036626389848</v>
+        <v>0.06039360301892283</v>
       </c>
       <c r="L12">
-        <v>0.7838388245257166</v>
+        <v>0.4460049822405305</v>
       </c>
       <c r="M12">
-        <v>0.2126906405851678</v>
+        <v>0.2173057639377863</v>
       </c>
       <c r="N12">
-        <v>0.1571760307572394</v>
+        <v>0.2571807772247179</v>
       </c>
       <c r="O12">
-        <v>0.3209195460160733</v>
+        <v>0.1138428478433568</v>
       </c>
       <c r="P12">
-        <v>0.1367305252278952</v>
+        <v>0.05671034240964951</v>
       </c>
       <c r="Q12">
-        <v>0.4114038328645788</v>
+        <v>0.4322095222689682</v>
       </c>
       <c r="R12">
-        <v>0.4834817548872505</v>
+        <v>0.3699151208593314</v>
       </c>
       <c r="S12">
-        <v>0.0884543615631361</v>
+        <v>0.1705280631567393</v>
       </c>
       <c r="T12">
-        <v>0.1661105404849146</v>
+        <v>0.3884116398514347</v>
       </c>
       <c r="U12">
-        <v>0.6565693512144085</v>
+        <v>0.6815124456853909</v>
       </c>
       <c r="V12">
-        <v>0.1464611408406017</v>
+        <v>0.08181763349762909</v>
       </c>
       <c r="W12">
-        <v>0.6190370390849779</v>
+        <v>0.1121265923820925</v>
       </c>
       <c r="X12">
-        <v>0.03953217312366047</v>
+        <v>0.0906681375445758</v>
       </c>
       <c r="Y12">
         <v>1</v>
@@ -5185,76 +6945,76 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13">
-        <v>614</v>
+        <v>528.4</v>
       </c>
       <c r="B13">
-        <v>0.2390471815087228</v>
+        <v>0.6144280726547425</v>
       </c>
       <c r="C13">
-        <v>0.6898058160623424</v>
+        <v>0.2861796296181994</v>
       </c>
       <c r="D13">
-        <v>0.07947699405386599</v>
+        <v>0.3247017594129571</v>
       </c>
       <c r="E13">
-        <v>0.03376668136287034</v>
+        <v>0.0350934344294276</v>
       </c>
       <c r="F13">
-        <v>0.2643568072895374</v>
+        <v>0.2565085525569364</v>
       </c>
       <c r="G13">
-        <v>0.3468195324908583</v>
+        <v>0.5925051710679035</v>
       </c>
       <c r="H13">
-        <v>0.5166671318312819</v>
+        <v>0.1193611649094793</v>
       </c>
       <c r="I13">
-        <v>0.09747247628862232</v>
+        <v>0.1028038393138512</v>
       </c>
       <c r="J13">
-        <v>0.1090559842414567</v>
+        <v>0.1752523473983584</v>
       </c>
       <c r="K13">
-        <v>0.09717899736039784</v>
+        <v>0.05013270891023185</v>
       </c>
       <c r="L13">
-        <v>0.7752549142388001</v>
+        <v>0.6165784746063054</v>
       </c>
       <c r="M13">
-        <v>0.2082233975303777</v>
+        <v>0.2154640044096854</v>
       </c>
       <c r="N13">
-        <v>0.1446044666833909</v>
+        <v>0.2264533808719952</v>
       </c>
       <c r="O13">
-        <v>0.5851404155906301</v>
+        <v>0.1081311042708425</v>
       </c>
       <c r="P13">
-        <v>0.3997514206166002</v>
+        <v>0.05785828768971259</v>
       </c>
       <c r="Q13">
-        <v>0.404192566576467</v>
+        <v>0.4278937500704265</v>
       </c>
       <c r="R13">
-        <v>0.5912019632302008</v>
+        <v>0.2986188178265894</v>
       </c>
       <c r="S13">
-        <v>0.0884703386289349</v>
+        <v>0.1335753366144754</v>
       </c>
       <c r="T13">
-        <v>0.1210509483299808</v>
+        <v>0.3910926047506786</v>
       </c>
       <c r="U13">
-        <v>0.6506300472605893</v>
+        <v>0.675692855829284</v>
       </c>
       <c r="V13">
-        <v>0.1574014048692965</v>
+        <v>0.08534079645615686</v>
       </c>
       <c r="W13">
-        <v>0.6600585282208832</v>
+        <v>0.1511684761446104</v>
       </c>
       <c r="X13">
-        <v>0.03941666367788391</v>
+        <v>0.05825080447758364</v>
       </c>
       <c r="Y13">
         <v>1</v>
@@ -5262,76 +7022,76 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14">
-        <v>635.4</v>
+        <v>541.24</v>
       </c>
       <c r="B14">
-        <v>0.2199737765268738</v>
+        <v>0.5684174800162075</v>
       </c>
       <c r="C14">
-        <v>0.6981268235776292</v>
+        <v>0.4168699239877078</v>
       </c>
       <c r="D14">
-        <v>0.07749554910396697</v>
+        <v>0.2495333300966107</v>
       </c>
       <c r="E14">
-        <v>0.03361557019894697</v>
+        <v>0.03461593430206435</v>
       </c>
       <c r="F14">
-        <v>0.2759819805227531</v>
+        <v>0.2416543903502961</v>
       </c>
       <c r="G14">
-        <v>0.3217603362011383</v>
+        <v>0.6112098007717001</v>
       </c>
       <c r="H14">
-        <v>0.6888769467811408</v>
+        <v>0.1097416536572284</v>
       </c>
       <c r="I14">
-        <v>0.09520767258025895</v>
+        <v>0.1018493775132656</v>
       </c>
       <c r="J14">
-        <v>0.1081633099452103</v>
+        <v>0.1898102564697663</v>
       </c>
       <c r="K14">
-        <v>0.09632852775145957</v>
+        <v>0.04819595498266541</v>
       </c>
       <c r="L14">
-        <v>0.7778072197446565</v>
+        <v>0.7090840817790416</v>
       </c>
       <c r="M14">
-        <v>0.203647789688445</v>
+        <v>0.2138659579843078</v>
       </c>
       <c r="N14">
-        <v>0.1409288696396373</v>
+        <v>0.2102391018823024</v>
       </c>
       <c r="O14">
-        <v>0.6582818989216397</v>
+        <v>0.1074791293953237</v>
       </c>
       <c r="P14">
-        <v>0.6474718586232494</v>
+        <v>0.05784333422721158</v>
       </c>
       <c r="Q14">
-        <v>0.3970885935524431</v>
+        <v>0.4240246284588073</v>
       </c>
       <c r="R14">
-        <v>0.6355719874170213</v>
+        <v>0.2755101754112462</v>
       </c>
       <c r="S14">
-        <v>0.09391454099594941</v>
+        <v>0.1140393559261186</v>
       </c>
       <c r="T14">
-        <v>0.1081447193580127</v>
+        <v>0.3582929449029189</v>
       </c>
       <c r="U14">
-        <v>0.6454918806457323</v>
+        <v>0.6710228607903798</v>
       </c>
       <c r="V14">
-        <v>0.1748110285376251</v>
+        <v>0.08738412053367794</v>
       </c>
       <c r="W14">
-        <v>0.6553456349498743</v>
+        <v>0.1814419719759224</v>
       </c>
       <c r="X14">
-        <v>0.04167463217879418</v>
+        <v>0.04777367763900309</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -5339,76 +7099,76 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15">
-        <v>656.8</v>
+        <v>554.0799999999999</v>
       </c>
       <c r="B15">
-        <v>0.2128851662848669</v>
+        <v>0.5105583394059047</v>
       </c>
       <c r="C15">
-        <v>0.7043023877767057</v>
+        <v>0.5287502002802529</v>
       </c>
       <c r="D15">
-        <v>0.08002804152437942</v>
+        <v>0.1835483892801249</v>
       </c>
       <c r="E15">
-        <v>0.0335499422345955</v>
+        <v>0.03438202692245384</v>
       </c>
       <c r="F15">
-        <v>0.3451531155082759</v>
+        <v>0.2293230465776907</v>
       </c>
       <c r="G15">
-        <v>0.3156977258402178</v>
+        <v>0.5976267934911961</v>
       </c>
       <c r="H15">
-        <v>0.8437349972876644</v>
+        <v>0.1139286327945258</v>
       </c>
       <c r="I15">
-        <v>0.09322211862432218</v>
+        <v>0.1010017579231176</v>
       </c>
       <c r="J15">
-        <v>0.109562169465182</v>
+        <v>0.1743683866037493</v>
       </c>
       <c r="K15">
-        <v>0.1581749323691811</v>
+        <v>0.04912284618086885</v>
       </c>
       <c r="L15">
-        <v>0.777262184793619</v>
+        <v>0.7481868945570838</v>
       </c>
       <c r="M15">
-        <v>0.1998622986568856</v>
+        <v>0.2128810287882874</v>
       </c>
       <c r="N15">
-        <v>0.157083110144318</v>
+        <v>0.1935723024428119</v>
       </c>
       <c r="O15">
-        <v>0.6658525494788141</v>
+        <v>0.1079800548324523</v>
       </c>
       <c r="P15">
-        <v>0.7034550825951941</v>
+        <v>0.05948636921992204</v>
       </c>
       <c r="Q15">
-        <v>0.3905691110550155</v>
+        <v>0.4204210943769739</v>
       </c>
       <c r="R15">
-        <v>0.6847404283209602</v>
+        <v>0.2855993035393564</v>
       </c>
       <c r="S15">
-        <v>0.1160089319027709</v>
+        <v>0.1014979099193979</v>
       </c>
       <c r="T15">
-        <v>0.1034872277390509</v>
+        <v>0.3089238925111869</v>
       </c>
       <c r="U15">
-        <v>0.640926520472392</v>
+        <v>0.6669987168852678</v>
       </c>
       <c r="V15">
-        <v>0.1939335526152698</v>
+        <v>0.09233446347412458</v>
       </c>
       <c r="W15">
-        <v>0.6545632004050352</v>
+        <v>0.2306762702627479</v>
       </c>
       <c r="X15">
-        <v>0.04649386716036969</v>
+        <v>0.04306302106209655</v>
       </c>
       <c r="Y15">
         <v>1</v>
@@ -5416,76 +7176,76 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16">
-        <v>678.2</v>
+        <v>566.92</v>
       </c>
       <c r="B16">
-        <v>0.23144269967418</v>
+        <v>0.4459103537252172</v>
       </c>
       <c r="C16">
-        <v>0.7094734940582578</v>
+        <v>0.597969732491908</v>
       </c>
       <c r="D16">
-        <v>0.08111110324415541</v>
+        <v>0.1346642340606418</v>
       </c>
       <c r="E16">
-        <v>0.03336469298792442</v>
+        <v>0.03420677440951865</v>
       </c>
       <c r="F16">
-        <v>0.3738715324281612</v>
+        <v>0.2096237815474969</v>
       </c>
       <c r="G16">
-        <v>0.3536503482412022</v>
+        <v>0.5731569912741171</v>
       </c>
       <c r="H16">
-        <v>0.9215556624444682</v>
+        <v>0.1139296966353181</v>
       </c>
       <c r="I16">
-        <v>0.09105481503673309</v>
+        <v>0.1008188834551415</v>
       </c>
       <c r="J16">
-        <v>0.1122204149811375</v>
+        <v>0.1536989380430493</v>
       </c>
       <c r="K16">
-        <v>0.2298470039126393</v>
+        <v>0.04956206251966189</v>
       </c>
       <c r="L16">
-        <v>0.7636137407505464</v>
+        <v>0.7678292072407618</v>
       </c>
       <c r="M16">
-        <v>0.1952064617688623</v>
+        <v>0.2133220872819948</v>
       </c>
       <c r="N16">
-        <v>0.1622916094511649</v>
+        <v>0.172475426537515</v>
       </c>
       <c r="O16">
-        <v>0.6644011915623153</v>
+        <v>0.112085412644381</v>
       </c>
       <c r="P16">
-        <v>0.7145375018871296</v>
+        <v>0.06936536860909598</v>
       </c>
       <c r="Q16">
-        <v>0.3838342854882096</v>
+        <v>0.4177870467497778</v>
       </c>
       <c r="R16">
-        <v>0.7489180232272532</v>
+        <v>0.2848178875836143</v>
       </c>
       <c r="S16">
-        <v>0.160280165406603</v>
+        <v>0.0927748192302576</v>
       </c>
       <c r="T16">
-        <v>0.1097121788865214</v>
+        <v>0.2539817613747851</v>
       </c>
       <c r="U16">
-        <v>0.6366726202632597</v>
+        <v>0.6637322423974804</v>
       </c>
       <c r="V16">
-        <v>0.1891119382620202</v>
+        <v>0.1050496469697881</v>
       </c>
       <c r="W16">
-        <v>0.6669226667643215</v>
+        <v>0.3458161514362533</v>
       </c>
       <c r="X16">
-        <v>0.04743076232027005</v>
+        <v>0.0398481700844251</v>
       </c>
       <c r="Y16">
         <v>1</v>
@@ -5493,78 +7253,848 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17">
-        <v>699.5999999999999</v>
+        <v>579.76</v>
       </c>
       <c r="B17">
-        <v>0.2534752803311507</v>
+        <v>0.3773762149194356</v>
       </c>
       <c r="C17">
-        <v>0.713735700955433</v>
+        <v>0.6425868122779325</v>
       </c>
       <c r="D17">
-        <v>0.0770968435562361</v>
+        <v>0.1070300231327412</v>
       </c>
       <c r="E17">
-        <v>0.03334340313859333</v>
+        <v>0.03400281247620346</v>
       </c>
       <c r="F17">
-        <v>0.367956607174336</v>
+        <v>0.2108701707447131</v>
       </c>
       <c r="G17">
-        <v>0.3949249948910861</v>
+        <v>0.5252655234404918</v>
       </c>
       <c r="H17">
-        <v>0.9502390582642345</v>
+        <v>0.150351967699638</v>
       </c>
       <c r="I17">
-        <v>0.08921640760166066</v>
+        <v>0.1003917287740532</v>
       </c>
       <c r="J17">
-        <v>0.1141982834591928</v>
+        <v>0.1378376734465215</v>
       </c>
       <c r="K17">
-        <v>0.2813055058987556</v>
+        <v>0.05836750086395711</v>
       </c>
       <c r="L17">
-        <v>0.7886372549285607</v>
+        <v>0.7787678302873372</v>
       </c>
       <c r="M17">
-        <v>0.1902302202665669</v>
+        <v>0.2135426519942946</v>
       </c>
       <c r="N17">
-        <v>0.1483460570965575</v>
+        <v>0.1607327757375961</v>
       </c>
       <c r="O17">
-        <v>0.6615519217286496</v>
+        <v>0.1616452672146133</v>
       </c>
       <c r="P17">
-        <v>0.7254734897757442</v>
+        <v>0.08747563826284591</v>
       </c>
       <c r="Q17">
-        <v>0.3766371866339976</v>
+        <v>0.414800507862402</v>
       </c>
       <c r="R17">
-        <v>0.8182282006322547</v>
+        <v>0.3583006868684646</v>
       </c>
       <c r="S17">
-        <v>0.2458437455898719</v>
+        <v>0.08888346663171637</v>
       </c>
       <c r="T17">
-        <v>0.1213355979626553</v>
+        <v>0.2082958274245059</v>
       </c>
       <c r="U17">
-        <v>0.6316064760268634</v>
+        <v>0.6600470920477383</v>
       </c>
       <c r="V17">
-        <v>0.1806701329729885</v>
+        <v>0.1263769041088109</v>
       </c>
       <c r="W17">
-        <v>0.6886221653628607</v>
+        <v>0.5079956754375623</v>
       </c>
       <c r="X17">
-        <v>0.04651191485425346</v>
+        <v>0.03948992692584799</v>
       </c>
       <c r="Y17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18">
+        <v>592.6</v>
+      </c>
+      <c r="B18">
+        <v>0.3092924421616493</v>
+      </c>
+      <c r="C18">
+        <v>0.6702296206876757</v>
+      </c>
+      <c r="D18">
+        <v>0.09244604629325689</v>
+      </c>
+      <c r="E18">
+        <v>0.03395295573129334</v>
+      </c>
+      <c r="F18">
+        <v>0.2353059590529074</v>
+      </c>
+      <c r="G18">
+        <v>0.4466116332602698</v>
+      </c>
+      <c r="H18">
+        <v>0.2607424459350037</v>
+      </c>
+      <c r="I18">
+        <v>0.09968030066265364</v>
+      </c>
+      <c r="J18">
+        <v>0.1251000530482836</v>
+      </c>
+      <c r="K18">
+        <v>0.0811036626389848</v>
+      </c>
+      <c r="L18">
+        <v>0.7838388245257166</v>
+      </c>
+      <c r="M18">
+        <v>0.2126906405851678</v>
+      </c>
+      <c r="N18">
+        <v>0.1571760307572394</v>
+      </c>
+      <c r="O18">
+        <v>0.3209195460160733</v>
+      </c>
+      <c r="P18">
+        <v>0.1367305252278952</v>
+      </c>
+      <c r="Q18">
+        <v>0.4114038328645788</v>
+      </c>
+      <c r="R18">
+        <v>0.4834817548872505</v>
+      </c>
+      <c r="S18">
+        <v>0.0884543615631361</v>
+      </c>
+      <c r="T18">
+        <v>0.1661105404849146</v>
+      </c>
+      <c r="U18">
+        <v>0.6565693512144085</v>
+      </c>
+      <c r="V18">
+        <v>0.1464611408406017</v>
+      </c>
+      <c r="W18">
+        <v>0.6190370390849779</v>
+      </c>
+      <c r="X18">
+        <v>0.03953217312366047</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19">
+        <v>605.4400000000001</v>
+      </c>
+      <c r="B19">
+        <v>0.2576846727301093</v>
+      </c>
+      <c r="C19">
+        <v>0.6842234466868482</v>
+      </c>
+      <c r="D19">
+        <v>0.08264677554818069</v>
+      </c>
+      <c r="E19">
+        <v>0.03382257191139167</v>
+      </c>
+      <c r="F19">
+        <v>0.259508127276315</v>
+      </c>
+      <c r="G19">
+        <v>0.3738243021287979</v>
+      </c>
+      <c r="H19">
+        <v>0.417198169396282</v>
+      </c>
+      <c r="I19">
+        <v>0.09832213639395039</v>
+      </c>
+      <c r="J19">
+        <v>0.1134790825020595</v>
+      </c>
+      <c r="K19">
+        <v>0.09960378907893255</v>
+      </c>
+      <c r="L19">
+        <v>0.7811795473576992</v>
+      </c>
+      <c r="M19">
+        <v>0.2099982634920664</v>
+      </c>
+      <c r="N19">
+        <v>0.1499553537622536</v>
+      </c>
+      <c r="O19">
+        <v>0.5039801317987715</v>
+      </c>
+      <c r="P19">
+        <v>0.2690025403281924</v>
+      </c>
+      <c r="Q19">
+        <v>0.4068667125742453</v>
+      </c>
+      <c r="R19">
+        <v>0.5631682469896837</v>
+      </c>
+      <c r="S19">
+        <v>0.08845467421477932</v>
+      </c>
+      <c r="T19">
+        <v>0.1333534260995626</v>
+      </c>
+      <c r="U19">
+        <v>0.6526539069231106</v>
+      </c>
+      <c r="V19">
+        <v>0.1545946545791693</v>
+      </c>
+      <c r="W19">
+        <v>0.6556344011775627</v>
+      </c>
+      <c r="X19">
+        <v>0.03925457130103115</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20">
+        <v>618.28</v>
+      </c>
+      <c r="B20">
+        <v>0.2330462420812781</v>
+      </c>
+      <c r="C20">
+        <v>0.6916016566279234</v>
+      </c>
+      <c r="D20">
+        <v>0.07867000310160636</v>
+      </c>
+      <c r="E20">
+        <v>0.03369751051523048</v>
+      </c>
+      <c r="F20">
+        <v>0.2630158366988096</v>
+      </c>
+      <c r="G20">
+        <v>0.3384420282310752</v>
+      </c>
+      <c r="H20">
+        <v>0.5581816706544865</v>
+      </c>
+      <c r="I20">
+        <v>0.09692846586963315</v>
+      </c>
+      <c r="J20">
+        <v>0.1079064197470687</v>
+      </c>
+      <c r="K20">
+        <v>0.09324484188540408</v>
+      </c>
+      <c r="L20">
+        <v>0.773203635035614</v>
+      </c>
+      <c r="M20">
+        <v>0.2071657841917004</v>
+      </c>
+      <c r="N20">
+        <v>0.1423886768566398</v>
+      </c>
+      <c r="O20">
+        <v>0.6113757881596968</v>
+      </c>
+      <c r="P20">
+        <v>0.4670961131880757</v>
+      </c>
+      <c r="Q20">
+        <v>0.4025653041600848</v>
+      </c>
+      <c r="R20">
+        <v>0.6011787293758194</v>
+      </c>
+      <c r="S20">
+        <v>0.08855576060713495</v>
+      </c>
+      <c r="T20">
+        <v>0.1168661622124868</v>
+      </c>
+      <c r="U20">
+        <v>0.649322699147114</v>
+      </c>
+      <c r="V20">
+        <v>0.1593388147976424</v>
+      </c>
+      <c r="W20">
+        <v>0.6593527847888848</v>
+      </c>
+      <c r="X20">
+        <v>0.03964882103427038</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21">
+        <v>631.12</v>
+      </c>
+      <c r="B21">
+        <v>0.222447961922059</v>
+      </c>
+      <c r="C21">
+        <v>0.6967465415949592</v>
+      </c>
+      <c r="D21">
+        <v>0.07762321074360291</v>
+      </c>
+      <c r="E21">
+        <v>0.03361278445281578</v>
+      </c>
+      <c r="F21">
+        <v>0.2679812590423069</v>
+      </c>
+      <c r="G21">
+        <v>0.32488141515091</v>
+      </c>
+      <c r="H21">
+        <v>0.6582470835246668</v>
+      </c>
+      <c r="I21">
+        <v>0.0955842094597342</v>
+      </c>
+      <c r="J21">
+        <v>0.107799339288184</v>
+      </c>
+      <c r="K21">
+        <v>0.09139527210113672</v>
+      </c>
+      <c r="L21">
+        <v>0.7766653597510929</v>
+      </c>
+      <c r="M21">
+        <v>0.2044632999204866</v>
+      </c>
+      <c r="N21">
+        <v>0.1400002218337876</v>
+      </c>
+      <c r="O21">
+        <v>0.6527813166628044</v>
+      </c>
+      <c r="P21">
+        <v>0.619298434491655</v>
+      </c>
+      <c r="Q21">
+        <v>0.3983503984506421</v>
+      </c>
+      <c r="R21">
+        <v>0.6272712219667582</v>
+      </c>
+      <c r="S21">
+        <v>0.09156442935526493</v>
+      </c>
+      <c r="T21">
+        <v>0.109634892361266</v>
+      </c>
+      <c r="U21">
+        <v>0.6463981134736121</v>
+      </c>
+      <c r="V21">
+        <v>0.1701516416778579</v>
+      </c>
+      <c r="W21">
+        <v>0.6562749056662375</v>
+      </c>
+      <c r="X21">
+        <v>0.04102596508563991</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22">
+        <v>643.96</v>
+      </c>
+      <c r="B22">
+        <v>0.2152531051395715</v>
+      </c>
+      <c r="C22">
+        <v>0.7006732347934385</v>
+      </c>
+      <c r="D22">
+        <v>0.0778621048355574</v>
+      </c>
+      <c r="E22">
+        <v>0.03358519467191981</v>
+      </c>
+      <c r="F22">
+        <v>0.2999837965153988</v>
+      </c>
+      <c r="G22">
+        <v>0.3158280642136861</v>
+      </c>
+      <c r="H22">
+        <v>0.7524278346655889</v>
+      </c>
+      <c r="I22">
+        <v>0.09434977850036035</v>
+      </c>
+      <c r="J22">
+        <v>0.108644930134664</v>
+      </c>
+      <c r="K22">
+        <v>0.1144743655352528</v>
+      </c>
+      <c r="L22">
+        <v>0.77758810753935</v>
+      </c>
+      <c r="M22">
+        <v>0.2020223161457034</v>
+      </c>
+      <c r="N22">
+        <v>0.14562318747179</v>
+      </c>
+      <c r="O22">
+        <v>0.6636675483115069</v>
+      </c>
+      <c r="P22">
+        <v>0.6812862189086554</v>
+      </c>
+      <c r="Q22">
+        <v>0.3944509760152904</v>
+      </c>
+      <c r="R22">
+        <v>0.6531457328322543</v>
+      </c>
+      <c r="S22">
+        <v>0.1005749878011828</v>
+      </c>
+      <c r="T22">
+        <v>0.1055264277165176</v>
+      </c>
+      <c r="U22">
+        <v>0.6435132282221144</v>
+      </c>
+      <c r="V22">
+        <v>0.1837913971593523</v>
+      </c>
+      <c r="W22">
+        <v>0.6538102583896045</v>
+      </c>
+      <c r="X22">
+        <v>0.04329206110912055</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23">
+        <v>656.8</v>
+      </c>
+      <c r="B23">
+        <v>0.2128851662848669</v>
+      </c>
+      <c r="C23">
+        <v>0.7043023877767057</v>
+      </c>
+      <c r="D23">
+        <v>0.08002804152437942</v>
+      </c>
+      <c r="E23">
+        <v>0.0335499422345955</v>
+      </c>
+      <c r="F23">
+        <v>0.3451531155082759</v>
+      </c>
+      <c r="G23">
+        <v>0.3156977258402178</v>
+      </c>
+      <c r="H23">
+        <v>0.8437349972876644</v>
+      </c>
+      <c r="I23">
+        <v>0.09322211862432218</v>
+      </c>
+      <c r="J23">
+        <v>0.109562169465182</v>
+      </c>
+      <c r="K23">
+        <v>0.1581749323691811</v>
+      </c>
+      <c r="L23">
+        <v>0.777262184793619</v>
+      </c>
+      <c r="M23">
+        <v>0.1998622986568856</v>
+      </c>
+      <c r="N23">
+        <v>0.157083110144318</v>
+      </c>
+      <c r="O23">
+        <v>0.6658525494788141</v>
+      </c>
+      <c r="P23">
+        <v>0.7034550825951941</v>
+      </c>
+      <c r="Q23">
+        <v>0.3905691110550155</v>
+      </c>
+      <c r="R23">
+        <v>0.6847404283209602</v>
+      </c>
+      <c r="S23">
+        <v>0.1160089319027709</v>
+      </c>
+      <c r="T23">
+        <v>0.1034872277390509</v>
+      </c>
+      <c r="U23">
+        <v>0.640926520472392</v>
+      </c>
+      <c r="V23">
+        <v>0.1939335526152698</v>
+      </c>
+      <c r="W23">
+        <v>0.6545632004050352</v>
+      </c>
+      <c r="X23">
+        <v>0.04649386716036969</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24">
+        <v>669.64</v>
+      </c>
+      <c r="B24">
+        <v>0.2218279355076964</v>
+      </c>
+      <c r="C24">
+        <v>0.7081283806910793</v>
+      </c>
+      <c r="D24">
+        <v>0.08177422894255207</v>
+      </c>
+      <c r="E24">
+        <v>0.03353158045284264</v>
+      </c>
+      <c r="F24">
+        <v>0.3725090388537519</v>
+      </c>
+      <c r="G24">
+        <v>0.3355200035425461</v>
+      </c>
+      <c r="H24">
+        <v>0.9015191875150884</v>
+      </c>
+      <c r="I24">
+        <v>0.09206322827196926</v>
+      </c>
+      <c r="J24">
+        <v>0.1115038085548583</v>
+      </c>
+      <c r="K24">
+        <v>0.2036677421806396</v>
+      </c>
+      <c r="L24">
+        <v>0.7812648025376341</v>
+      </c>
+      <c r="M24">
+        <v>0.1974108005894847</v>
+      </c>
+      <c r="N24">
+        <v>0.1640629074065657</v>
+      </c>
+      <c r="O24">
+        <v>0.6659106520911736</v>
+      </c>
+      <c r="P24">
+        <v>0.7106852983820113</v>
+      </c>
+      <c r="Q24">
+        <v>0.3869259667555478</v>
+      </c>
+      <c r="R24">
+        <v>0.7227898127522395</v>
+      </c>
+      <c r="S24">
+        <v>0.1389141125058763</v>
+      </c>
+      <c r="T24">
+        <v>0.1061717197604893</v>
+      </c>
+      <c r="U24">
+        <v>0.6389743417732776</v>
+      </c>
+      <c r="V24">
+        <v>0.1949170298522238</v>
+      </c>
+      <c r="W24">
+        <v>0.6610027481017213</v>
+      </c>
+      <c r="X24">
+        <v>0.04828530693328217</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25">
+        <v>682.48</v>
+      </c>
+      <c r="B25">
+        <v>0.2364256274874956</v>
+      </c>
+      <c r="C25">
+        <v>0.7102565102783217</v>
+      </c>
+      <c r="D25">
+        <v>0.08051625507301026</v>
+      </c>
+      <c r="E25">
+        <v>0.03338262835808414</v>
+      </c>
+      <c r="F25">
+        <v>0.3715850342947475</v>
+      </c>
+      <c r="G25">
+        <v>0.3625078840778043</v>
+      </c>
+      <c r="H25">
+        <v>0.9284034811146669</v>
+      </c>
+      <c r="I25">
+        <v>0.09064290869122366</v>
+      </c>
+      <c r="J25">
+        <v>0.1124150565327673</v>
+      </c>
+      <c r="K25">
+        <v>0.2416039232869702</v>
+      </c>
+      <c r="L25">
+        <v>0.7512661132405285</v>
+      </c>
+      <c r="M25">
+        <v>0.1940727823597639</v>
+      </c>
+      <c r="N25">
+        <v>0.160415052017845</v>
+      </c>
+      <c r="O25">
+        <v>0.6638379782401594</v>
+      </c>
+      <c r="P25">
+        <v>0.7170791023561807</v>
+      </c>
+      <c r="Q25">
+        <v>0.3822676082443071</v>
+      </c>
+      <c r="R25">
+        <v>0.7623966101871245</v>
+      </c>
+      <c r="S25">
+        <v>0.1733514795925935</v>
+      </c>
+      <c r="T25">
+        <v>0.1119803817979237</v>
+      </c>
+      <c r="U25">
+        <v>0.6355546429880465</v>
+      </c>
+      <c r="V25">
+        <v>0.185656489562535</v>
+      </c>
+      <c r="W25">
+        <v>0.6705940429536131</v>
+      </c>
+      <c r="X25">
+        <v>0.04683592547636722</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26">
+        <v>695.3199999999999</v>
+      </c>
+      <c r="B26">
+        <v>0.2501100583442569</v>
+      </c>
+      <c r="C26">
+        <v>0.7125736259310903</v>
+      </c>
+      <c r="D26">
+        <v>0.07802693839047203</v>
+      </c>
+      <c r="E26">
+        <v>0.03324976729012255</v>
+      </c>
+      <c r="F26">
+        <v>0.3667828436162879</v>
+      </c>
+      <c r="G26">
+        <v>0.3879098121048203</v>
+      </c>
+      <c r="H26">
+        <v>0.9448833115460862</v>
+      </c>
+      <c r="I26">
+        <v>0.08946503636153487</v>
+      </c>
+      <c r="J26">
+        <v>0.1133837005190606</v>
+      </c>
+      <c r="K26">
+        <v>0.2724822429910248</v>
+      </c>
+      <c r="L26">
+        <v>0.7678261153585093</v>
+      </c>
+      <c r="M26">
+        <v>0.1910656905457834</v>
+      </c>
+      <c r="N26">
+        <v>0.1517140581896468</v>
+      </c>
+      <c r="O26">
+        <v>0.6618013319525217</v>
+      </c>
+      <c r="P26">
+        <v>0.7236062530729239</v>
+      </c>
+      <c r="Q26">
+        <v>0.3778332482492934</v>
+      </c>
+      <c r="R26">
+        <v>0.8045823626574784</v>
+      </c>
+      <c r="S26">
+        <v>0.2244847195209155</v>
+      </c>
+      <c r="T26">
+        <v>0.1190847194103115</v>
+      </c>
+      <c r="U26">
+        <v>0.6323063594270154</v>
+      </c>
+      <c r="V26">
+        <v>0.1800219119890771</v>
+      </c>
+      <c r="W26">
+        <v>0.6836217841999797</v>
+      </c>
+      <c r="X26">
+        <v>0.04613614780764209</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27">
+        <v>708.16</v>
+      </c>
+      <c r="B27">
+        <v>0.2555139384672083</v>
+      </c>
+      <c r="C27">
+        <v>0.7161217584863073</v>
+      </c>
+      <c r="D27">
+        <v>0.07642358541052743</v>
+      </c>
+      <c r="E27">
+        <v>0.03324015398572081</v>
+      </c>
+      <c r="F27">
+        <v>0.3740569873121176</v>
+      </c>
+      <c r="G27">
+        <v>0.4001497106037067</v>
+      </c>
+      <c r="H27">
+        <v>0.9600450715451473</v>
+      </c>
+      <c r="I27">
+        <v>0.0887139127717404</v>
+      </c>
+      <c r="J27">
+        <v>0.1155216329555275</v>
+      </c>
+      <c r="K27">
+        <v>0.2952625346374641</v>
+      </c>
+      <c r="L27">
+        <v>0.8223903273377025</v>
+      </c>
+      <c r="M27">
+        <v>0.1886396271230781</v>
+      </c>
+      <c r="N27">
+        <v>0.1439415707977572</v>
+      </c>
+      <c r="O27">
+        <v>0.6612824146258011</v>
+      </c>
+      <c r="P27">
+        <v>0.7288335190984719</v>
+      </c>
+      <c r="Q27">
+        <v>0.3749210898518254</v>
+      </c>
+      <c r="R27">
+        <v>0.8412724177536893</v>
+      </c>
+      <c r="S27">
+        <v>0.2940181942507496</v>
+      </c>
+      <c r="T27">
+        <v>0.1236608084531398</v>
+      </c>
+      <c r="U27">
+        <v>0.6305479599344083</v>
+      </c>
+      <c r="V27">
+        <v>0.1852937545811668</v>
+      </c>
+      <c r="W27">
+        <v>0.6985931854361312</v>
+      </c>
+      <c r="X27">
+        <v>0.04847641544693275</v>
+      </c>
+      <c r="Y27">
         <v>1</v>
       </c>
     </row>

--- a/Sensitivities.xlsx
+++ b/Sensitivities.xlsx
@@ -167,76 +167,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -248,79 +260,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="107"/>
                 <c:pt idx="0">
-                  <c:v>-363.327038317814</c:v>
+                  <c:v>-450.0741052716385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.75277967090516</c:v>
+                  <c:v>61.40363137694298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-32.32306387308964</c:v>
+                  <c:v>-5.565766174082915</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.79451530841157</c:v>
+                  <c:v>-59.73230277885393</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.61312506762994</c:v>
+                  <c:v>154.8847187776801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-11.7463040372929</c:v>
+                  <c:v>-220.197130482534</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.1348969507975</c:v>
+                  <c:v>269.2049111928638</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6.156225756995777</c:v>
+                  <c:v>-271.1889112757951</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.575759236185307</c:v>
+                  <c:v>181.251796766346</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.248111257944408</c:v>
+                  <c:v>-61.64583092546064</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.312137176424557</c:v>
+                  <c:v>-31.21622229971053</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4.041441658518585</c:v>
+                  <c:v>80.66211832020038</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.603050966673726</c:v>
+                  <c:v>-91.19493646375345</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.060516934834879</c:v>
+                  <c:v>66.5213889059915</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.111663218709537</c:v>
+                  <c:v>-20.31124801662545</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.043083605863323</c:v>
+                  <c:v>-8.472481252968876</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.110941427057093</c:v>
+                  <c:v>10.94907214586931</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.8940461639871738</c:v>
+                  <c:v>-5.721856831662753</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1290365082098336</c:v>
+                  <c:v>3.919643244463522</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.7293678843070037</c:v>
+                  <c:v>-3.190970121248073</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.0919826743243085</c:v>
+                  <c:v>0.5851808754605222</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.903796079862488</c:v>
+                  <c:v>1.48137791643134</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.5202415760480433</c:v>
+                  <c:v>-1.385132180077759</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.1860200132682474</c:v>
+                  <c:v>0.5050044965781794</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.2735890499766356</c:v>
+                  <c:v>-0.7116564731989331</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.640915418231088</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.661706282100801</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.494617393973438</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.7747693226738193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -353,76 +377,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -434,79 +470,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="107"/>
                 <c:pt idx="0">
-                  <c:v>-683.7251001263381</c:v>
+                  <c:v>-813.4044870821181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>124.6080251560893</c:v>
+                  <c:v>121.8958207315589</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-60.30614722800714</c:v>
+                  <c:v>-16.30552361555676</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.02229454491415</c:v>
+                  <c:v>-81.06602421337986</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.940117417563144</c:v>
+                  <c:v>221.5489945590089</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-21.04774890973204</c:v>
+                  <c:v>-322.3174083638867</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.87441414623451</c:v>
+                  <c:v>398.0489577039866</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-11.14062216633227</c:v>
+                  <c:v>-397.8734238019941</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.567805106828864</c:v>
+                  <c:v>260.4732360330484</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7.889874114853217</c:v>
+                  <c:v>-75.14910325067868</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.782328906391562</c:v>
+                  <c:v>-76.74797179399685</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-6.884960147544373</c:v>
+                  <c:v>161.690740583449</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.698299519473196</c:v>
+                  <c:v>-183.4546593417209</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.68265257748876</c:v>
+                  <c:v>143.4691281195248</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.361078204803232</c:v>
+                  <c:v>-56.03983511524635</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.145358730033443</c:v>
+                  <c:v>-5.334484152826574</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3.30151873555414</c:v>
+                  <c:v>14.19463279221907</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.603114765525391</c:v>
+                  <c:v>-6.495247949468189</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.02870246322480668</c:v>
+                  <c:v>4.459341485240657</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.46980687587801</c:v>
+                  <c:v>-4.101613718653129</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.7784293619914654</c:v>
+                  <c:v>0.5310162932766345</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.777365752362178</c:v>
+                  <c:v>2.152907192772711</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.37903043522145</c:v>
+                  <c:v>-1.558025896261189</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.6055206702969567</c:v>
+                  <c:v>0.1121230775101114</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.7286199772033797</c:v>
+                  <c:v>-0.9577341062530603</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.93060655247754</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.238587187209161</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.337138054103234</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.837777221333454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,76 +587,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -620,79 +680,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="107"/>
                 <c:pt idx="0">
-                  <c:v>-379.8025674046206</c:v>
+                  <c:v>-509.3079486557242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.61670588532886</c:v>
+                  <c:v>81.07484389990917</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-32.23807370886274</c:v>
+                  <c:v>-11.4405347082159</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.44877785283403</c:v>
+                  <c:v>-37.85389653517841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.5782061939730138</c:v>
+                  <c:v>105.0830440226748</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-12.04398436272964</c:v>
+                  <c:v>-155.8756231715172</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0472491576753</c:v>
+                  <c:v>195.2981092602163</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6.051469504117474</c:v>
+                  <c:v>-193.6348389684311</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.622555424908695</c:v>
+                  <c:v>123.5156257649636</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.309815027198881</c:v>
+                  <c:v>-30.03423343261161</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.250495625113364</c:v>
+                  <c:v>-48.29371303747741</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.782512376564083</c:v>
+                  <c:v>93.30385584298948</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.269651583937446</c:v>
+                  <c:v>-106.6717512798453</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.771212025147741</c:v>
+                  <c:v>86.94855676869301</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.4800254024868146</c:v>
+                  <c:v>-37.30310005368545</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.555624617170388</c:v>
+                  <c:v>-0.3284479046747665</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.748201720611311</c:v>
+                  <c:v>6.780629768068934</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.409272495611002</c:v>
+                  <c:v>-3.059806073101453</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.03821105837885601</c:v>
+                  <c:v>2.316618477710922</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.8870895187031208</c:v>
+                  <c:v>-2.141622429455608</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.4240108615043727</c:v>
+                  <c:v>0.1089785726900991</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.456450766061734</c:v>
+                  <c:v>1.169847307438827</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.405503310423084</c:v>
+                  <c:v>-0.5507988234304362</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.7376463130148195</c:v>
+                  <c:v>-0.3003305671455526</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.5639391647687262</c:v>
+                  <c:v>-0.2600739583363658</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.387462443350355</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.614526046236905</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.848888404475002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.076223305731219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -706,7 +778,7 @@
         <c:axId val="50010001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="708.16"/>
+          <c:max val="709.9310344827586"/>
           <c:min val="400.0"/>
         </c:scaling>
         <c:axPos val="b"/>
@@ -833,76 +905,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -917,76 +1001,88 @@
                   <c:v>0.6488072754826097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4685439505245996</c:v>
+                  <c:v>0.4836261842232625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4323417470105326</c:v>
+                  <c:v>0.433912363048977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4438556820016037</c:v>
+                  <c:v>0.4371590005388447</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4720921843983164</c:v>
+                  <c:v>0.4536786138644991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5277901238656847</c:v>
+                  <c:v>0.4857089560560119</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.594724019097997</c:v>
+                  <c:v>0.5399433583199311</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6449324202361191</c:v>
+                  <c:v>0.5968085287446645</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6613473930764241</c:v>
+                  <c:v>0.6409739383538768</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.648418445300732</c:v>
+                  <c:v>0.6603969728454476</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6144280726547425</c:v>
+                  <c:v>0.656369119660582</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5684174800162075</c:v>
+                  <c:v>0.6336288777920694</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5105583394059047</c:v>
+                  <c:v>0.6002081492694924</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4459103537252172</c:v>
+                  <c:v>0.5573658298424419</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.3773762149194356</c:v>
+                  <c:v>0.5061622085520199</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.3092924421616493</c:v>
+                  <c:v>0.4504891815312507</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.2576846727301093</c:v>
+                  <c:v>0.3916332498816081</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.2330462420812781</c:v>
+                  <c:v>0.331995758186787</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.222447961922059</c:v>
+                  <c:v>0.2791577959575708</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2152531051395715</c:v>
+                  <c:v>0.2456767133265219</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2128851662848669</c:v>
+                  <c:v>0.2295959100539562</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2218279355076964</c:v>
+                  <c:v>0.2216700740107626</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2364256274874956</c:v>
+                  <c:v>0.2154552146564634</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2501100583442569</c:v>
+                  <c:v>0.2126263669137347</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.2555139384672083</c:v>
+                  <c:v>0.2181236931590732</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.2297575306542324</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.2424462515990427</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.2529223248783806</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.2550519406371464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1019,76 +1115,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,76 +1211,88 @@
                   <c:v>0.1812759934117287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1046122689234193</c:v>
+                  <c:v>0.1102712428534143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08775914635177288</c:v>
+                  <c:v>0.09022454808647479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08395021349775375</c:v>
+                  <c:v>0.08529196102647434</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.08116853337867512</c:v>
+                  <c:v>0.0826631577024603</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.07946604154885499</c:v>
+                  <c:v>0.08040254195626614</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.08074638398336077</c:v>
+                  <c:v>0.07937911652316165</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0928341855855076</c:v>
+                  <c:v>0.0809266573428026</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1373979084129121</c:v>
+                  <c:v>0.09059486974076238</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1934685867543067</c:v>
+                  <c:v>0.1244229517347237</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2861796296181994</c:v>
+                  <c:v>0.1708548100379352</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4168699239877078</c:v>
+                  <c:v>0.2313145519783628</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5287502002802529</c:v>
+                  <c:v>0.3289724187085986</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.597969732491908</c:v>
+                  <c:v>0.4437131957002896</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.6425868122779325</c:v>
+                  <c:v>0.5346657683483582</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.6702296206876757</c:v>
+                  <c:v>0.5941405887239699</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.6842234466868482</c:v>
+                  <c:v>0.634722834924806</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.6916016566279234</c:v>
+                  <c:v>0.6623860889001103</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.6967465415949592</c:v>
+                  <c:v>0.6786223532521146</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.7006732347934385</c:v>
+                  <c:v>0.687779384118285</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.7043023877767057</c:v>
+                  <c:v>0.692825210277342</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.7081283806910793</c:v>
+                  <c:v>0.6972123300625016</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.7102565102783217</c:v>
+                  <c:v>0.7005443590147651</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.7125736259310903</c:v>
+                  <c:v>0.70359971283094</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.7161217584863073</c:v>
+                  <c:v>0.7070257412533274</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.7092415692754758</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.7110446033794676</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7134973406565585</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.7166292664040352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,76 +1325,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1289,76 +1421,88 @@
                   <c:v>0.52336277605762</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3861691698626604</c:v>
+                  <c:v>0.3977429084552024</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3659059735018432</c:v>
+                  <c:v>0.3631828674428763</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.393817799059601</c:v>
+                  <c:v>0.3780407272355512</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4337427993928161</c:v>
+                  <c:v>0.4120818989508809</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4825898171590876</c:v>
+                  <c:v>0.4465344789510544</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5219933462009281</c:v>
+                  <c:v>0.4920289442647967</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5184855637794091</c:v>
+                  <c:v>0.5225108665509659</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4754216449216259</c:v>
+                  <c:v>0.5206443674215392</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4066817987842468</c:v>
+                  <c:v>0.4885491320037286</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3247017594129571</c:v>
+                  <c:v>0.4351579013856426</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2495333300966107</c:v>
+                  <c:v>0.3671594943767274</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1835483892801249</c:v>
+                  <c:v>0.2979183012750103</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1346642340606418</c:v>
+                  <c:v>0.234955311646188</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1070300231327412</c:v>
+                  <c:v>0.1794710062535088</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.09244604629325689</c:v>
+                  <c:v>0.1373306506045846</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.08264677554818069</c:v>
+                  <c:v>0.1113482968825039</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.07867000310160636</c:v>
+                  <c:v>0.09668856309867506</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.07762321074360291</c:v>
+                  <c:v>0.08669900939315567</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0778621048355574</c:v>
+                  <c:v>0.08050160924423874</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.08002804152437942</c:v>
+                  <c:v>0.07824224650919104</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.08177422894255207</c:v>
+                  <c:v>0.07756326703734664</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.08051625507301026</c:v>
+                  <c:v>0.07781703688165786</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.07802693839047203</c:v>
+                  <c:v>0.07953646925137782</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.07642358541052743</c:v>
+                  <c:v>0.08147500438900929</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.08129970317421722</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.07964378306725876</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.07726070013124046</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.07651755831028773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,76 +1535,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1475,76 +1631,88 @@
                   <c:v>0.08445097131253371</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04892800860591436</c:v>
+                  <c:v>0.05140048426666819</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04245977086799079</c:v>
+                  <c:v>0.04316754423788054</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.04079608234195384</c:v>
+                  <c:v>0.04150894848517924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.03962487960973968</c:v>
+                  <c:v>0.04031083896491174</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.03867543793368514</c:v>
+                  <c:v>0.03932286425588973</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.03770601981870382</c:v>
+                  <c:v>0.03856859019036014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.03681597910016357</c:v>
+                  <c:v>0.03767285983405179</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.03618181880431212</c:v>
+                  <c:v>0.03692044789460243</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.03550723031069651</c:v>
+                  <c:v>0.03631827480461192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0350934344294276</c:v>
+                  <c:v>0.03582311305564943</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.03461593430206435</c:v>
+                  <c:v>0.03525161513306131</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.03438202692245384</c:v>
+                  <c:v>0.03492632766727299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.03420677440951865</c:v>
+                  <c:v>0.03456917024470684</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.03400281247620346</c:v>
+                  <c:v>0.03437230188115294</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.03395295573129334</c:v>
+                  <c:v>0.03421287912964857</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.03382257191139167</c:v>
+                  <c:v>0.03403374764953616</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.03369751051523048</c:v>
+                  <c:v>0.03398370438085965</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.03361278445281578</c:v>
+                  <c:v>0.03383356896503505</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.03358519467191981</c:v>
+                  <c:v>0.0338051780631094</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0335499422345955</c:v>
+                  <c:v>0.0336467043970011</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.03353158045284264</c:v>
+                  <c:v>0.03361598196387484</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.03338262835808414</c:v>
+                  <c:v>0.03358752169479824</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.03324976729012255</c:v>
+                  <c:v>0.03354985720462542</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.03324015398572081</c:v>
+                  <c:v>0.03352986162164977</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.03333778224310477</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.03331235183421512</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0333212475060476</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.03323135059533184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1577,76 +1745,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1661,76 +1841,88 @@
                   <c:v>0.7926826586955555</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6262508908608899</c:v>
+                  <c:v>0.6433414316925303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.570688790040585</c:v>
+                  <c:v>0.5784551407357679</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.552024647218466</c:v>
+                  <c:v>0.559597641501221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5288166151804854</c:v>
+                  <c:v>0.542720167634571</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4973840258549687</c:v>
+                  <c:v>0.5199570776628221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4562614657426493</c:v>
+                  <c:v>0.49107116263563</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4029766225725901</c:v>
+                  <c:v>0.4545542196103041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3518336657806266</c:v>
+                  <c:v>0.4086218670882047</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2998211672714612</c:v>
+                  <c:v>0.363735709864337</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2565085525569364</c:v>
+                  <c:v>0.3202660023477218</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2416543903502961</c:v>
+                  <c:v>0.275068367369688</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2293230465776907</c:v>
+                  <c:v>0.2490898834921528</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2096237815474969</c:v>
+                  <c:v>0.2400041932580209</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2108701707447131</c:v>
+                  <c:v>0.2278640662342851</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2353059590529074</c:v>
+                  <c:v>0.2106059492377263</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.259508127276315</c:v>
+                  <c:v>0.2083049584113127</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.2630158366988096</c:v>
+                  <c:v>0.2256639189563411</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2679812590423069</c:v>
+                  <c:v>0.2492430774193015</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2999837965153988</c:v>
+                  <c:v>0.2639226607631229</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.3451531155082759</c:v>
+                  <c:v>0.2621054664168495</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3725090388537519</c:v>
+                  <c:v>0.2701162868622436</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.3715850342947475</c:v>
+                  <c:v>0.2984623824254187</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3667828436162879</c:v>
+                  <c:v>0.3376326448232513</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.3740569873121176</c:v>
+                  <c:v>0.3671760999863073</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.3745251830038276</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.368508486340733</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.3676757152775491</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.3755829611793172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1763,76 +1955,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1847,76 +2051,88 @@
                   <c:v>0.1857473692317587</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1103895157872606</c:v>
+                  <c:v>0.1154973630626184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.09709742165502827</c:v>
+                  <c:v>0.09844769765724484</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.097380895791529</c:v>
+                  <c:v>0.09661279200295217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1022604466283135</c:v>
+                  <c:v>0.09899702608284171</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1135753604867409</c:v>
+                  <c:v>0.1048924524843795</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1360549055504654</c:v>
+                  <c:v>0.1165285642971999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.187673190116929</c:v>
+                  <c:v>0.1372077442424991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3262848470190031</c:v>
+                  <c:v>0.180049377385174</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4975854969306405</c:v>
+                  <c:v>0.2841048477115053</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5925051710679035</c:v>
+                  <c:v>0.4384962445328017</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.6112098007717001</c:v>
+                  <c:v>0.5550039308428346</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5976267934911961</c:v>
+                  <c:v>0.6055738698261773</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5731569912741171</c:v>
+                  <c:v>0.6099067038137368</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5252655234404918</c:v>
+                  <c:v>0.5962204128408001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4466116332602698</c:v>
+                  <c:v>0.5752790566283292</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3738243021287979</c:v>
+                  <c:v>0.5378732759727781</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3384420282310752</c:v>
+                  <c:v>0.4755486855025844</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.32488141515091</c:v>
+                  <c:v>0.4049981013796207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.3158280642136861</c:v>
+                  <c:v>0.3563581441708585</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.3156977258402178</c:v>
+                  <c:v>0.3338526696689709</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3355200035425461</c:v>
+                  <c:v>0.3239144368680855</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.3625078840778043</c:v>
+                  <c:v>0.3160652809158436</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3879098121048203</c:v>
+                  <c:v>0.3143710145064194</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.4001497106037067</c:v>
+                  <c:v>0.3278044772533403</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.3505789282393492</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.3732273701457334</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.3937811926280281</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.3997211119290937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1949,76 +2165,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2033,76 +2261,88 @@
                   <c:v>0.7460003364130889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5518091488263303</c:v>
+                  <c:v>0.5714995030155481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.482148199530851</c:v>
+                  <c:v>0.4949194845006381</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4321674493512073</c:v>
+                  <c:v>0.4539740425561438</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3753739416579606</c:v>
+                  <c:v>0.4070350720533851</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3208400192927348</c:v>
+                  <c:v>0.3575000484331676</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.269787235954207</c:v>
+                  <c:v>0.3121615685036539</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2194791152799857</c:v>
+                  <c:v>0.2679515191088304</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1863167860377807</c:v>
+                  <c:v>0.2241346863128662</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1542740272365249</c:v>
+                  <c:v>0.1929975326771534</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1193611649094793</c:v>
+                  <c:v>0.168107226839963</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1097416536572284</c:v>
+                  <c:v>0.1353978585176561</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1139286327945258</c:v>
+                  <c:v>0.1127564236022901</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1139296966353181</c:v>
+                  <c:v>0.1106247244909602</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.150351967699638</c:v>
+                  <c:v>0.1138273311912104</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2607424459350037</c:v>
+                  <c:v>0.1134430320916622</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.417198169396282</c:v>
+                  <c:v>0.1374392633882852</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5581816706544865</c:v>
+                  <c:v>0.2150885340029981</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.6582470835246668</c:v>
+                  <c:v>0.3392650593876624</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.7524278346655889</c:v>
+                  <c:v>0.476203062406334</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.8437349972876644</c:v>
+                  <c:v>0.5850331750210593</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9015191875150884</c:v>
+                  <c:v>0.6676953674012786</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9284034811146669</c:v>
+                  <c:v>0.7490510395674966</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9448833115460862</c:v>
+                  <c:v>0.8295110066912351</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9600450715451473</c:v>
+                  <c:v>0.8873812784995528</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.918949059399263</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9352702202923382</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9493032713831853</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9618576204220279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2135,76 +2375,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2219,76 +2471,88 @@
                   <c:v>0.2254365122118938</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1365580745944328</c:v>
+                  <c:v>0.142991828535854</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1202546724087258</c:v>
+                  <c:v>0.1220609292824616</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.118491819427888</c:v>
+                  <c:v>0.1186760515713694</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1166413922364662</c:v>
+                  <c:v>0.1179489052155074</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1127088089629129</c:v>
+                  <c:v>0.1154844083100627</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1091525722162794</c:v>
+                  <c:v>0.1120737292394997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1064298170062736</c:v>
+                  <c:v>0.1090272050443507</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1048560212571006</c:v>
+                  <c:v>0.1066555581697512</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1038282674885511</c:v>
+                  <c:v>0.1051635799105222</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1028038393138512</c:v>
+                  <c:v>0.1042165546324404</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1018493775132656</c:v>
+                  <c:v>0.1032907585385538</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1010017579231176</c:v>
+                  <c:v>0.1025226932664542</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1008188834551415</c:v>
+                  <c:v>0.1016260433456757</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1003917287740532</c:v>
+                  <c:v>0.1009752238896286</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.09968030066265364</c:v>
+                  <c:v>0.1008221860197903</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.09832213639395039</c:v>
+                  <c:v>0.1004952295337361</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.09692846586963315</c:v>
+                  <c:v>0.09995823776033591</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0955842094597342</c:v>
+                  <c:v>0.09900588499846398</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.09434977850036035</c:v>
+                  <c:v>0.09788132617630492</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.09322211862432218</c:v>
+                  <c:v>0.09652444782484612</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.09206322827196926</c:v>
+                  <c:v>0.09546978382979569</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.09064290869122366</c:v>
+                  <c:v>0.09438913350602181</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.08946503636153487</c:v>
+                  <c:v>0.09340712379069155</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0887139127717404</c:v>
+                  <c:v>0.09247624253795919</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.09122973536299633</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.09008651938416547</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0892558243488467</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.08861941255231773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2321,76 +2585,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2405,76 +2681,88 @@
                   <c:v>0.1351093209802211</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0784686687823811</c:v>
+                  <c:v>0.08227924759382131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06757486669410752</c:v>
+                  <c:v>0.06877579990714797</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0655625810500359</c:v>
+                  <c:v>0.06606641600469529</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.06591287591031271</c:v>
+                  <c:v>0.0653233473213624</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.07194541327170055</c:v>
+                  <c:v>0.06689455979096558</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.08659274527794905</c:v>
+                  <c:v>0.07396625768007138</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.09740532167693769</c:v>
+                  <c:v>0.08710948255498112</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1036085206870841</c:v>
+                  <c:v>0.09668151649918327</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1269024840120741</c:v>
+                  <c:v>0.1015654328221022</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1752523473983584</c:v>
+                  <c:v>0.1143284088259576</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1898102564697663</c:v>
+                  <c:v>0.1501289529412725</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1743683866037493</c:v>
+                  <c:v>0.1860956410338229</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1536989380430493</c:v>
+                  <c:v>0.1879952861832158</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1378376734465215</c:v>
+                  <c:v>0.1729122306366735</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1251000530482836</c:v>
+                  <c:v>0.1550307946754842</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1134790825020595</c:v>
+                  <c:v>0.1406366429231444</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1079064197470687</c:v>
+                  <c:v>0.1294639558698136</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.107799339288184</c:v>
+                  <c:v>0.1185666121567523</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.108644930134664</c:v>
+                  <c:v>0.1105742053493396</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.109562169465182</c:v>
+                  <c:v>0.1075096089376557</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1115038085548583</c:v>
+                  <c:v>0.1079069511919867</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1124150565327673</c:v>
+                  <c:v>0.1086264352014778</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1133837005190606</c:v>
+                  <c:v>0.1092928415169297</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1155216329555275</c:v>
+                  <c:v>0.1109694819259291</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1121221380668559</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1125674632694513</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1140465932955809</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.115676030454951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2507,76 +2795,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2591,76 +2891,88 @@
                   <c:v>0.3116904921886903</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2087992307403293</c:v>
+                  <c:v>0.2164654136577344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.190455338504125</c:v>
+                  <c:v>0.1921547450188882</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1841940222904618</c:v>
+                  <c:v>0.1875333312520875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1699415992344246</c:v>
+                  <c:v>0.1789660569044411</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1499480830035335</c:v>
+                  <c:v>0.1640592507340186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.125136679037743</c:v>
+                  <c:v>0.1462702104913565</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.09460399035092201</c:v>
+                  <c:v>0.1240912595709007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.07431980977605138</c:v>
+                  <c:v>0.09757513203775336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.06039360301892283</c:v>
+                  <c:v>0.07820026968085597</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.05013270891023185</c:v>
+                  <c:v>0.06562810710629122</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.04819595498266541</c:v>
+                  <c:v>0.05440305169254119</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.04912284618086885</c:v>
+                  <c:v>0.04864924518106012</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.04956206251966189</c:v>
+                  <c:v>0.04843165791144265</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.05836750086395711</c:v>
+                  <c:v>0.04910505573037892</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0811036626389848</c:v>
+                  <c:v>0.04939156944895554</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.09960378907893255</c:v>
+                  <c:v>0.0554941090002343</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.09324484188540408</c:v>
+                  <c:v>0.07203414208539141</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.09139527210113672</c:v>
+                  <c:v>0.09349155310942205</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1144743655352528</c:v>
+                  <c:v>0.09966826838422509</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1581749323691811</c:v>
+                  <c:v>0.0907877337867104</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2036677421806396</c:v>
+                  <c:v>0.09260146068632323</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2416039232869702</c:v>
+                  <c:v>0.1131884482571901</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2724822429910248</c:v>
+                  <c:v>0.1499534736974015</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.2952625346374641</c:v>
+                  <c:v>0.1902328884838146</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.225668008034199</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.2550926508572841</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.2798189416728593</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.2974343684393765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2693,76 +3005,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2777,76 +3101,88 @@
                   <c:v>0.1567331305278308</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09311602610729811</c:v>
+                  <c:v>0.09750588726980502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08104445902082762</c:v>
+                  <c:v>0.08236938841690693</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08054393058138408</c:v>
+                  <c:v>0.08055288646250283</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.08145249392765631</c:v>
+                  <c:v>0.08070499545201491</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.08501095460739692</c:v>
+                  <c:v>0.08207194561992071</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.09344620583865594</c:v>
+                  <c:v>0.08598624984219287</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1197527675488112</c:v>
+                  <c:v>0.09393777239139782</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2378380066265688</c:v>
+                  <c:v>0.1152940838227698</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4460049822405305</c:v>
+                  <c:v>0.196135218565189</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6165784746063054</c:v>
+                  <c:v>0.3671200641099551</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.7090840817790416</c:v>
+                  <c:v>0.5367894024216554</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.7481868945570838</c:v>
+                  <c:v>0.6574678886156998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.7678292072407618</c:v>
+                  <c:v>0.7202431738106558</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.7787678302873372</c:v>
+                  <c:v>0.7499539332620846</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.7838388245257166</c:v>
+                  <c:v>0.7668155969913641</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.7811795473576992</c:v>
+                  <c:v>0.7769755616998175</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.773203635035614</c:v>
+                  <c:v>0.7826337874925429</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.7766653597510929</c:v>
+                  <c:v>0.7837418477749171</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.77758810753935</c:v>
+                  <c:v>0.7779575105088278</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.777262184793619</c:v>
+                  <c:v>0.7730257579763266</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.7812648025376341</c:v>
+                  <c:v>0.7770973024090589</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.7512661132405285</c:v>
+                  <c:v>0.7776836056074625</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.7678261153585093</c:v>
+                  <c:v>0.776593359143945</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8223903273377025</c:v>
+                  <c:v>0.7816175594025253</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.7682941017066875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.7464612318608134</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7849110264864811</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.827008147328341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2879,76 +3215,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2963,76 +3311,88 @@
                   <c:v>0.4234139884682217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2764657705736084</c:v>
+                  <c:v>0.2882110132196206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.245121789729718</c:v>
+                  <c:v>0.2485120200234849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2425555509101393</c:v>
+                  <c:v>0.2427311053091019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2400694058053233</c:v>
+                  <c:v>0.2419111806131122</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2337520051646986</c:v>
+                  <c:v>0.2383492069187544</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2271726772197657</c:v>
+                  <c:v>0.2326352884679322</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2220211575013454</c:v>
+                  <c:v>0.2269687323596433</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2191634182833755</c:v>
+                  <c:v>0.2224702404911057</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2173057639377863</c:v>
+                  <c:v>0.2197168841213226</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2154640044096854</c:v>
+                  <c:v>0.2179409901635223</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2138659579843078</c:v>
+                  <c:v>0.2163107186496846</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2128810287882874</c:v>
+                  <c:v>0.2150182554671277</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2133220872819948</c:v>
+                  <c:v>0.2135973401954024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2135426519942946</c:v>
+                  <c:v>0.2128758416891165</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2126906405851678</c:v>
+                  <c:v>0.2132750142079516</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.2099982634920664</c:v>
+                  <c:v>0.2135470139921831</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.2071657841917004</c:v>
+                  <c:v>0.2131236545835766</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2044632999204866</c:v>
+                  <c:v>0.2114486307201605</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2020223161457034</c:v>
+                  <c:v>0.2090033511760878</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1998622986568856</c:v>
+                  <c:v>0.2064143998783051</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1974108005894847</c:v>
+                  <c:v>0.2042111619900742</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1940727823597639</c:v>
+                  <c:v>0.2020977259333946</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1910656905457834</c:v>
+                  <c:v>0.2002190223736972</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1886396271230781</c:v>
+                  <c:v>0.1982590632797222</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1956234170804786</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.19280526698893</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1903653165832957</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1883523277676379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3065,76 +3425,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3149,76 +3521,88 @@
                   <c:v>0.5952998138327824</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4356228735139015</c:v>
+                  <c:v>0.4497221625899032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3985353436011195</c:v>
+                  <c:v>0.4011497352919932</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3975866951837677</c:v>
+                  <c:v>0.3967110414652088</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3929534321422301</c:v>
+                  <c:v>0.3970632748245276</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3788587128498926</c:v>
+                  <c:v>0.3893723474823959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3578986423823703</c:v>
+                  <c:v>0.3756813469014833</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3259226292371704</c:v>
+                  <c:v>0.3569527676832457</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.291283206790285</c:v>
+                  <c:v>0.3295580033917476</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2571807772247179</c:v>
+                  <c:v>0.2993293809054893</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2264533808719952</c:v>
+                  <c:v>0.2705118109213836</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2102391018823024</c:v>
+                  <c:v>0.240414326569526</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1935723024428119</c:v>
+                  <c:v>0.2198747332064029</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.172475426537515</c:v>
+                  <c:v>0.207427106802072</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1607327757375961</c:v>
+                  <c:v>0.1920352543115816</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1571760307572394</c:v>
+                  <c:v>0.1737269753048946</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1499553537622536</c:v>
+                  <c:v>0.1622373948013321</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1423886768566398</c:v>
+                  <c:v>0.1582815142735336</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1400002218337876</c:v>
+                  <c:v>0.1540415078477616</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.14562318747179</c:v>
+                  <c:v>0.1467583813808251</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.157083110144318</c:v>
+                  <c:v>0.1411077633963921</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1640629074065657</c:v>
+                  <c:v>0.1401787650266421</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.160415052017845</c:v>
+                  <c:v>0.1452738463384014</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1517140581896468</c:v>
+                  <c:v>0.1549876019398029</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1439415707977572</c:v>
+                  <c:v>0.1631153250549798</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1628889463678354</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1573755810039856</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1489113511672729</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.14359765908318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3251,76 +3635,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3335,76 +3731,88 @@
                   <c:v>0.3830970805101689</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2230788965479373</c:v>
+                  <c:v>0.2354017638390526</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1833134273638597</c:v>
+                  <c:v>0.1893032738139603</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.170138411616997</c:v>
+                  <c:v>0.1747246044751687</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1606655032282085</c:v>
+                  <c:v>0.165826671787772</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1505978814576907</c:v>
+                  <c:v>0.1577396753241325</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1402662629194932</c:v>
+                  <c:v>0.1487567753280821</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1309206119030956</c:v>
+                  <c:v>0.1399217967218309</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1227961090341548</c:v>
+                  <c:v>0.1318040792163376</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1138428478433568</c:v>
+                  <c:v>0.1248803109938272</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1081311042708425</c:v>
+                  <c:v>0.1172600936273743</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1074791293953237</c:v>
+                  <c:v>0.1101851851467414</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1079800548324523</c:v>
+                  <c:v>0.1075919799681623</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.112085412644381</c:v>
+                  <c:v>0.1075038112960637</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1616452672146133</c:v>
+                  <c:v>0.1080540270340287</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.3209195460160733</c:v>
+                  <c:v>0.111318589123963</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5039801317987715</c:v>
+                  <c:v>0.1432858830804099</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.6113757881596968</c:v>
+                  <c:v>0.256383275175331</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.6527813166628044</c:v>
+                  <c:v>0.4212562166518096</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.6636675483115069</c:v>
+                  <c:v>0.5554130510133817</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.6658525494788141</c:v>
+                  <c:v>0.6259123973182401</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.6659106520911736</c:v>
+                  <c:v>0.6547990432289571</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.6638379782401594</c:v>
+                  <c:v>0.6635167358742022</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.6618013319525217</c:v>
+                  <c:v>0.6655952461984872</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.6612824146258011</c:v>
+                  <c:v>0.6660470405088619</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.6645926255458244</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.6628410231811712</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.6615697617872957</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.6612084259509354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3437,76 +3845,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3521,76 +3941,88 @@
                   <c:v>0.1081875483902182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.06382933678833112</c:v>
+                  <c:v>0.06681965162025258</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05551261276675242</c:v>
+                  <c:v>0.05639657927546832</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.05458970076415379</c:v>
+                  <c:v>0.05486858700705653</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05425005436844002</c:v>
+                  <c:v>0.05429707448414402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0562238212471421</c:v>
+                  <c:v>0.05457023071561616</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.06008619840692023</c:v>
+                  <c:v>0.05694301007577819</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.059883395607591</c:v>
+                  <c:v>0.06014194695830081</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0575242425017237</c:v>
+                  <c:v>0.06007181132331817</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.05671034240964951</c:v>
+                  <c:v>0.05807623439887153</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.05785828768971259</c:v>
+                  <c:v>0.05673089323699037</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.05784333422721158</c:v>
+                  <c:v>0.057157440206709</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.05948636921992204</c:v>
+                  <c:v>0.05805406314289325</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.06936536860909598</c:v>
+                  <c:v>0.05784214745802294</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.08747563826284591</c:v>
+                  <c:v>0.05984492066406025</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1367305252278952</c:v>
+                  <c:v>0.06837102268245351</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.2690025403281924</c:v>
+                  <c:v>0.08299368685266649</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.4670961131880757</c:v>
+                  <c:v>0.112826261869383</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.619298434491655</c:v>
+                  <c:v>0.1927029038062972</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.6812862189086554</c:v>
+                  <c:v>0.3411873078965174</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.7034550825951941</c:v>
+                  <c:v>0.5125989145847836</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.7106852983820113</c:v>
+                  <c:v>0.6291819590082979</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.7170791023561807</c:v>
+                  <c:v>0.6801796979844394</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.7236062530729239</c:v>
+                  <c:v>0.7008229311863087</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.7288335190984719</c:v>
+                  <c:v>0.7092696020323311</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.7137011403945834</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.7200811082570003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7251350109510528</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.7294615185504824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3623,76 +4055,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3707,76 +4151,88 @@
                   <c:v>0.7145033249924913</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5341745384857109</c:v>
+                  <c:v>0.5509690639385013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4844386638635849</c:v>
+                  <c:v>0.4900766844474944</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4778943780351502</c:v>
+                  <c:v>0.4793296828358454</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4730208196259328</c:v>
+                  <c:v>0.4764130791363242</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4626852039690071</c:v>
+                  <c:v>0.4700996632153232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4516172150393023</c:v>
+                  <c:v>0.4607164335530546</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4424554267096747</c:v>
+                  <c:v>0.4512625649918907</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4365347582115235</c:v>
+                  <c:v>0.4432858634260169</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4322095222689682</c:v>
+                  <c:v>0.4377714456168584</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4278937500704265</c:v>
+                  <c:v>0.4338277586411438</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4240246284588073</c:v>
+                  <c:v>0.4298591534264157</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.4204210943769739</c:v>
+                  <c:v>0.4267270130202199</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4177870467497778</c:v>
+                  <c:v>0.4232102321983493</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.414800507862402</c:v>
+                  <c:v>0.4202110646446607</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4114038328645788</c:v>
+                  <c:v>0.4179609041357964</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.4068667125742453</c:v>
+                  <c:v>0.4153936131426697</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.4025653041600848</c:v>
+                  <c:v>0.412556877146541</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.3983503984506421</c:v>
+                  <c:v>0.4091456866805177</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.3944509760152904</c:v>
+                  <c:v>0.4053849168668538</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.3905691110550155</c:v>
+                  <c:v>0.4013798284327486</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3869259667555478</c:v>
+                  <c:v>0.3979740008090955</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.3822676082443071</c:v>
+                  <c:v>0.394585561862939</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3778332482492934</c:v>
+                  <c:v>0.3912166161995614</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.3749210898518254</c:v>
+                  <c:v>0.3881449583493483</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.3844020432810793</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.3803612722742231</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.3768329251409149</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.3745201200003891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3809,76 +4265,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3893,76 +4361,88 @@
                   <c:v>0.3839313939849524</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2497093762043111</c:v>
+                  <c:v>0.2600682218332699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2254315618171514</c:v>
+                  <c:v>0.2270930514913265</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2309748076838851</c:v>
+                  <c:v>0.2271189943563728</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2482646847662704</c:v>
+                  <c:v>0.2372884539047896</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2805083024132445</c:v>
+                  <c:v>0.2564349029320244</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3284119889283764</c:v>
+                  <c:v>0.2877198752681127</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3770372675838254</c:v>
+                  <c:v>0.330227493409975</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4007309902532086</c:v>
+                  <c:v>0.3726010756367711</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3699151208593314</c:v>
+                  <c:v>0.3987740654963364</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2986188178265894</c:v>
+                  <c:v>0.3898907150003615</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2755101754112462</c:v>
+                  <c:v>0.3343824793997006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2855993035393564</c:v>
+                  <c:v>0.2826443896967711</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2848178875836143</c:v>
+                  <c:v>0.2779247144871735</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.3583006868684646</c:v>
+                  <c:v>0.2851980318817906</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4834817548872505</c:v>
+                  <c:v>0.283562688267979</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5631682469896837</c:v>
+                  <c:v>0.3354313592756333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.6011787293758194</c:v>
+                  <c:v>0.4422706651650893</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.6272712219667582</c:v>
+                  <c:v>0.5319736611540173</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.6531457328322543</c:v>
+                  <c:v>0.5809147123688517</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.6847404283209602</c:v>
+                  <c:v>0.6077590915089384</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.7227898127522395</c:v>
+                  <c:v>0.6298506727438077</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.7623966101871245</c:v>
+                  <c:v>0.6521572592210062</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8045823626574784</c:v>
+                  <c:v>0.6787351830159465</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8412724177536893</c:v>
+                  <c:v>0.7106545043845905</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.7443756497933023</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.7796746595309769</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.8158857812025322</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.8452918428749513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3995,76 +4475,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4079,76 +4571,88 @@
                   <c:v>0.6168976896637373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4695115400128939</c:v>
+                  <c:v>0.4815129075203792</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4552823495274133</c:v>
+                  <c:v>0.4512421281057796</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.482404535987195</c:v>
+                  <c:v>0.4707471467215262</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4918818473380902</c:v>
+                  <c:v>0.4913045053646892</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4597761831091726</c:v>
+                  <c:v>0.4863515327553113</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3918102626911327</c:v>
+                  <c:v>0.4506152195338753</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3015041837292964</c:v>
+                  <c:v>0.3888306666655534</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22530424669374</c:v>
+                  <c:v>0.3108238689769044</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1705280631567393</c:v>
+                  <c:v>0.2414088913035132</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1335753366144754</c:v>
+                  <c:v>0.1893357093207346</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1140393559261186</c:v>
+                  <c:v>0.1498240546997647</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1014979099193979</c:v>
+                  <c:v>0.1255757132278619</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0927748192302576</c:v>
+                  <c:v>0.1110896498849089</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.08888346663171637</c:v>
+                  <c:v>0.1007652251001108</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0884543615631361</c:v>
+                  <c:v>0.09323288888332876</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.08845467421477932</c:v>
+                  <c:v>0.08928077884374438</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.08855576060713495</c:v>
+                  <c:v>0.08840651652235765</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.09156442935526493</c:v>
+                  <c:v>0.08852154482960721</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1005749878011828</c:v>
+                  <c:v>0.08846302333396852</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1160089319027709</c:v>
+                  <c:v>0.08881633600996824</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1389141125058763</c:v>
+                  <c:v>0.09220210699629587</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1733514795925935</c:v>
+                  <c:v>0.1001377393550767</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2244847195209155</c:v>
+                  <c:v>0.1128639153117118</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.2940181942507496</c:v>
+                  <c:v>0.1308389538055299</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1560173390566149</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1922487256499472</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.2420605200540103</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.3044659984893944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4181,76 +4685,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4265,76 +4781,88 @@
                   <c:v>0.1572455072800765</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0935985779805758</c:v>
+                  <c:v>0.09804807595087772</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08277796966111485</c:v>
+                  <c:v>0.0835279691657564</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08369089680800225</c:v>
+                  <c:v>0.08261882931806522</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0886439943963637</c:v>
+                  <c:v>0.08523747320229177</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1011550528825548</c:v>
+                  <c:v>0.09148213375200055</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1291186834271249</c:v>
+                  <c:v>0.1045123533153345</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1892919927289007</c:v>
+                  <c:v>0.1306332665667428</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2949744143363829</c:v>
+                  <c:v>0.181335724153028</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3884116398514347</c:v>
+                  <c:v>0.2665589277454743</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3910926047506786</c:v>
+                  <c:v>0.3625291590370339</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3582929449029189</c:v>
+                  <c:v>0.3985667253609504</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3089238925111869</c:v>
+                  <c:v>0.3818028214313076</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2539817613747851</c:v>
+                  <c:v>0.3495164720760366</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2082958274245059</c:v>
+                  <c:v>0.304914620711221</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1661105404849146</c:v>
+                  <c:v>0.2574517157039605</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1333534260995626</c:v>
+                  <c:v>0.2172454546275759</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1168661622124868</c:v>
+                  <c:v>0.1802504986864584</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.109634892361266</c:v>
+                  <c:v>0.1471136184767212</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1055264277165176</c:v>
+                  <c:v>0.1255250098616087</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1034872277390509</c:v>
+                  <c:v>0.1144589640351146</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1061717197604893</c:v>
+                  <c:v>0.1091559284532969</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1119803817979237</c:v>
+                  <c:v>0.1056462495974858</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1190847194103115</c:v>
+                  <c:v>0.1035286883154718</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1236608084531398</c:v>
+                  <c:v>0.1049240241825771</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1089571318909961</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1148679211414876</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1209545312579149</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1237080643333698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4367,76 +4895,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4451,76 +4991,88 @@
                   <c:v>0.9150937609709797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7881806260065471</c:v>
+                  <c:v>0.803595894831693</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7389595279085115</c:v>
+                  <c:v>0.7447060011379283</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7310331717055742</c:v>
+                  <c:v>0.7332155193687993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7254634905307636</c:v>
+                  <c:v>0.7289281199492452</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7157707838513423</c:v>
+                  <c:v>0.7225763115093432</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7046565167547308</c:v>
+                  <c:v>0.7137827495653587</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6942536035988165</c:v>
+                  <c:v>0.7042808878928634</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6871671087426254</c:v>
+                  <c:v>0.6951955462391481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6815124456853909</c:v>
+                  <c:v>0.6887746753361716</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.675692855829284</c:v>
+                  <c:v>0.6835762204085571</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.6710228607903798</c:v>
+                  <c:v>0.678478288594565</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.6669987168852678</c:v>
+                  <c:v>0.6740738421551542</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.6637322423974804</c:v>
+                  <c:v>0.6701148218313435</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.6600470920477383</c:v>
+                  <c:v>0.6667649295208632</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.6565693512144085</c:v>
+                  <c:v>0.6639809868564318</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.6526539069231106</c:v>
+                  <c:v>0.6608682051325411</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.649322699147114</c:v>
+                  <c:v>0.6576480751106806</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.6463981134736121</c:v>
+                  <c:v>0.6546099551744008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.6435132282221144</c:v>
+                  <c:v>0.6515559780300696</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.640926520472392</c:v>
+                  <c:v>0.6484323128566494</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.6389743417732776</c:v>
+                  <c:v>0.6461268555596561</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.6355546429880465</c:v>
+                  <c:v>0.6436077006411132</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.6323063594270154</c:v>
+                  <c:v>0.6412942166018362</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.6305479599344083</c:v>
+                  <c:v>0.6395991386602198</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.6371329293011101</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.6342423471084782</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.6316971851048533</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.6302960786379166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4553,76 +5105,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4637,76 +5201,88 @@
                   <c:v>0.1545171542961815</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09097568212137061</c:v>
+                  <c:v>0.09555119429093803</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.07790000453797477</c:v>
+                  <c:v>0.07941448274855945</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.07464998087303727</c:v>
+                  <c:v>0.07567843185366216</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.07316304982717231</c:v>
+                  <c:v>0.07397702797886239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.07414131202510285</c:v>
+                  <c:v>0.07318533556871454</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.07755797393157478</c:v>
+                  <c:v>0.07468610084390911</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.07906052448809951</c:v>
+                  <c:v>0.07764767912023228</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.07949674640216589</c:v>
+                  <c:v>0.07900984248128329</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.08181763349762909</c:v>
+                  <c:v>0.07937181351178148</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.08534079645615686</c:v>
+                  <c:v>0.08059304842677968</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.08738412053367794</c:v>
+                  <c:v>0.08364213992498225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.09233446347412458</c:v>
+                  <c:v>0.08606715307859374</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1050496469697881</c:v>
+                  <c:v>0.087975911788303</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1263769041088109</c:v>
+                  <c:v>0.09294565449103999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1464611408406017</c:v>
+                  <c:v>0.1038986686144127</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1545946545791693</c:v>
+                  <c:v>0.1215500491594059</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1593388147976424</c:v>
+                  <c:v>0.1405651510000448</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1701516416778579</c:v>
+                  <c:v>0.1518997972598197</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1837913971593523</c:v>
+                  <c:v>0.1561556675106101</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1939335526152698</c:v>
+                  <c:v>0.1612276296253115</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1949170298522238</c:v>
+                  <c:v>0.1715804637651007</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.185656489562535</c:v>
+                  <c:v>0.1833563945637737</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1800219119890771</c:v>
+                  <c:v>0.1926148354973122</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1852937545811668</c:v>
+                  <c:v>0.1958179399625416</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1903509789393157</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1820917604769464</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.180501043619834</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1864647889163495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4739,76 +5315,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4823,76 +5411,88 @@
                   <c:v>0.1071220618523021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.06423390409150365</c:v>
+                  <c:v>0.06699173659613723</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05820901030246763</c:v>
+                  <c:v>0.05842760982293536</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.05943214960679671</c:v>
+                  <c:v>0.05853615498512637</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.06216817651637731</c:v>
+                  <c:v>0.0603917687632078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.06926073654943421</c:v>
+                  <c:v>0.0636428928459377</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.08033588596237477</c:v>
+                  <c:v>0.07114467390892293</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.08543351130319993</c:v>
+                  <c:v>0.08062232980583715</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.09094415628653364</c:v>
+                  <c:v>0.08515891673054508</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1121265923820925</c:v>
+                  <c:v>0.08883695154103056</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1511684761446104</c:v>
+                  <c:v>0.1012055378364894</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1814419719759224</c:v>
+                  <c:v>0.1306439992065841</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2306762702627479</c:v>
+                  <c:v>0.1625448649246903</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3458161514362533</c:v>
+                  <c:v>0.1882869727190874</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5079956754375623</c:v>
+                  <c:v>0.2363652995970101</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.6190370390849779</c:v>
+                  <c:v>0.3357235366105427</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.6556344011775627</c:v>
+                  <c:v>0.4755256123243249</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.6593527847888848</c:v>
+                  <c:v>0.5901383085302938</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.6562749056662375</c:v>
+                  <c:v>0.644724745817568</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.6538102583896045</c:v>
+                  <c:v>0.6593605545127088</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.6545632004050352</c:v>
+                  <c:v>0.6585211015023882</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.6610027481017213</c:v>
+                  <c:v>0.655985310919276</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.6705940429536131</c:v>
+                  <c:v>0.6538455337975329</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.6836217841999797</c:v>
+                  <c:v>0.6540590250427155</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.6985931854361312</c:v>
+                  <c:v>0.6585287137536089</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.6657243006090199</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.675594705438564</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.687742118130502</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.7005131798891275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4925,76 +5525,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5009,76 +5621,88 @@
                   <c:v>0.3336891525270994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2676558293934719</c:v>
+                  <c:v>0.2717261458373787</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.277048681170129</c:v>
+                  <c:v>0.2689082817668405</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3152359271527244</c:v>
+                  <c:v>0.2979074561422892</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3402240562982976</c:v>
+                  <c:v>0.3319391588923543</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3217418075570678</c:v>
+                  <c:v>0.3383563759433782</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2707030237065057</c:v>
+                  <c:v>0.3155500740886374</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1965034246290727</c:v>
+                  <c:v>0.268244501704004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.137585966283826</c:v>
+                  <c:v>0.2040378606392418</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0906681375445758</c:v>
+                  <c:v>0.149959803600426</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.05825080447758364</c:v>
+                  <c:v>0.1077941664087899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.04777367763900309</c:v>
+                  <c:v>0.07175414733403651</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.04306302106209655</c:v>
+                  <c:v>0.05298383167985124</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0398481700844251</c:v>
+                  <c:v>0.04672494118674123</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.03948992692584799</c:v>
+                  <c:v>0.04274108323748102</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.03953217312366047</c:v>
+                  <c:v>0.03996621848295081</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.03925457130103115</c:v>
+                  <c:v>0.03945635013437857</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.03964882103427038</c:v>
+                  <c:v>0.03952585740983123</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.04102596508563991</c:v>
+                  <c:v>0.039345998910269</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.04329206110912055</c:v>
+                  <c:v>0.03930072866328011</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.04649386716036969</c:v>
+                  <c:v>0.03986102080386509</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.04828530693328217</c:v>
+                  <c:v>0.04122003985479814</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.04683592547636722</c:v>
+                  <c:v>0.04319307854088147</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.04613614780764209</c:v>
+                  <c:v>0.04590570291128013</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.04847641544693275</c:v>
+                  <c:v>0.04816817925128919</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.04766091812364931</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.04625729475475312</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.04642750556501661</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.04903557204070613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5111,76 +5735,88 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.84</c:v>
+                  <c:v>411.0689655172414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.68</c:v>
+                  <c:v>422.1379310344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438.52</c:v>
+                  <c:v>433.2068965517241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>451.36</c:v>
+                  <c:v>444.2758620689655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464.2</c:v>
+                  <c:v>455.3448275862069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477.04</c:v>
+                  <c:v>466.4137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>489.88</c:v>
+                  <c:v>477.4827586206897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>502.72</c:v>
+                  <c:v>488.551724137931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>515.5599999999999</c:v>
+                  <c:v>499.6206896551724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>528.4</c:v>
+                  <c:v>510.6896551724138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>541.24</c:v>
+                  <c:v>521.7586206896551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>554.0799999999999</c:v>
+                  <c:v>532.8275862068965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>566.92</c:v>
+                  <c:v>543.8965517241379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.76</c:v>
+                  <c:v>554.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>592.6</c:v>
+                  <c:v>566.0344827586207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>605.4400000000001</c:v>
+                  <c:v>577.1034482758621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>618.28</c:v>
+                  <c:v>588.1724137931035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>631.12</c:v>
+                  <c:v>599.2413793103449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>643.96</c:v>
+                  <c:v>610.3103448275862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>656.8</c:v>
+                  <c:v>621.3793103448276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>669.64</c:v>
+                  <c:v>632.448275862069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682.48</c:v>
+                  <c:v>643.5172413793103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>695.3199999999999</c:v>
+                  <c:v>654.5862068965517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>708.16</c:v>
+                  <c:v>665.655172413793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>687.7931034482758</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>698.8620689655172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>709.9310344827586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5264,6 +5900,18 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -5278,7 +5926,7 @@
         <c:axId val="50020001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="708.16"/>
+          <c:max val="709.9310344827586"/>
           <c:min val="400.0"/>
         </c:scaling>
         <c:axPos val="b"/>
@@ -5702,7 +6350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5732,349 +6380,405 @@
         <v>400</v>
       </c>
       <c r="B3">
-        <v>-363.327038317814</v>
+        <v>-450.0741052716385</v>
       </c>
       <c r="C3">
-        <v>-683.7251001263381</v>
+        <v>-813.4044870821181</v>
       </c>
       <c r="D3">
-        <v>-379.8025674046206</v>
+        <v>-509.3079486557242</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>412.84</v>
+        <v>411.0689655172414</v>
       </c>
       <c r="B4">
-        <v>65.75277967090516</v>
+        <v>61.40363137694298</v>
       </c>
       <c r="C4">
-        <v>124.6080251560893</v>
+        <v>121.8958207315589</v>
       </c>
       <c r="D4">
-        <v>68.61670588532886</v>
+        <v>81.07484389990917</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>425.68</v>
+        <v>422.1379310344827</v>
       </c>
       <c r="B5">
-        <v>-32.32306387308964</v>
+        <v>-5.565766174082915</v>
       </c>
       <c r="C5">
-        <v>-60.30614722800714</v>
+        <v>-16.30552361555676</v>
       </c>
       <c r="D5">
-        <v>-32.23807370886274</v>
+        <v>-11.4405347082159</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>438.52</v>
+        <v>433.2068965517241</v>
       </c>
       <c r="B6">
-        <v>20.79451530841157</v>
+        <v>-59.73230277885393</v>
       </c>
       <c r="C6">
-        <v>38.02229454491415</v>
+        <v>-81.06602421337986</v>
       </c>
       <c r="D6">
-        <v>19.44877785283403</v>
+        <v>-37.85389653517841</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>451.36</v>
+        <v>444.2758620689655</v>
       </c>
       <c r="B7">
-        <v>-1.61312506762994</v>
+        <v>154.8847187776801</v>
       </c>
       <c r="C7">
-        <v>-2.940117417563144</v>
+        <v>221.5489945590089</v>
       </c>
       <c r="D7">
-        <v>-0.5782061939730138</v>
+        <v>105.0830440226748</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>464.2</v>
+        <v>455.3448275862069</v>
       </c>
       <c r="B8">
-        <v>-11.7463040372929</v>
+        <v>-220.197130482534</v>
       </c>
       <c r="C8">
-        <v>-21.04774890973204</v>
+        <v>-322.3174083638867</v>
       </c>
       <c r="D8">
-        <v>-12.04398436272964</v>
+        <v>-155.8756231715172</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>477.04</v>
+        <v>466.4137931034483</v>
       </c>
       <c r="B9">
-        <v>11.1348969507975</v>
+        <v>269.2049111928638</v>
       </c>
       <c r="C9">
-        <v>19.87441414623451</v>
+        <v>398.0489577039866</v>
       </c>
       <c r="D9">
-        <v>11.0472491576753</v>
+        <v>195.2981092602163</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>489.88</v>
+        <v>477.4827586206897</v>
       </c>
       <c r="B10">
-        <v>-6.156225756995777</v>
+        <v>-271.1889112757951</v>
       </c>
       <c r="C10">
-        <v>-11.14062216633227</v>
+        <v>-397.8734238019941</v>
       </c>
       <c r="D10">
-        <v>-6.051469504117474</v>
+        <v>-193.6348389684311</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>502.72</v>
+        <v>488.551724137931</v>
       </c>
       <c r="B11">
-        <v>4.575759236185307</v>
+        <v>181.251796766346</v>
       </c>
       <c r="C11">
-        <v>8.567805106828864</v>
+        <v>260.4732360330484</v>
       </c>
       <c r="D11">
-        <v>4.622555424908695</v>
+        <v>123.5156257649636</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>515.5599999999999</v>
+        <v>499.6206896551724</v>
       </c>
       <c r="B12">
-        <v>-4.248111257944408</v>
+        <v>-61.64583092546064</v>
       </c>
       <c r="C12">
-        <v>-7.889874114853217</v>
+        <v>-75.14910325067868</v>
       </c>
       <c r="D12">
-        <v>-4.309815027198881</v>
+        <v>-30.03423343261161</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>528.4</v>
+        <v>510.6896551724138</v>
       </c>
       <c r="B13">
-        <v>4.312137176424557</v>
+        <v>-31.21622229971053</v>
       </c>
       <c r="C13">
-        <v>7.782328906391562</v>
+        <v>-76.74797179399685</v>
       </c>
       <c r="D13">
-        <v>4.250495625113364</v>
+        <v>-48.29371303747741</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>541.24</v>
+        <v>521.7586206896551</v>
       </c>
       <c r="B14">
-        <v>-4.041441658518585</v>
+        <v>80.66211832020038</v>
       </c>
       <c r="C14">
-        <v>-6.884960147544373</v>
+        <v>161.690740583449</v>
       </c>
       <c r="D14">
-        <v>-3.782512376564083</v>
+        <v>93.30385584298948</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>554.0799999999999</v>
+        <v>532.8275862068965</v>
       </c>
       <c r="B15">
-        <v>3.603050966673726</v>
+        <v>-91.19493646375345</v>
       </c>
       <c r="C15">
-        <v>5.698299519473196</v>
+        <v>-183.4546593417209</v>
       </c>
       <c r="D15">
-        <v>3.269651583937446</v>
+        <v>-106.6717512798453</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>566.92</v>
+        <v>543.8965517241379</v>
       </c>
       <c r="B16">
-        <v>-2.060516934834879</v>
+        <v>66.5213889059915</v>
       </c>
       <c r="C16">
-        <v>-2.68265257748876</v>
+        <v>143.4691281195248</v>
       </c>
       <c r="D16">
-        <v>-1.771212025147741</v>
+        <v>86.94855676869301</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>579.76</v>
+        <v>554.9655172413793</v>
       </c>
       <c r="B17">
-        <v>-0.111663218709537</v>
+        <v>-20.31124801662545</v>
       </c>
       <c r="C17">
-        <v>-1.361078204803232</v>
+        <v>-56.03983511524635</v>
       </c>
       <c r="D17">
-        <v>-0.4800254024868146</v>
+        <v>-37.30310005368545</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>592.6</v>
+        <v>566.0344827586207</v>
       </c>
       <c r="B18">
-        <v>1.043083605863323</v>
+        <v>-8.472481252968876</v>
       </c>
       <c r="C18">
-        <v>3.145358730033443</v>
+        <v>-5.334484152826574</v>
       </c>
       <c r="D18">
-        <v>1.555624617170388</v>
+        <v>-0.3284479046747665</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>605.4400000000001</v>
+        <v>577.1034482758621</v>
       </c>
       <c r="B19">
-        <v>-1.110941427057093</v>
+        <v>10.94907214586931</v>
       </c>
       <c r="C19">
-        <v>-3.30151873555414</v>
+        <v>14.19463279221907</v>
       </c>
       <c r="D19">
-        <v>-1.748201720611311</v>
+        <v>6.780629768068934</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>618.28</v>
+        <v>588.1724137931035</v>
       </c>
       <c r="B20">
-        <v>0.8940461639871738</v>
+        <v>-5.721856831662753</v>
       </c>
       <c r="C20">
-        <v>2.603114765525391</v>
+        <v>-6.495247949468189</v>
       </c>
       <c r="D20">
-        <v>1.409272495611002</v>
+        <v>-3.059806073101453</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>631.12</v>
+        <v>599.2413793103449</v>
       </c>
       <c r="B21">
-        <v>0.1290365082098336</v>
+        <v>3.919643244463522</v>
       </c>
       <c r="C21">
-        <v>-0.02870246322480668</v>
+        <v>4.459341485240657</v>
       </c>
       <c r="D21">
-        <v>0.03821105837885601</v>
+        <v>2.316618477710922</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>643.96</v>
+        <v>610.3103448275862</v>
       </c>
       <c r="B22">
-        <v>-0.7293678843070037</v>
+        <v>-3.190970121248073</v>
       </c>
       <c r="C22">
-        <v>-1.46980687587801</v>
+        <v>-4.101613718653129</v>
       </c>
       <c r="D22">
-        <v>-0.8870895187031208</v>
+        <v>-2.141622429455608</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>656.8</v>
+        <v>621.3793103448276</v>
       </c>
       <c r="B23">
-        <v>-0.0919826743243085</v>
+        <v>0.5851808754605222</v>
       </c>
       <c r="C23">
-        <v>-0.7784293619914654</v>
+        <v>0.5310162932766345</v>
       </c>
       <c r="D23">
-        <v>-0.4240108615043727</v>
+        <v>0.1089785726900991</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>669.64</v>
+        <v>632.448275862069</v>
       </c>
       <c r="B24">
-        <v>0.903796079862488</v>
+        <v>1.48137791643134</v>
       </c>
       <c r="C24">
-        <v>2.777365752362178</v>
+        <v>2.152907192772711</v>
       </c>
       <c r="D24">
-        <v>1.456450766061734</v>
+        <v>1.169847307438827</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>682.48</v>
+        <v>643.5172413793103</v>
       </c>
       <c r="B25">
-        <v>-0.5202415760480433</v>
+        <v>-1.385132180077759</v>
       </c>
       <c r="C25">
-        <v>-1.37903043522145</v>
+        <v>-1.558025896261189</v>
       </c>
       <c r="D25">
-        <v>-0.405503310423084</v>
+        <v>-0.5507988234304362</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>695.3199999999999</v>
+        <v>654.5862068965517</v>
       </c>
       <c r="B26">
-        <v>-0.1860200132682474</v>
+        <v>0.5050044965781794</v>
       </c>
       <c r="C26">
-        <v>-0.6055206702969567</v>
+        <v>0.1121230775101114</v>
       </c>
       <c r="D26">
-        <v>-0.7376463130148195</v>
+        <v>-0.3003305671455526</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>708.16</v>
+        <v>665.655172413793</v>
       </c>
       <c r="B27">
-        <v>0.2735890499766356</v>
+        <v>-0.7116564731989331</v>
       </c>
       <c r="C27">
-        <v>0.7286199772033797</v>
+        <v>-0.9577341062530603</v>
       </c>
       <c r="D27">
-        <v>0.5639391647687262</v>
+        <v>-0.2600739583363658</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>676.7241379310344</v>
+      </c>
+      <c r="B28">
+        <v>1.640915418231088</v>
+      </c>
+      <c r="C28">
+        <v>2.93060655247754</v>
+      </c>
+      <c r="D28">
+        <v>1.387462443350355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>687.7931034482758</v>
+      </c>
+      <c r="B29">
+        <v>-1.661706282100801</v>
+      </c>
+      <c r="C29">
+        <v>-3.238587187209161</v>
+      </c>
+      <c r="D29">
+        <v>-1.614526046236905</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>698.8620689655172</v>
+      </c>
+      <c r="B30">
+        <v>1.494617393973438</v>
+      </c>
+      <c r="C30">
+        <v>3.337138054103234</v>
+      </c>
+      <c r="D30">
+        <v>1.848888404475002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>709.9310344827586</v>
+      </c>
+      <c r="B31">
+        <v>-0.7747693226738193</v>
+      </c>
+      <c r="C31">
+        <v>-1.837777221333454</v>
+      </c>
+      <c r="D31">
+        <v>-1.076223305731219</v>
       </c>
     </row>
   </sheetData>
@@ -6085,7 +6789,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6252,76 +6956,76 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4">
-        <v>412.84</v>
+        <v>411.0689655172414</v>
       </c>
       <c r="B4">
-        <v>0.4685439505245996</v>
+        <v>0.4836261842232625</v>
       </c>
       <c r="C4">
-        <v>0.1046122689234193</v>
+        <v>0.1102712428534143</v>
       </c>
       <c r="D4">
-        <v>0.3861691698626604</v>
+        <v>0.3977429084552024</v>
       </c>
       <c r="E4">
-        <v>0.04892800860591436</v>
+        <v>0.05140048426666819</v>
       </c>
       <c r="F4">
-        <v>0.6262508908608899</v>
+        <v>0.6433414316925303</v>
       </c>
       <c r="G4">
-        <v>0.1103895157872606</v>
+        <v>0.1154973630626184</v>
       </c>
       <c r="H4">
-        <v>0.5518091488263303</v>
+        <v>0.5714995030155481</v>
       </c>
       <c r="I4">
-        <v>0.1365580745944328</v>
+        <v>0.142991828535854</v>
       </c>
       <c r="J4">
-        <v>0.0784686687823811</v>
+        <v>0.08227924759382131</v>
       </c>
       <c r="K4">
-        <v>0.2087992307403293</v>
+        <v>0.2164654136577344</v>
       </c>
       <c r="L4">
-        <v>0.09311602610729811</v>
+        <v>0.09750588726980502</v>
       </c>
       <c r="M4">
-        <v>0.2764657705736084</v>
+        <v>0.2882110132196206</v>
       </c>
       <c r="N4">
-        <v>0.4356228735139015</v>
+        <v>0.4497221625899032</v>
       </c>
       <c r="O4">
-        <v>0.2230788965479373</v>
+        <v>0.2354017638390526</v>
       </c>
       <c r="P4">
-        <v>0.06382933678833112</v>
+        <v>0.06681965162025258</v>
       </c>
       <c r="Q4">
-        <v>0.5341745384857109</v>
+        <v>0.5509690639385013</v>
       </c>
       <c r="R4">
-        <v>0.2497093762043111</v>
+        <v>0.2600682218332699</v>
       </c>
       <c r="S4">
-        <v>0.4695115400128939</v>
+        <v>0.4815129075203792</v>
       </c>
       <c r="T4">
-        <v>0.0935985779805758</v>
+        <v>0.09804807595087772</v>
       </c>
       <c r="U4">
-        <v>0.7881806260065471</v>
+        <v>0.803595894831693</v>
       </c>
       <c r="V4">
-        <v>0.09097568212137061</v>
+        <v>0.09555119429093803</v>
       </c>
       <c r="W4">
-        <v>0.06423390409150365</v>
+        <v>0.06699173659613723</v>
       </c>
       <c r="X4">
-        <v>0.2676558293934719</v>
+        <v>0.2717261458373787</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -6329,76 +7033,76 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5">
-        <v>425.68</v>
+        <v>422.1379310344827</v>
       </c>
       <c r="B5">
-        <v>0.4323417470105326</v>
+        <v>0.433912363048977</v>
       </c>
       <c r="C5">
-        <v>0.08775914635177288</v>
+        <v>0.09022454808647479</v>
       </c>
       <c r="D5">
-        <v>0.3659059735018432</v>
+        <v>0.3631828674428763</v>
       </c>
       <c r="E5">
-        <v>0.04245977086799079</v>
+        <v>0.04316754423788054</v>
       </c>
       <c r="F5">
-        <v>0.570688790040585</v>
+        <v>0.5784551407357679</v>
       </c>
       <c r="G5">
-        <v>0.09709742165502827</v>
+        <v>0.09844769765724484</v>
       </c>
       <c r="H5">
-        <v>0.482148199530851</v>
+        <v>0.4949194845006381</v>
       </c>
       <c r="I5">
-        <v>0.1202546724087258</v>
+        <v>0.1220609292824616</v>
       </c>
       <c r="J5">
-        <v>0.06757486669410752</v>
+        <v>0.06877579990714797</v>
       </c>
       <c r="K5">
-        <v>0.190455338504125</v>
+        <v>0.1921547450188882</v>
       </c>
       <c r="L5">
-        <v>0.08104445902082762</v>
+        <v>0.08236938841690693</v>
       </c>
       <c r="M5">
-        <v>0.245121789729718</v>
+        <v>0.2485120200234849</v>
       </c>
       <c r="N5">
-        <v>0.3985353436011195</v>
+        <v>0.4011497352919932</v>
       </c>
       <c r="O5">
-        <v>0.1833134273638597</v>
+        <v>0.1893032738139603</v>
       </c>
       <c r="P5">
-        <v>0.05551261276675242</v>
+        <v>0.05639657927546832</v>
       </c>
       <c r="Q5">
-        <v>0.4844386638635849</v>
+        <v>0.4900766844474944</v>
       </c>
       <c r="R5">
-        <v>0.2254315618171514</v>
+        <v>0.2270930514913265</v>
       </c>
       <c r="S5">
-        <v>0.4552823495274133</v>
+        <v>0.4512421281057796</v>
       </c>
       <c r="T5">
-        <v>0.08277796966111485</v>
+        <v>0.0835279691657564</v>
       </c>
       <c r="U5">
-        <v>0.7389595279085115</v>
+        <v>0.7447060011379283</v>
       </c>
       <c r="V5">
-        <v>0.07790000453797477</v>
+        <v>0.07941448274855945</v>
       </c>
       <c r="W5">
-        <v>0.05820901030246763</v>
+        <v>0.05842760982293536</v>
       </c>
       <c r="X5">
-        <v>0.277048681170129</v>
+        <v>0.2689082817668405</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -6406,76 +7110,76 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6">
-        <v>438.52</v>
+        <v>433.2068965517241</v>
       </c>
       <c r="B6">
-        <v>0.4438556820016037</v>
+        <v>0.4371590005388447</v>
       </c>
       <c r="C6">
-        <v>0.08395021349775375</v>
+        <v>0.08529196102647434</v>
       </c>
       <c r="D6">
-        <v>0.393817799059601</v>
+        <v>0.3780407272355512</v>
       </c>
       <c r="E6">
-        <v>0.04079608234195384</v>
+        <v>0.04150894848517924</v>
       </c>
       <c r="F6">
-        <v>0.552024647218466</v>
+        <v>0.559597641501221</v>
       </c>
       <c r="G6">
-        <v>0.097380895791529</v>
+        <v>0.09661279200295217</v>
       </c>
       <c r="H6">
-        <v>0.4321674493512073</v>
+        <v>0.4539740425561438</v>
       </c>
       <c r="I6">
-        <v>0.118491819427888</v>
+        <v>0.1186760515713694</v>
       </c>
       <c r="J6">
-        <v>0.0655625810500359</v>
+        <v>0.06606641600469529</v>
       </c>
       <c r="K6">
-        <v>0.1841940222904618</v>
+        <v>0.1875333312520875</v>
       </c>
       <c r="L6">
-        <v>0.08054393058138408</v>
+        <v>0.08055288646250283</v>
       </c>
       <c r="M6">
-        <v>0.2425555509101393</v>
+        <v>0.2427311053091019</v>
       </c>
       <c r="N6">
-        <v>0.3975866951837677</v>
+        <v>0.3967110414652088</v>
       </c>
       <c r="O6">
-        <v>0.170138411616997</v>
+        <v>0.1747246044751687</v>
       </c>
       <c r="P6">
-        <v>0.05458970076415379</v>
+        <v>0.05486858700705653</v>
       </c>
       <c r="Q6">
-        <v>0.4778943780351502</v>
+        <v>0.4793296828358454</v>
       </c>
       <c r="R6">
-        <v>0.2309748076838851</v>
+        <v>0.2271189943563728</v>
       </c>
       <c r="S6">
-        <v>0.482404535987195</v>
+        <v>0.4707471467215262</v>
       </c>
       <c r="T6">
-        <v>0.08369089680800225</v>
+        <v>0.08261882931806522</v>
       </c>
       <c r="U6">
-        <v>0.7310331717055742</v>
+        <v>0.7332155193687993</v>
       </c>
       <c r="V6">
-        <v>0.07464998087303727</v>
+        <v>0.07567843185366216</v>
       </c>
       <c r="W6">
-        <v>0.05943214960679671</v>
+        <v>0.05853615498512637</v>
       </c>
       <c r="X6">
-        <v>0.3152359271527244</v>
+        <v>0.2979074561422892</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -6483,76 +7187,76 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7">
-        <v>451.36</v>
+        <v>444.2758620689655</v>
       </c>
       <c r="B7">
-        <v>0.4720921843983164</v>
+        <v>0.4536786138644991</v>
       </c>
       <c r="C7">
-        <v>0.08116853337867512</v>
+        <v>0.0826631577024603</v>
       </c>
       <c r="D7">
-        <v>0.4337427993928161</v>
+        <v>0.4120818989508809</v>
       </c>
       <c r="E7">
-        <v>0.03962487960973968</v>
+        <v>0.04031083896491174</v>
       </c>
       <c r="F7">
-        <v>0.5288166151804854</v>
+        <v>0.542720167634571</v>
       </c>
       <c r="G7">
-        <v>0.1022604466283135</v>
+        <v>0.09899702608284171</v>
       </c>
       <c r="H7">
-        <v>0.3753739416579606</v>
+        <v>0.4070350720533851</v>
       </c>
       <c r="I7">
-        <v>0.1166413922364662</v>
+        <v>0.1179489052155074</v>
       </c>
       <c r="J7">
-        <v>0.06591287591031271</v>
+        <v>0.0653233473213624</v>
       </c>
       <c r="K7">
-        <v>0.1699415992344246</v>
+        <v>0.1789660569044411</v>
       </c>
       <c r="L7">
-        <v>0.08145249392765631</v>
+        <v>0.08070499545201491</v>
       </c>
       <c r="M7">
-        <v>0.2400694058053233</v>
+        <v>0.2419111806131122</v>
       </c>
       <c r="N7">
-        <v>0.3929534321422301</v>
+        <v>0.3970632748245276</v>
       </c>
       <c r="O7">
-        <v>0.1606655032282085</v>
+        <v>0.165826671787772</v>
       </c>
       <c r="P7">
-        <v>0.05425005436844002</v>
+        <v>0.05429707448414402</v>
       </c>
       <c r="Q7">
-        <v>0.4730208196259328</v>
+        <v>0.4764130791363242</v>
       </c>
       <c r="R7">
-        <v>0.2482646847662704</v>
+        <v>0.2372884539047896</v>
       </c>
       <c r="S7">
-        <v>0.4918818473380902</v>
+        <v>0.4913045053646892</v>
       </c>
       <c r="T7">
-        <v>0.0886439943963637</v>
+        <v>0.08523747320229177</v>
       </c>
       <c r="U7">
-        <v>0.7254634905307636</v>
+        <v>0.7289281199492452</v>
       </c>
       <c r="V7">
-        <v>0.07316304982717231</v>
+        <v>0.07397702797886239</v>
       </c>
       <c r="W7">
-        <v>0.06216817651637731</v>
+        <v>0.0603917687632078</v>
       </c>
       <c r="X7">
-        <v>0.3402240562982976</v>
+        <v>0.3319391588923543</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -6560,76 +7264,76 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8">
-        <v>464.2</v>
+        <v>455.3448275862069</v>
       </c>
       <c r="B8">
-        <v>0.5277901238656847</v>
+        <v>0.4857089560560119</v>
       </c>
       <c r="C8">
-        <v>0.07946604154885499</v>
+        <v>0.08040254195626614</v>
       </c>
       <c r="D8">
-        <v>0.4825898171590876</v>
+        <v>0.4465344789510544</v>
       </c>
       <c r="E8">
-        <v>0.03867543793368514</v>
+        <v>0.03932286425588973</v>
       </c>
       <c r="F8">
-        <v>0.4973840258549687</v>
+        <v>0.5199570776628221</v>
       </c>
       <c r="G8">
-        <v>0.1135753604867409</v>
+        <v>0.1048924524843795</v>
       </c>
       <c r="H8">
-        <v>0.3208400192927348</v>
+        <v>0.3575000484331676</v>
       </c>
       <c r="I8">
-        <v>0.1127088089629129</v>
+        <v>0.1154844083100627</v>
       </c>
       <c r="J8">
-        <v>0.07194541327170055</v>
+        <v>0.06689455979096558</v>
       </c>
       <c r="K8">
-        <v>0.1499480830035335</v>
+        <v>0.1640592507340186</v>
       </c>
       <c r="L8">
-        <v>0.08501095460739692</v>
+        <v>0.08207194561992071</v>
       </c>
       <c r="M8">
-        <v>0.2337520051646986</v>
+        <v>0.2383492069187544</v>
       </c>
       <c r="N8">
-        <v>0.3788587128498926</v>
+        <v>0.3893723474823959</v>
       </c>
       <c r="O8">
-        <v>0.1505978814576907</v>
+        <v>0.1577396753241325</v>
       </c>
       <c r="P8">
-        <v>0.0562238212471421</v>
+        <v>0.05457023071561616</v>
       </c>
       <c r="Q8">
-        <v>0.4626852039690071</v>
+        <v>0.4700996632153232</v>
       </c>
       <c r="R8">
-        <v>0.2805083024132445</v>
+        <v>0.2564349029320244</v>
       </c>
       <c r="S8">
-        <v>0.4597761831091726</v>
+        <v>0.4863515327553113</v>
       </c>
       <c r="T8">
-        <v>0.1011550528825548</v>
+        <v>0.09148213375200055</v>
       </c>
       <c r="U8">
-        <v>0.7157707838513423</v>
+        <v>0.7225763115093432</v>
       </c>
       <c r="V8">
-        <v>0.07414131202510285</v>
+        <v>0.07318533556871454</v>
       </c>
       <c r="W8">
-        <v>0.06926073654943421</v>
+        <v>0.0636428928459377</v>
       </c>
       <c r="X8">
-        <v>0.3217418075570678</v>
+        <v>0.3383563759433782</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -6637,76 +7341,76 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9">
-        <v>477.04</v>
+        <v>466.4137931034483</v>
       </c>
       <c r="B9">
-        <v>0.594724019097997</v>
+        <v>0.5399433583199311</v>
       </c>
       <c r="C9">
-        <v>0.08074638398336077</v>
+        <v>0.07937911652316165</v>
       </c>
       <c r="D9">
-        <v>0.5219933462009281</v>
+        <v>0.4920289442647967</v>
       </c>
       <c r="E9">
-        <v>0.03770601981870382</v>
+        <v>0.03856859019036014</v>
       </c>
       <c r="F9">
-        <v>0.4562614657426493</v>
+        <v>0.49107116263563</v>
       </c>
       <c r="G9">
-        <v>0.1360549055504654</v>
+        <v>0.1165285642971999</v>
       </c>
       <c r="H9">
-        <v>0.269787235954207</v>
+        <v>0.3121615685036539</v>
       </c>
       <c r="I9">
-        <v>0.1091525722162794</v>
+        <v>0.1120737292394997</v>
       </c>
       <c r="J9">
-        <v>0.08659274527794905</v>
+        <v>0.07396625768007138</v>
       </c>
       <c r="K9">
-        <v>0.125136679037743</v>
+        <v>0.1462702104913565</v>
       </c>
       <c r="L9">
-        <v>0.09344620583865594</v>
+        <v>0.08598624984219287</v>
       </c>
       <c r="M9">
-        <v>0.2271726772197657</v>
+        <v>0.2326352884679322</v>
       </c>
       <c r="N9">
-        <v>0.3578986423823703</v>
+        <v>0.3756813469014833</v>
       </c>
       <c r="O9">
-        <v>0.1402662629194932</v>
+        <v>0.1487567753280821</v>
       </c>
       <c r="P9">
-        <v>0.06008619840692023</v>
+        <v>0.05694301007577819</v>
       </c>
       <c r="Q9">
-        <v>0.4516172150393023</v>
+        <v>0.4607164335530546</v>
       </c>
       <c r="R9">
-        <v>0.3284119889283764</v>
+        <v>0.2877198752681127</v>
       </c>
       <c r="S9">
-        <v>0.3918102626911327</v>
+        <v>0.4506152195338753</v>
       </c>
       <c r="T9">
-        <v>0.1291186834271249</v>
+        <v>0.1045123533153345</v>
       </c>
       <c r="U9">
-        <v>0.7046565167547308</v>
+        <v>0.7137827495653587</v>
       </c>
       <c r="V9">
-        <v>0.07755797393157478</v>
+        <v>0.07468610084390911</v>
       </c>
       <c r="W9">
-        <v>0.08033588596237477</v>
+        <v>0.07114467390892293</v>
       </c>
       <c r="X9">
-        <v>0.2707030237065057</v>
+        <v>0.3155500740886374</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -6714,76 +7418,76 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10">
-        <v>489.88</v>
+        <v>477.4827586206897</v>
       </c>
       <c r="B10">
-        <v>0.6449324202361191</v>
+        <v>0.5968085287446645</v>
       </c>
       <c r="C10">
-        <v>0.0928341855855076</v>
+        <v>0.0809266573428026</v>
       </c>
       <c r="D10">
-        <v>0.5184855637794091</v>
+        <v>0.5225108665509659</v>
       </c>
       <c r="E10">
-        <v>0.03681597910016357</v>
+        <v>0.03767285983405179</v>
       </c>
       <c r="F10">
-        <v>0.4029766225725901</v>
+        <v>0.4545542196103041</v>
       </c>
       <c r="G10">
-        <v>0.187673190116929</v>
+        <v>0.1372077442424991</v>
       </c>
       <c r="H10">
-        <v>0.2194791152799857</v>
+        <v>0.2679515191088304</v>
       </c>
       <c r="I10">
-        <v>0.1064298170062736</v>
+        <v>0.1090272050443507</v>
       </c>
       <c r="J10">
-        <v>0.09740532167693769</v>
+        <v>0.08710948255498112</v>
       </c>
       <c r="K10">
-        <v>0.09460399035092201</v>
+        <v>0.1240912595709007</v>
       </c>
       <c r="L10">
-        <v>0.1197527675488112</v>
+        <v>0.09393777239139782</v>
       </c>
       <c r="M10">
-        <v>0.2220211575013454</v>
+        <v>0.2269687323596433</v>
       </c>
       <c r="N10">
-        <v>0.3259226292371704</v>
+        <v>0.3569527676832457</v>
       </c>
       <c r="O10">
-        <v>0.1309206119030956</v>
+        <v>0.1399217967218309</v>
       </c>
       <c r="P10">
-        <v>0.059883395607591</v>
+        <v>0.06014194695830081</v>
       </c>
       <c r="Q10">
-        <v>0.4424554267096747</v>
+        <v>0.4512625649918907</v>
       </c>
       <c r="R10">
-        <v>0.3770372675838254</v>
+        <v>0.330227493409975</v>
       </c>
       <c r="S10">
-        <v>0.3015041837292964</v>
+        <v>0.3888306666655534</v>
       </c>
       <c r="T10">
-        <v>0.1892919927289007</v>
+        <v>0.1306332665667428</v>
       </c>
       <c r="U10">
-        <v>0.6942536035988165</v>
+        <v>0.7042808878928634</v>
       </c>
       <c r="V10">
-        <v>0.07906052448809951</v>
+        <v>0.07764767912023228</v>
       </c>
       <c r="W10">
-        <v>0.08543351130319993</v>
+        <v>0.08062232980583715</v>
       </c>
       <c r="X10">
-        <v>0.1965034246290727</v>
+        <v>0.268244501704004</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -6791,76 +7495,76 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11">
-        <v>502.72</v>
+        <v>488.551724137931</v>
       </c>
       <c r="B11">
-        <v>0.6613473930764241</v>
+        <v>0.6409739383538768</v>
       </c>
       <c r="C11">
-        <v>0.1373979084129121</v>
+        <v>0.09059486974076238</v>
       </c>
       <c r="D11">
-        <v>0.4754216449216259</v>
+        <v>0.5206443674215392</v>
       </c>
       <c r="E11">
-        <v>0.03618181880431212</v>
+        <v>0.03692044789460243</v>
       </c>
       <c r="F11">
-        <v>0.3518336657806266</v>
+        <v>0.4086218670882047</v>
       </c>
       <c r="G11">
-        <v>0.3262848470190031</v>
+        <v>0.180049377385174</v>
       </c>
       <c r="H11">
-        <v>0.1863167860377807</v>
+        <v>0.2241346863128662</v>
       </c>
       <c r="I11">
-        <v>0.1048560212571006</v>
+        <v>0.1066555581697512</v>
       </c>
       <c r="J11">
-        <v>0.1036085206870841</v>
+        <v>0.09668151649918327</v>
       </c>
       <c r="K11">
-        <v>0.07431980977605138</v>
+        <v>0.09757513203775336</v>
       </c>
       <c r="L11">
-        <v>0.2378380066265688</v>
+        <v>0.1152940838227698</v>
       </c>
       <c r="M11">
-        <v>0.2191634182833755</v>
+        <v>0.2224702404911057</v>
       </c>
       <c r="N11">
-        <v>0.291283206790285</v>
+        <v>0.3295580033917476</v>
       </c>
       <c r="O11">
-        <v>0.1227961090341548</v>
+        <v>0.1318040792163376</v>
       </c>
       <c r="P11">
-        <v>0.0575242425017237</v>
+        <v>0.06007181132331817</v>
       </c>
       <c r="Q11">
-        <v>0.4365347582115235</v>
+        <v>0.4432858634260169</v>
       </c>
       <c r="R11">
-        <v>0.4007309902532086</v>
+        <v>0.3726010756367711</v>
       </c>
       <c r="S11">
-        <v>0.22530424669374</v>
+        <v>0.3108238689769044</v>
       </c>
       <c r="T11">
-        <v>0.2949744143363829</v>
+        <v>0.181335724153028</v>
       </c>
       <c r="U11">
-        <v>0.6871671087426254</v>
+        <v>0.6951955462391481</v>
       </c>
       <c r="V11">
-        <v>0.07949674640216589</v>
+        <v>0.07900984248128329</v>
       </c>
       <c r="W11">
-        <v>0.09094415628653364</v>
+        <v>0.08515891673054508</v>
       </c>
       <c r="X11">
-        <v>0.137585966283826</v>
+        <v>0.2040378606392418</v>
       </c>
       <c r="Y11">
         <v>1</v>
@@ -6868,76 +7572,76 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12">
-        <v>515.5599999999999</v>
+        <v>499.6206896551724</v>
       </c>
       <c r="B12">
-        <v>0.648418445300732</v>
+        <v>0.6603969728454476</v>
       </c>
       <c r="C12">
-        <v>0.1934685867543067</v>
+        <v>0.1244229517347237</v>
       </c>
       <c r="D12">
-        <v>0.4066817987842468</v>
+        <v>0.4885491320037286</v>
       </c>
       <c r="E12">
-        <v>0.03550723031069651</v>
+        <v>0.03631827480461192</v>
       </c>
       <c r="F12">
-        <v>0.2998211672714612</v>
+        <v>0.363735709864337</v>
       </c>
       <c r="G12">
-        <v>0.4975854969306405</v>
+        <v>0.2841048477115053</v>
       </c>
       <c r="H12">
-        <v>0.1542740272365249</v>
+        <v>0.1929975326771534</v>
       </c>
       <c r="I12">
-        <v>0.1038282674885511</v>
+        <v>0.1051635799105222</v>
       </c>
       <c r="J12">
-        <v>0.1269024840120741</v>
+        <v>0.1015654328221022</v>
       </c>
       <c r="K12">
-        <v>0.06039360301892283</v>
+        <v>0.07820026968085597</v>
       </c>
       <c r="L12">
-        <v>0.4460049822405305</v>
+        <v>0.196135218565189</v>
       </c>
       <c r="M12">
-        <v>0.2173057639377863</v>
+        <v>0.2197168841213226</v>
       </c>
       <c r="N12">
-        <v>0.2571807772247179</v>
+        <v>0.2993293809054893</v>
       </c>
       <c r="O12">
-        <v>0.1138428478433568</v>
+        <v>0.1248803109938272</v>
       </c>
       <c r="P12">
-        <v>0.05671034240964951</v>
+        <v>0.05807623439887153</v>
       </c>
       <c r="Q12">
-        <v>0.4322095222689682</v>
+        <v>0.4377714456168584</v>
       </c>
       <c r="R12">
-        <v>0.3699151208593314</v>
+        <v>0.3987740654963364</v>
       </c>
       <c r="S12">
-        <v>0.1705280631567393</v>
+        <v>0.2414088913035132</v>
       </c>
       <c r="T12">
-        <v>0.3884116398514347</v>
+        <v>0.2665589277454743</v>
       </c>
       <c r="U12">
-        <v>0.6815124456853909</v>
+        <v>0.6887746753361716</v>
       </c>
       <c r="V12">
-        <v>0.08181763349762909</v>
+        <v>0.07937181351178148</v>
       </c>
       <c r="W12">
-        <v>0.1121265923820925</v>
+        <v>0.08883695154103056</v>
       </c>
       <c r="X12">
-        <v>0.0906681375445758</v>
+        <v>0.149959803600426</v>
       </c>
       <c r="Y12">
         <v>1</v>
@@ -6945,76 +7649,76 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13">
-        <v>528.4</v>
+        <v>510.6896551724138</v>
       </c>
       <c r="B13">
-        <v>0.6144280726547425</v>
+        <v>0.656369119660582</v>
       </c>
       <c r="C13">
-        <v>0.2861796296181994</v>
+        <v>0.1708548100379352</v>
       </c>
       <c r="D13">
-        <v>0.3247017594129571</v>
+        <v>0.4351579013856426</v>
       </c>
       <c r="E13">
-        <v>0.0350934344294276</v>
+        <v>0.03582311305564943</v>
       </c>
       <c r="F13">
-        <v>0.2565085525569364</v>
+        <v>0.3202660023477218</v>
       </c>
       <c r="G13">
-        <v>0.5925051710679035</v>
+        <v>0.4384962445328017</v>
       </c>
       <c r="H13">
-        <v>0.1193611649094793</v>
+        <v>0.168107226839963</v>
       </c>
       <c r="I13">
-        <v>0.1028038393138512</v>
+        <v>0.1042165546324404</v>
       </c>
       <c r="J13">
-        <v>0.1752523473983584</v>
+        <v>0.1143284088259576</v>
       </c>
       <c r="K13">
-        <v>0.05013270891023185</v>
+        <v>0.06562810710629122</v>
       </c>
       <c r="L13">
-        <v>0.6165784746063054</v>
+        <v>0.3671200641099551</v>
       </c>
       <c r="M13">
-        <v>0.2154640044096854</v>
+        <v>0.2179409901635223</v>
       </c>
       <c r="N13">
-        <v>0.2264533808719952</v>
+        <v>0.2705118109213836</v>
       </c>
       <c r="O13">
-        <v>0.1081311042708425</v>
+        <v>0.1172600936273743</v>
       </c>
       <c r="P13">
-        <v>0.05785828768971259</v>
+        <v>0.05673089323699037</v>
       </c>
       <c r="Q13">
-        <v>0.4278937500704265</v>
+        <v>0.4338277586411438</v>
       </c>
       <c r="R13">
-        <v>0.2986188178265894</v>
+        <v>0.3898907150003615</v>
       </c>
       <c r="S13">
-        <v>0.1335753366144754</v>
+        <v>0.1893357093207346</v>
       </c>
       <c r="T13">
-        <v>0.3910926047506786</v>
+        <v>0.3625291590370339</v>
       </c>
       <c r="U13">
-        <v>0.675692855829284</v>
+        <v>0.6835762204085571</v>
       </c>
       <c r="V13">
-        <v>0.08534079645615686</v>
+        <v>0.08059304842677968</v>
       </c>
       <c r="W13">
-        <v>0.1511684761446104</v>
+        <v>0.1012055378364894</v>
       </c>
       <c r="X13">
-        <v>0.05825080447758364</v>
+        <v>0.1077941664087899</v>
       </c>
       <c r="Y13">
         <v>1</v>
@@ -7022,76 +7726,76 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14">
-        <v>541.24</v>
+        <v>521.7586206896551</v>
       </c>
       <c r="B14">
-        <v>0.5684174800162075</v>
+        <v>0.6336288777920694</v>
       </c>
       <c r="C14">
-        <v>0.4168699239877078</v>
+        <v>0.2313145519783628</v>
       </c>
       <c r="D14">
-        <v>0.2495333300966107</v>
+        <v>0.3671594943767274</v>
       </c>
       <c r="E14">
-        <v>0.03461593430206435</v>
+        <v>0.03525161513306131</v>
       </c>
       <c r="F14">
-        <v>0.2416543903502961</v>
+        <v>0.275068367369688</v>
       </c>
       <c r="G14">
-        <v>0.6112098007717001</v>
+        <v>0.5550039308428346</v>
       </c>
       <c r="H14">
-        <v>0.1097416536572284</v>
+        <v>0.1353978585176561</v>
       </c>
       <c r="I14">
-        <v>0.1018493775132656</v>
+        <v>0.1032907585385538</v>
       </c>
       <c r="J14">
-        <v>0.1898102564697663</v>
+        <v>0.1501289529412725</v>
       </c>
       <c r="K14">
-        <v>0.04819595498266541</v>
+        <v>0.05440305169254119</v>
       </c>
       <c r="L14">
-        <v>0.7090840817790416</v>
+        <v>0.5367894024216554</v>
       </c>
       <c r="M14">
-        <v>0.2138659579843078</v>
+        <v>0.2163107186496846</v>
       </c>
       <c r="N14">
-        <v>0.2102391018823024</v>
+        <v>0.240414326569526</v>
       </c>
       <c r="O14">
-        <v>0.1074791293953237</v>
+        <v>0.1101851851467414</v>
       </c>
       <c r="P14">
-        <v>0.05784333422721158</v>
+        <v>0.057157440206709</v>
       </c>
       <c r="Q14">
-        <v>0.4240246284588073</v>
+        <v>0.4298591534264157</v>
       </c>
       <c r="R14">
-        <v>0.2755101754112462</v>
+        <v>0.3343824793997006</v>
       </c>
       <c r="S14">
-        <v>0.1140393559261186</v>
+        <v>0.1498240546997647</v>
       </c>
       <c r="T14">
-        <v>0.3582929449029189</v>
+        <v>0.3985667253609504</v>
       </c>
       <c r="U14">
-        <v>0.6710228607903798</v>
+        <v>0.678478288594565</v>
       </c>
       <c r="V14">
-        <v>0.08738412053367794</v>
+        <v>0.08364213992498225</v>
       </c>
       <c r="W14">
-        <v>0.1814419719759224</v>
+        <v>0.1306439992065841</v>
       </c>
       <c r="X14">
-        <v>0.04777367763900309</v>
+        <v>0.07175414733403651</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -7099,76 +7803,76 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15">
-        <v>554.0799999999999</v>
+        <v>532.8275862068965</v>
       </c>
       <c r="B15">
-        <v>0.5105583394059047</v>
+        <v>0.6002081492694924</v>
       </c>
       <c r="C15">
-        <v>0.5287502002802529</v>
+        <v>0.3289724187085986</v>
       </c>
       <c r="D15">
-        <v>0.1835483892801249</v>
+        <v>0.2979183012750103</v>
       </c>
       <c r="E15">
-        <v>0.03438202692245384</v>
+        <v>0.03492632766727299</v>
       </c>
       <c r="F15">
-        <v>0.2293230465776907</v>
+        <v>0.2490898834921528</v>
       </c>
       <c r="G15">
-        <v>0.5976267934911961</v>
+        <v>0.6055738698261773</v>
       </c>
       <c r="H15">
-        <v>0.1139286327945258</v>
+        <v>0.1127564236022901</v>
       </c>
       <c r="I15">
-        <v>0.1010017579231176</v>
+        <v>0.1025226932664542</v>
       </c>
       <c r="J15">
-        <v>0.1743683866037493</v>
+        <v>0.1860956410338229</v>
       </c>
       <c r="K15">
-        <v>0.04912284618086885</v>
+        <v>0.04864924518106012</v>
       </c>
       <c r="L15">
-        <v>0.7481868945570838</v>
+        <v>0.6574678886156998</v>
       </c>
       <c r="M15">
-        <v>0.2128810287882874</v>
+        <v>0.2150182554671277</v>
       </c>
       <c r="N15">
-        <v>0.1935723024428119</v>
+        <v>0.2198747332064029</v>
       </c>
       <c r="O15">
-        <v>0.1079800548324523</v>
+        <v>0.1075919799681623</v>
       </c>
       <c r="P15">
-        <v>0.05948636921992204</v>
+        <v>0.05805406314289325</v>
       </c>
       <c r="Q15">
-        <v>0.4204210943769739</v>
+        <v>0.4267270130202199</v>
       </c>
       <c r="R15">
-        <v>0.2855993035393564</v>
+        <v>0.2826443896967711</v>
       </c>
       <c r="S15">
-        <v>0.1014979099193979</v>
+        <v>0.1255757132278619</v>
       </c>
       <c r="T15">
-        <v>0.3089238925111869</v>
+        <v>0.3818028214313076</v>
       </c>
       <c r="U15">
-        <v>0.6669987168852678</v>
+        <v>0.6740738421551542</v>
       </c>
       <c r="V15">
-        <v>0.09233446347412458</v>
+        <v>0.08606715307859374</v>
       </c>
       <c r="W15">
-        <v>0.2306762702627479</v>
+        <v>0.1625448649246903</v>
       </c>
       <c r="X15">
-        <v>0.04306302106209655</v>
+        <v>0.05298383167985124</v>
       </c>
       <c r="Y15">
         <v>1</v>
@@ -7176,76 +7880,76 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16">
-        <v>566.92</v>
+        <v>543.8965517241379</v>
       </c>
       <c r="B16">
-        <v>0.4459103537252172</v>
+        <v>0.5573658298424419</v>
       </c>
       <c r="C16">
-        <v>0.597969732491908</v>
+        <v>0.4437131957002896</v>
       </c>
       <c r="D16">
-        <v>0.1346642340606418</v>
+        <v>0.234955311646188</v>
       </c>
       <c r="E16">
-        <v>0.03420677440951865</v>
+        <v>0.03456917024470684</v>
       </c>
       <c r="F16">
-        <v>0.2096237815474969</v>
+        <v>0.2400041932580209</v>
       </c>
       <c r="G16">
-        <v>0.5731569912741171</v>
+        <v>0.6099067038137368</v>
       </c>
       <c r="H16">
-        <v>0.1139296966353181</v>
+        <v>0.1106247244909602</v>
       </c>
       <c r="I16">
-        <v>0.1008188834551415</v>
+        <v>0.1016260433456757</v>
       </c>
       <c r="J16">
-        <v>0.1536989380430493</v>
+        <v>0.1879952861832158</v>
       </c>
       <c r="K16">
-        <v>0.04956206251966189</v>
+        <v>0.04843165791144265</v>
       </c>
       <c r="L16">
-        <v>0.7678292072407618</v>
+        <v>0.7202431738106558</v>
       </c>
       <c r="M16">
-        <v>0.2133220872819948</v>
+        <v>0.2135973401954024</v>
       </c>
       <c r="N16">
-        <v>0.172475426537515</v>
+        <v>0.207427106802072</v>
       </c>
       <c r="O16">
-        <v>0.112085412644381</v>
+        <v>0.1075038112960637</v>
       </c>
       <c r="P16">
-        <v>0.06936536860909598</v>
+        <v>0.05784214745802294</v>
       </c>
       <c r="Q16">
-        <v>0.4177870467497778</v>
+        <v>0.4232102321983493</v>
       </c>
       <c r="R16">
-        <v>0.2848178875836143</v>
+        <v>0.2779247144871735</v>
       </c>
       <c r="S16">
-        <v>0.0927748192302576</v>
+        <v>0.1110896498849089</v>
       </c>
       <c r="T16">
-        <v>0.2539817613747851</v>
+        <v>0.3495164720760366</v>
       </c>
       <c r="U16">
-        <v>0.6637322423974804</v>
+        <v>0.6701148218313435</v>
       </c>
       <c r="V16">
-        <v>0.1050496469697881</v>
+        <v>0.087975911788303</v>
       </c>
       <c r="W16">
-        <v>0.3458161514362533</v>
+        <v>0.1882869727190874</v>
       </c>
       <c r="X16">
-        <v>0.0398481700844251</v>
+        <v>0.04672494118674123</v>
       </c>
       <c r="Y16">
         <v>1</v>
@@ -7253,76 +7957,76 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17">
-        <v>579.76</v>
+        <v>554.9655172413793</v>
       </c>
       <c r="B17">
-        <v>0.3773762149194356</v>
+        <v>0.5061622085520199</v>
       </c>
       <c r="C17">
-        <v>0.6425868122779325</v>
+        <v>0.5346657683483582</v>
       </c>
       <c r="D17">
-        <v>0.1070300231327412</v>
+        <v>0.1794710062535088</v>
       </c>
       <c r="E17">
-        <v>0.03400281247620346</v>
+        <v>0.03437230188115294</v>
       </c>
       <c r="F17">
-        <v>0.2108701707447131</v>
+        <v>0.2278640662342851</v>
       </c>
       <c r="G17">
-        <v>0.5252655234404918</v>
+        <v>0.5962204128408001</v>
       </c>
       <c r="H17">
-        <v>0.150351967699638</v>
+        <v>0.1138273311912104</v>
       </c>
       <c r="I17">
-        <v>0.1003917287740532</v>
+        <v>0.1009752238896286</v>
       </c>
       <c r="J17">
-        <v>0.1378376734465215</v>
+        <v>0.1729122306366735</v>
       </c>
       <c r="K17">
-        <v>0.05836750086395711</v>
+        <v>0.04910505573037892</v>
       </c>
       <c r="L17">
-        <v>0.7787678302873372</v>
+        <v>0.7499539332620846</v>
       </c>
       <c r="M17">
-        <v>0.2135426519942946</v>
+        <v>0.2128758416891165</v>
       </c>
       <c r="N17">
-        <v>0.1607327757375961</v>
+        <v>0.1920352543115816</v>
       </c>
       <c r="O17">
-        <v>0.1616452672146133</v>
+        <v>0.1080540270340287</v>
       </c>
       <c r="P17">
-        <v>0.08747563826284591</v>
+        <v>0.05984492066406025</v>
       </c>
       <c r="Q17">
-        <v>0.414800507862402</v>
+        <v>0.4202110646446607</v>
       </c>
       <c r="R17">
-        <v>0.3583006868684646</v>
+        <v>0.2851980318817906</v>
       </c>
       <c r="S17">
-        <v>0.08888346663171637</v>
+        <v>0.1007652251001108</v>
       </c>
       <c r="T17">
-        <v>0.2082958274245059</v>
+        <v>0.304914620711221</v>
       </c>
       <c r="U17">
-        <v>0.6600470920477383</v>
+        <v>0.6667649295208632</v>
       </c>
       <c r="V17">
-        <v>0.1263769041088109</v>
+        <v>0.09294565449103999</v>
       </c>
       <c r="W17">
-        <v>0.5079956754375623</v>
+        <v>0.2363652995970101</v>
       </c>
       <c r="X17">
-        <v>0.03948992692584799</v>
+        <v>0.04274108323748102</v>
       </c>
       <c r="Y17">
         <v>1</v>
@@ -7330,76 +8034,76 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18">
-        <v>592.6</v>
+        <v>566.0344827586207</v>
       </c>
       <c r="B18">
-        <v>0.3092924421616493</v>
+        <v>0.4504891815312507</v>
       </c>
       <c r="C18">
-        <v>0.6702296206876757</v>
+        <v>0.5941405887239699</v>
       </c>
       <c r="D18">
-        <v>0.09244604629325689</v>
+        <v>0.1373306506045846</v>
       </c>
       <c r="E18">
-        <v>0.03395295573129334</v>
+        <v>0.03421287912964857</v>
       </c>
       <c r="F18">
-        <v>0.2353059590529074</v>
+        <v>0.2106059492377263</v>
       </c>
       <c r="G18">
-        <v>0.4466116332602698</v>
+        <v>0.5752790566283292</v>
       </c>
       <c r="H18">
-        <v>0.2607424459350037</v>
+        <v>0.1134430320916622</v>
       </c>
       <c r="I18">
-        <v>0.09968030066265364</v>
+        <v>0.1008221860197903</v>
       </c>
       <c r="J18">
-        <v>0.1251000530482836</v>
+        <v>0.1550307946754842</v>
       </c>
       <c r="K18">
-        <v>0.0811036626389848</v>
+        <v>0.04939156944895554</v>
       </c>
       <c r="L18">
-        <v>0.7838388245257166</v>
+        <v>0.7668155969913641</v>
       </c>
       <c r="M18">
-        <v>0.2126906405851678</v>
+        <v>0.2132750142079516</v>
       </c>
       <c r="N18">
-        <v>0.1571760307572394</v>
+        <v>0.1737269753048946</v>
       </c>
       <c r="O18">
-        <v>0.3209195460160733</v>
+        <v>0.111318589123963</v>
       </c>
       <c r="P18">
-        <v>0.1367305252278952</v>
+        <v>0.06837102268245351</v>
       </c>
       <c r="Q18">
-        <v>0.4114038328645788</v>
+        <v>0.4179609041357964</v>
       </c>
       <c r="R18">
-        <v>0.4834817548872505</v>
+        <v>0.283562688267979</v>
       </c>
       <c r="S18">
-        <v>0.0884543615631361</v>
+        <v>0.09323288888332876</v>
       </c>
       <c r="T18">
-        <v>0.1661105404849146</v>
+        <v>0.2574517157039605</v>
       </c>
       <c r="U18">
-        <v>0.6565693512144085</v>
+        <v>0.6639809868564318</v>
       </c>
       <c r="V18">
-        <v>0.1464611408406017</v>
+        <v>0.1038986686144127</v>
       </c>
       <c r="W18">
-        <v>0.6190370390849779</v>
+        <v>0.3357235366105427</v>
       </c>
       <c r="X18">
-        <v>0.03953217312366047</v>
+        <v>0.03996621848295081</v>
       </c>
       <c r="Y18">
         <v>1</v>
@@ -7407,76 +8111,76 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19">
-        <v>605.4400000000001</v>
+        <v>577.1034482758621</v>
       </c>
       <c r="B19">
-        <v>0.2576846727301093</v>
+        <v>0.3916332498816081</v>
       </c>
       <c r="C19">
-        <v>0.6842234466868482</v>
+        <v>0.634722834924806</v>
       </c>
       <c r="D19">
-        <v>0.08264677554818069</v>
+        <v>0.1113482968825039</v>
       </c>
       <c r="E19">
-        <v>0.03382257191139167</v>
+        <v>0.03403374764953616</v>
       </c>
       <c r="F19">
-        <v>0.259508127276315</v>
+        <v>0.2083049584113127</v>
       </c>
       <c r="G19">
-        <v>0.3738243021287979</v>
+        <v>0.5378732759727781</v>
       </c>
       <c r="H19">
-        <v>0.417198169396282</v>
+        <v>0.1374392633882852</v>
       </c>
       <c r="I19">
-        <v>0.09832213639395039</v>
+        <v>0.1004952295337361</v>
       </c>
       <c r="J19">
-        <v>0.1134790825020595</v>
+        <v>0.1406366429231444</v>
       </c>
       <c r="K19">
-        <v>0.09960378907893255</v>
+        <v>0.0554941090002343</v>
       </c>
       <c r="L19">
-        <v>0.7811795473576992</v>
+        <v>0.7769755616998175</v>
       </c>
       <c r="M19">
-        <v>0.2099982634920664</v>
+        <v>0.2135470139921831</v>
       </c>
       <c r="N19">
-        <v>0.1499553537622536</v>
+        <v>0.1622373948013321</v>
       </c>
       <c r="O19">
-        <v>0.5039801317987715</v>
+        <v>0.1432858830804099</v>
       </c>
       <c r="P19">
-        <v>0.2690025403281924</v>
+        <v>0.08299368685266649</v>
       </c>
       <c r="Q19">
-        <v>0.4068667125742453</v>
+        <v>0.4153936131426697</v>
       </c>
       <c r="R19">
-        <v>0.5631682469896837</v>
+        <v>0.3354313592756333</v>
       </c>
       <c r="S19">
-        <v>0.08845467421477932</v>
+        <v>0.08928077884374438</v>
       </c>
       <c r="T19">
-        <v>0.1333534260995626</v>
+        <v>0.2172454546275759</v>
       </c>
       <c r="U19">
-        <v>0.6526539069231106</v>
+        <v>0.6608682051325411</v>
       </c>
       <c r="V19">
-        <v>0.1545946545791693</v>
+        <v>0.1215500491594059</v>
       </c>
       <c r="W19">
-        <v>0.6556344011775627</v>
+        <v>0.4755256123243249</v>
       </c>
       <c r="X19">
-        <v>0.03925457130103115</v>
+        <v>0.03945635013437857</v>
       </c>
       <c r="Y19">
         <v>1</v>
@@ -7484,76 +8188,76 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20">
-        <v>618.28</v>
+        <v>588.1724137931035</v>
       </c>
       <c r="B20">
-        <v>0.2330462420812781</v>
+        <v>0.331995758186787</v>
       </c>
       <c r="C20">
-        <v>0.6916016566279234</v>
+        <v>0.6623860889001103</v>
       </c>
       <c r="D20">
-        <v>0.07867000310160636</v>
+        <v>0.09668856309867506</v>
       </c>
       <c r="E20">
-        <v>0.03369751051523048</v>
+        <v>0.03398370438085965</v>
       </c>
       <c r="F20">
-        <v>0.2630158366988096</v>
+        <v>0.2256639189563411</v>
       </c>
       <c r="G20">
-        <v>0.3384420282310752</v>
+        <v>0.4755486855025844</v>
       </c>
       <c r="H20">
-        <v>0.5581816706544865</v>
+        <v>0.2150885340029981</v>
       </c>
       <c r="I20">
-        <v>0.09692846586963315</v>
+        <v>0.09995823776033591</v>
       </c>
       <c r="J20">
-        <v>0.1079064197470687</v>
+        <v>0.1294639558698136</v>
       </c>
       <c r="K20">
-        <v>0.09324484188540408</v>
+        <v>0.07203414208539141</v>
       </c>
       <c r="L20">
-        <v>0.773203635035614</v>
+        <v>0.7826337874925429</v>
       </c>
       <c r="M20">
-        <v>0.2071657841917004</v>
+        <v>0.2131236545835766</v>
       </c>
       <c r="N20">
-        <v>0.1423886768566398</v>
+        <v>0.1582815142735336</v>
       </c>
       <c r="O20">
-        <v>0.6113757881596968</v>
+        <v>0.256383275175331</v>
       </c>
       <c r="P20">
-        <v>0.4670961131880757</v>
+        <v>0.112826261869383</v>
       </c>
       <c r="Q20">
-        <v>0.4025653041600848</v>
+        <v>0.412556877146541</v>
       </c>
       <c r="R20">
-        <v>0.6011787293758194</v>
+        <v>0.4422706651650893</v>
       </c>
       <c r="S20">
-        <v>0.08855576060713495</v>
+        <v>0.08840651652235765</v>
       </c>
       <c r="T20">
-        <v>0.1168661622124868</v>
+        <v>0.1802504986864584</v>
       </c>
       <c r="U20">
-        <v>0.649322699147114</v>
+        <v>0.6576480751106806</v>
       </c>
       <c r="V20">
-        <v>0.1593388147976424</v>
+        <v>0.1405651510000448</v>
       </c>
       <c r="W20">
-        <v>0.6593527847888848</v>
+        <v>0.5901383085302938</v>
       </c>
       <c r="X20">
-        <v>0.03964882103427038</v>
+        <v>0.03952585740983123</v>
       </c>
       <c r="Y20">
         <v>1</v>
@@ -7561,76 +8265,76 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21">
-        <v>631.12</v>
+        <v>599.2413793103449</v>
       </c>
       <c r="B21">
-        <v>0.222447961922059</v>
+        <v>0.2791577959575708</v>
       </c>
       <c r="C21">
-        <v>0.6967465415949592</v>
+        <v>0.6786223532521146</v>
       </c>
       <c r="D21">
-        <v>0.07762321074360291</v>
+        <v>0.08669900939315567</v>
       </c>
       <c r="E21">
-        <v>0.03361278445281578</v>
+        <v>0.03383356896503505</v>
       </c>
       <c r="F21">
-        <v>0.2679812590423069</v>
+        <v>0.2492430774193015</v>
       </c>
       <c r="G21">
-        <v>0.32488141515091</v>
+        <v>0.4049981013796207</v>
       </c>
       <c r="H21">
-        <v>0.6582470835246668</v>
+        <v>0.3392650593876624</v>
       </c>
       <c r="I21">
-        <v>0.0955842094597342</v>
+        <v>0.09900588499846398</v>
       </c>
       <c r="J21">
-        <v>0.107799339288184</v>
+        <v>0.1185666121567523</v>
       </c>
       <c r="K21">
-        <v>0.09139527210113672</v>
+        <v>0.09349155310942205</v>
       </c>
       <c r="L21">
-        <v>0.7766653597510929</v>
+        <v>0.7837418477749171</v>
       </c>
       <c r="M21">
-        <v>0.2044632999204866</v>
+        <v>0.2114486307201605</v>
       </c>
       <c r="N21">
-        <v>0.1400002218337876</v>
+        <v>0.1540415078477616</v>
       </c>
       <c r="O21">
-        <v>0.6527813166628044</v>
+        <v>0.4212562166518096</v>
       </c>
       <c r="P21">
-        <v>0.619298434491655</v>
+        <v>0.1927029038062972</v>
       </c>
       <c r="Q21">
-        <v>0.3983503984506421</v>
+        <v>0.4091456866805177</v>
       </c>
       <c r="R21">
-        <v>0.6272712219667582</v>
+        <v>0.5319736611540173</v>
       </c>
       <c r="S21">
-        <v>0.09156442935526493</v>
+        <v>0.08852154482960721</v>
       </c>
       <c r="T21">
-        <v>0.109634892361266</v>
+        <v>0.1471136184767212</v>
       </c>
       <c r="U21">
-        <v>0.6463981134736121</v>
+        <v>0.6546099551744008</v>
       </c>
       <c r="V21">
-        <v>0.1701516416778579</v>
+        <v>0.1518997972598197</v>
       </c>
       <c r="W21">
-        <v>0.6562749056662375</v>
+        <v>0.644724745817568</v>
       </c>
       <c r="X21">
-        <v>0.04102596508563991</v>
+        <v>0.039345998910269</v>
       </c>
       <c r="Y21">
         <v>1</v>
@@ -7638,76 +8342,76 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22">
-        <v>643.96</v>
+        <v>610.3103448275862</v>
       </c>
       <c r="B22">
-        <v>0.2152531051395715</v>
+        <v>0.2456767133265219</v>
       </c>
       <c r="C22">
-        <v>0.7006732347934385</v>
+        <v>0.687779384118285</v>
       </c>
       <c r="D22">
-        <v>0.0778621048355574</v>
+        <v>0.08050160924423874</v>
       </c>
       <c r="E22">
-        <v>0.03358519467191981</v>
+        <v>0.0338051780631094</v>
       </c>
       <c r="F22">
-        <v>0.2999837965153988</v>
+        <v>0.2639226607631229</v>
       </c>
       <c r="G22">
-        <v>0.3158280642136861</v>
+        <v>0.3563581441708585</v>
       </c>
       <c r="H22">
-        <v>0.7524278346655889</v>
+        <v>0.476203062406334</v>
       </c>
       <c r="I22">
-        <v>0.09434977850036035</v>
+        <v>0.09788132617630492</v>
       </c>
       <c r="J22">
-        <v>0.108644930134664</v>
+        <v>0.1105742053493396</v>
       </c>
       <c r="K22">
-        <v>0.1144743655352528</v>
+        <v>0.09966826838422509</v>
       </c>
       <c r="L22">
-        <v>0.77758810753935</v>
+        <v>0.7779575105088278</v>
       </c>
       <c r="M22">
-        <v>0.2020223161457034</v>
+        <v>0.2090033511760878</v>
       </c>
       <c r="N22">
-        <v>0.14562318747179</v>
+        <v>0.1467583813808251</v>
       </c>
       <c r="O22">
-        <v>0.6636675483115069</v>
+        <v>0.5554130510133817</v>
       </c>
       <c r="P22">
-        <v>0.6812862189086554</v>
+        <v>0.3411873078965174</v>
       </c>
       <c r="Q22">
-        <v>0.3944509760152904</v>
+        <v>0.4053849168668538</v>
       </c>
       <c r="R22">
-        <v>0.6531457328322543</v>
+        <v>0.5809147123688517</v>
       </c>
       <c r="S22">
-        <v>0.1005749878011828</v>
+        <v>0.08846302333396852</v>
       </c>
       <c r="T22">
-        <v>0.1055264277165176</v>
+        <v>0.1255250098616087</v>
       </c>
       <c r="U22">
-        <v>0.6435132282221144</v>
+        <v>0.6515559780300696</v>
       </c>
       <c r="V22">
-        <v>0.1837913971593523</v>
+        <v>0.1561556675106101</v>
       </c>
       <c r="W22">
-        <v>0.6538102583896045</v>
+        <v>0.6593605545127088</v>
       </c>
       <c r="X22">
-        <v>0.04329206110912055</v>
+        <v>0.03930072866328011</v>
       </c>
       <c r="Y22">
         <v>1</v>
@@ -7715,76 +8419,76 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23">
-        <v>656.8</v>
+        <v>621.3793103448276</v>
       </c>
       <c r="B23">
-        <v>0.2128851662848669</v>
+        <v>0.2295959100539562</v>
       </c>
       <c r="C23">
-        <v>0.7043023877767057</v>
+        <v>0.692825210277342</v>
       </c>
       <c r="D23">
-        <v>0.08002804152437942</v>
+        <v>0.07824224650919104</v>
       </c>
       <c r="E23">
-        <v>0.0335499422345955</v>
+        <v>0.0336467043970011</v>
       </c>
       <c r="F23">
-        <v>0.3451531155082759</v>
+        <v>0.2621054664168495</v>
       </c>
       <c r="G23">
-        <v>0.3156977258402178</v>
+        <v>0.3338526696689709</v>
       </c>
       <c r="H23">
-        <v>0.8437349972876644</v>
+        <v>0.5850331750210593</v>
       </c>
       <c r="I23">
-        <v>0.09322211862432218</v>
+        <v>0.09652444782484612</v>
       </c>
       <c r="J23">
-        <v>0.109562169465182</v>
+        <v>0.1075096089376557</v>
       </c>
       <c r="K23">
-        <v>0.1581749323691811</v>
+        <v>0.0907877337867104</v>
       </c>
       <c r="L23">
-        <v>0.777262184793619</v>
+        <v>0.7730257579763266</v>
       </c>
       <c r="M23">
-        <v>0.1998622986568856</v>
+        <v>0.2064143998783051</v>
       </c>
       <c r="N23">
-        <v>0.157083110144318</v>
+        <v>0.1411077633963921</v>
       </c>
       <c r="O23">
-        <v>0.6658525494788141</v>
+        <v>0.6259123973182401</v>
       </c>
       <c r="P23">
-        <v>0.7034550825951941</v>
+        <v>0.5125989145847836</v>
       </c>
       <c r="Q23">
-        <v>0.3905691110550155</v>
+        <v>0.4013798284327486</v>
       </c>
       <c r="R23">
-        <v>0.6847404283209602</v>
+        <v>0.6077590915089384</v>
       </c>
       <c r="S23">
-        <v>0.1160089319027709</v>
+        <v>0.08881633600996824</v>
       </c>
       <c r="T23">
-        <v>0.1034872277390509</v>
+        <v>0.1144589640351146</v>
       </c>
       <c r="U23">
-        <v>0.640926520472392</v>
+        <v>0.6484323128566494</v>
       </c>
       <c r="V23">
-        <v>0.1939335526152698</v>
+        <v>0.1612276296253115</v>
       </c>
       <c r="W23">
-        <v>0.6545632004050352</v>
+        <v>0.6585211015023882</v>
       </c>
       <c r="X23">
-        <v>0.04649386716036969</v>
+        <v>0.03986102080386509</v>
       </c>
       <c r="Y23">
         <v>1</v>
@@ -7792,76 +8496,76 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24">
-        <v>669.64</v>
+        <v>632.448275862069</v>
       </c>
       <c r="B24">
-        <v>0.2218279355076964</v>
+        <v>0.2216700740107626</v>
       </c>
       <c r="C24">
-        <v>0.7081283806910793</v>
+        <v>0.6972123300625016</v>
       </c>
       <c r="D24">
-        <v>0.08177422894255207</v>
+        <v>0.07756326703734664</v>
       </c>
       <c r="E24">
-        <v>0.03353158045284264</v>
+        <v>0.03361598196387484</v>
       </c>
       <c r="F24">
-        <v>0.3725090388537519</v>
+        <v>0.2701162868622436</v>
       </c>
       <c r="G24">
-        <v>0.3355200035425461</v>
+        <v>0.3239144368680855</v>
       </c>
       <c r="H24">
-        <v>0.9015191875150884</v>
+        <v>0.6676953674012786</v>
       </c>
       <c r="I24">
-        <v>0.09206322827196926</v>
+        <v>0.09546978382979569</v>
       </c>
       <c r="J24">
-        <v>0.1115038085548583</v>
+        <v>0.1079069511919867</v>
       </c>
       <c r="K24">
-        <v>0.2036677421806396</v>
+        <v>0.09260146068632323</v>
       </c>
       <c r="L24">
-        <v>0.7812648025376341</v>
+        <v>0.7770973024090589</v>
       </c>
       <c r="M24">
-        <v>0.1974108005894847</v>
+        <v>0.2042111619900742</v>
       </c>
       <c r="N24">
-        <v>0.1640629074065657</v>
+        <v>0.1401787650266421</v>
       </c>
       <c r="O24">
-        <v>0.6659106520911736</v>
+        <v>0.6547990432289571</v>
       </c>
       <c r="P24">
-        <v>0.7106852983820113</v>
+        <v>0.6291819590082979</v>
       </c>
       <c r="Q24">
-        <v>0.3869259667555478</v>
+        <v>0.3979740008090955</v>
       </c>
       <c r="R24">
-        <v>0.7227898127522395</v>
+        <v>0.6298506727438077</v>
       </c>
       <c r="S24">
-        <v>0.1389141125058763</v>
+        <v>0.09220210699629587</v>
       </c>
       <c r="T24">
-        <v>0.1061717197604893</v>
+        <v>0.1091559284532969</v>
       </c>
       <c r="U24">
-        <v>0.6389743417732776</v>
+        <v>0.6461268555596561</v>
       </c>
       <c r="V24">
-        <v>0.1949170298522238</v>
+        <v>0.1715804637651007</v>
       </c>
       <c r="W24">
-        <v>0.6610027481017213</v>
+        <v>0.655985310919276</v>
       </c>
       <c r="X24">
-        <v>0.04828530693328217</v>
+        <v>0.04122003985479814</v>
       </c>
       <c r="Y24">
         <v>1</v>
@@ -7869,76 +8573,76 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25">
-        <v>682.48</v>
+        <v>643.5172413793103</v>
       </c>
       <c r="B25">
-        <v>0.2364256274874956</v>
+        <v>0.2154552146564634</v>
       </c>
       <c r="C25">
-        <v>0.7102565102783217</v>
+        <v>0.7005443590147651</v>
       </c>
       <c r="D25">
-        <v>0.08051625507301026</v>
+        <v>0.07781703688165786</v>
       </c>
       <c r="E25">
-        <v>0.03338262835808414</v>
+        <v>0.03358752169479824</v>
       </c>
       <c r="F25">
-        <v>0.3715850342947475</v>
+        <v>0.2984623824254187</v>
       </c>
       <c r="G25">
-        <v>0.3625078840778043</v>
+        <v>0.3160652809158436</v>
       </c>
       <c r="H25">
-        <v>0.9284034811146669</v>
+        <v>0.7490510395674966</v>
       </c>
       <c r="I25">
-        <v>0.09064290869122366</v>
+        <v>0.09438913350602181</v>
       </c>
       <c r="J25">
-        <v>0.1124150565327673</v>
+        <v>0.1086264352014778</v>
       </c>
       <c r="K25">
-        <v>0.2416039232869702</v>
+        <v>0.1131884482571901</v>
       </c>
       <c r="L25">
-        <v>0.7512661132405285</v>
+        <v>0.7776836056074625</v>
       </c>
       <c r="M25">
-        <v>0.1940727823597639</v>
+        <v>0.2020977259333946</v>
       </c>
       <c r="N25">
-        <v>0.160415052017845</v>
+        <v>0.1452738463384014</v>
       </c>
       <c r="O25">
-        <v>0.6638379782401594</v>
+        <v>0.6635167358742022</v>
       </c>
       <c r="P25">
-        <v>0.7170791023561807</v>
+        <v>0.6801796979844394</v>
       </c>
       <c r="Q25">
-        <v>0.3822676082443071</v>
+        <v>0.394585561862939</v>
       </c>
       <c r="R25">
-        <v>0.7623966101871245</v>
+        <v>0.6521572592210062</v>
       </c>
       <c r="S25">
-        <v>0.1733514795925935</v>
+        <v>0.1001377393550767</v>
       </c>
       <c r="T25">
-        <v>0.1119803817979237</v>
+        <v>0.1056462495974858</v>
       </c>
       <c r="U25">
-        <v>0.6355546429880465</v>
+        <v>0.6436077006411132</v>
       </c>
       <c r="V25">
-        <v>0.185656489562535</v>
+        <v>0.1833563945637737</v>
       </c>
       <c r="W25">
-        <v>0.6705940429536131</v>
+        <v>0.6538455337975329</v>
       </c>
       <c r="X25">
-        <v>0.04683592547636722</v>
+        <v>0.04319307854088147</v>
       </c>
       <c r="Y25">
         <v>1</v>
@@ -7946,76 +8650,76 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26">
-        <v>695.3199999999999</v>
+        <v>654.5862068965517</v>
       </c>
       <c r="B26">
-        <v>0.2501100583442569</v>
+        <v>0.2126263669137347</v>
       </c>
       <c r="C26">
-        <v>0.7125736259310903</v>
+        <v>0.70359971283094</v>
       </c>
       <c r="D26">
-        <v>0.07802693839047203</v>
+        <v>0.07953646925137782</v>
       </c>
       <c r="E26">
-        <v>0.03324976729012255</v>
+        <v>0.03354985720462542</v>
       </c>
       <c r="F26">
-        <v>0.3667828436162879</v>
+        <v>0.3376326448232513</v>
       </c>
       <c r="G26">
-        <v>0.3879098121048203</v>
+        <v>0.3143710145064194</v>
       </c>
       <c r="H26">
-        <v>0.9448833115460862</v>
+        <v>0.8295110066912351</v>
       </c>
       <c r="I26">
-        <v>0.08946503636153487</v>
+        <v>0.09340712379069155</v>
       </c>
       <c r="J26">
-        <v>0.1133837005190606</v>
+        <v>0.1092928415169297</v>
       </c>
       <c r="K26">
-        <v>0.2724822429910248</v>
+        <v>0.1499534736974015</v>
       </c>
       <c r="L26">
-        <v>0.7678261153585093</v>
+        <v>0.776593359143945</v>
       </c>
       <c r="M26">
-        <v>0.1910656905457834</v>
+        <v>0.2002190223736972</v>
       </c>
       <c r="N26">
-        <v>0.1517140581896468</v>
+        <v>0.1549876019398029</v>
       </c>
       <c r="O26">
-        <v>0.6618013319525217</v>
+        <v>0.6655952461984872</v>
       </c>
       <c r="P26">
-        <v>0.7236062530729239</v>
+        <v>0.7008229311863087</v>
       </c>
       <c r="Q26">
-        <v>0.3778332482492934</v>
+        <v>0.3912166161995614</v>
       </c>
       <c r="R26">
-        <v>0.8045823626574784</v>
+        <v>0.6787351830159465</v>
       </c>
       <c r="S26">
-        <v>0.2244847195209155</v>
+        <v>0.1128639153117118</v>
       </c>
       <c r="T26">
-        <v>0.1190847194103115</v>
+        <v>0.1035286883154718</v>
       </c>
       <c r="U26">
-        <v>0.6323063594270154</v>
+        <v>0.6412942166018362</v>
       </c>
       <c r="V26">
-        <v>0.1800219119890771</v>
+        <v>0.1926148354973122</v>
       </c>
       <c r="W26">
-        <v>0.6836217841999797</v>
+        <v>0.6540590250427155</v>
       </c>
       <c r="X26">
-        <v>0.04613614780764209</v>
+        <v>0.04590570291128013</v>
       </c>
       <c r="Y26">
         <v>1</v>
@@ -8023,78 +8727,386 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27">
-        <v>708.16</v>
+        <v>665.655172413793</v>
       </c>
       <c r="B27">
-        <v>0.2555139384672083</v>
+        <v>0.2181236931590732</v>
       </c>
       <c r="C27">
-        <v>0.7161217584863073</v>
+        <v>0.7070257412533274</v>
       </c>
       <c r="D27">
-        <v>0.07642358541052743</v>
+        <v>0.08147500438900929</v>
       </c>
       <c r="E27">
-        <v>0.03324015398572081</v>
+        <v>0.03352986162164977</v>
       </c>
       <c r="F27">
-        <v>0.3740569873121176</v>
+        <v>0.3671760999863073</v>
       </c>
       <c r="G27">
-        <v>0.4001497106037067</v>
+        <v>0.3278044772533403</v>
       </c>
       <c r="H27">
-        <v>0.9600450715451473</v>
+        <v>0.8873812784995528</v>
       </c>
       <c r="I27">
-        <v>0.0887139127717404</v>
+        <v>0.09247624253795919</v>
       </c>
       <c r="J27">
-        <v>0.1155216329555275</v>
+        <v>0.1109694819259291</v>
       </c>
       <c r="K27">
-        <v>0.2952625346374641</v>
+        <v>0.1902328884838146</v>
       </c>
       <c r="L27">
-        <v>0.8223903273377025</v>
+        <v>0.7816175594025253</v>
       </c>
       <c r="M27">
-        <v>0.1886396271230781</v>
+        <v>0.1982590632797222</v>
       </c>
       <c r="N27">
-        <v>0.1439415707977572</v>
+        <v>0.1631153250549798</v>
       </c>
       <c r="O27">
-        <v>0.6612824146258011</v>
+        <v>0.6660470405088619</v>
       </c>
       <c r="P27">
-        <v>0.7288335190984719</v>
+        <v>0.7092696020323311</v>
       </c>
       <c r="Q27">
-        <v>0.3749210898518254</v>
+        <v>0.3881449583493483</v>
       </c>
       <c r="R27">
-        <v>0.8412724177536893</v>
+        <v>0.7106545043845905</v>
       </c>
       <c r="S27">
-        <v>0.2940181942507496</v>
+        <v>0.1308389538055299</v>
       </c>
       <c r="T27">
-        <v>0.1236608084531398</v>
+        <v>0.1049240241825771</v>
       </c>
       <c r="U27">
-        <v>0.6305479599344083</v>
+        <v>0.6395991386602198</v>
       </c>
       <c r="V27">
-        <v>0.1852937545811668</v>
+        <v>0.1958179399625416</v>
       </c>
       <c r="W27">
-        <v>0.6985931854361312</v>
+        <v>0.6585287137536089</v>
       </c>
       <c r="X27">
-        <v>0.04847641544693275</v>
+        <v>0.04816817925128919</v>
       </c>
       <c r="Y27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28">
+        <v>676.7241379310344</v>
+      </c>
+      <c r="B28">
+        <v>0.2297575306542324</v>
+      </c>
+      <c r="C28">
+        <v>0.7092415692754758</v>
+      </c>
+      <c r="D28">
+        <v>0.08129970317421722</v>
+      </c>
+      <c r="E28">
+        <v>0.03333778224310477</v>
+      </c>
+      <c r="F28">
+        <v>0.3745251830038276</v>
+      </c>
+      <c r="G28">
+        <v>0.3505789282393492</v>
+      </c>
+      <c r="H28">
+        <v>0.918949059399263</v>
+      </c>
+      <c r="I28">
+        <v>0.09122973536299633</v>
+      </c>
+      <c r="J28">
+        <v>0.1121221380668559</v>
+      </c>
+      <c r="K28">
+        <v>0.225668008034199</v>
+      </c>
+      <c r="L28">
+        <v>0.7682941017066875</v>
+      </c>
+      <c r="M28">
+        <v>0.1956234170804786</v>
+      </c>
+      <c r="N28">
+        <v>0.1628889463678354</v>
+      </c>
+      <c r="O28">
+        <v>0.6645926255458244</v>
+      </c>
+      <c r="P28">
+        <v>0.7137011403945834</v>
+      </c>
+      <c r="Q28">
+        <v>0.3844020432810793</v>
+      </c>
+      <c r="R28">
+        <v>0.7443756497933023</v>
+      </c>
+      <c r="S28">
+        <v>0.1560173390566149</v>
+      </c>
+      <c r="T28">
+        <v>0.1089571318909961</v>
+      </c>
+      <c r="U28">
+        <v>0.6371329293011101</v>
+      </c>
+      <c r="V28">
+        <v>0.1903509789393157</v>
+      </c>
+      <c r="W28">
+        <v>0.6657243006090199</v>
+      </c>
+      <c r="X28">
+        <v>0.04766091812364931</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29">
+        <v>687.7931034482758</v>
+      </c>
+      <c r="B29">
+        <v>0.2424462515990427</v>
+      </c>
+      <c r="C29">
+        <v>0.7110446033794676</v>
+      </c>
+      <c r="D29">
+        <v>0.07964378306725876</v>
+      </c>
+      <c r="E29">
+        <v>0.03331235183421512</v>
+      </c>
+      <c r="F29">
+        <v>0.368508486340733</v>
+      </c>
+      <c r="G29">
+        <v>0.3732273701457334</v>
+      </c>
+      <c r="H29">
+        <v>0.9352702202923382</v>
+      </c>
+      <c r="I29">
+        <v>0.09008651938416547</v>
+      </c>
+      <c r="J29">
+        <v>0.1125674632694513</v>
+      </c>
+      <c r="K29">
+        <v>0.2550926508572841</v>
+      </c>
+      <c r="L29">
+        <v>0.7464612318608134</v>
+      </c>
+      <c r="M29">
+        <v>0.19280526698893</v>
+      </c>
+      <c r="N29">
+        <v>0.1573755810039856</v>
+      </c>
+      <c r="O29">
+        <v>0.6628410231811712</v>
+      </c>
+      <c r="P29">
+        <v>0.7200811082570003</v>
+      </c>
+      <c r="Q29">
+        <v>0.3803612722742231</v>
+      </c>
+      <c r="R29">
+        <v>0.7796746595309769</v>
+      </c>
+      <c r="S29">
+        <v>0.1922487256499472</v>
+      </c>
+      <c r="T29">
+        <v>0.1148679211414876</v>
+      </c>
+      <c r="U29">
+        <v>0.6342423471084782</v>
+      </c>
+      <c r="V29">
+        <v>0.1820917604769464</v>
+      </c>
+      <c r="W29">
+        <v>0.675594705438564</v>
+      </c>
+      <c r="X29">
+        <v>0.04625729475475312</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30">
+        <v>698.8620689655172</v>
+      </c>
+      <c r="B30">
+        <v>0.2529223248783806</v>
+      </c>
+      <c r="C30">
+        <v>0.7134973406565585</v>
+      </c>
+      <c r="D30">
+        <v>0.07726070013124046</v>
+      </c>
+      <c r="E30">
+        <v>0.0333212475060476</v>
+      </c>
+      <c r="F30">
+        <v>0.3676757152775491</v>
+      </c>
+      <c r="G30">
+        <v>0.3937811926280281</v>
+      </c>
+      <c r="H30">
+        <v>0.9493032713831853</v>
+      </c>
+      <c r="I30">
+        <v>0.0892558243488467</v>
+      </c>
+      <c r="J30">
+        <v>0.1140465932955809</v>
+      </c>
+      <c r="K30">
+        <v>0.2798189416728593</v>
+      </c>
+      <c r="L30">
+        <v>0.7849110264864811</v>
+      </c>
+      <c r="M30">
+        <v>0.1903653165832957</v>
+      </c>
+      <c r="N30">
+        <v>0.1489113511672729</v>
+      </c>
+      <c r="O30">
+        <v>0.6615697617872957</v>
+      </c>
+      <c r="P30">
+        <v>0.7251350109510528</v>
+      </c>
+      <c r="Q30">
+        <v>0.3768329251409149</v>
+      </c>
+      <c r="R30">
+        <v>0.8158857812025322</v>
+      </c>
+      <c r="S30">
+        <v>0.2420605200540103</v>
+      </c>
+      <c r="T30">
+        <v>0.1209545312579149</v>
+      </c>
+      <c r="U30">
+        <v>0.6316971851048533</v>
+      </c>
+      <c r="V30">
+        <v>0.180501043619834</v>
+      </c>
+      <c r="W30">
+        <v>0.687742118130502</v>
+      </c>
+      <c r="X30">
+        <v>0.04642750556501661</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31">
+        <v>709.9310344827586</v>
+      </c>
+      <c r="B31">
+        <v>0.2550519406371464</v>
+      </c>
+      <c r="C31">
+        <v>0.7166292664040352</v>
+      </c>
+      <c r="D31">
+        <v>0.07651755831028773</v>
+      </c>
+      <c r="E31">
+        <v>0.03323135059533184</v>
+      </c>
+      <c r="F31">
+        <v>0.3755829611793172</v>
+      </c>
+      <c r="G31">
+        <v>0.3997211119290937</v>
+      </c>
+      <c r="H31">
+        <v>0.9618576204220279</v>
+      </c>
+      <c r="I31">
+        <v>0.08861941255231773</v>
+      </c>
+      <c r="J31">
+        <v>0.115676030454951</v>
+      </c>
+      <c r="K31">
+        <v>0.2974343684393765</v>
+      </c>
+      <c r="L31">
+        <v>0.827008147328341</v>
+      </c>
+      <c r="M31">
+        <v>0.1883523277676379</v>
+      </c>
+      <c r="N31">
+        <v>0.14359765908318</v>
+      </c>
+      <c r="O31">
+        <v>0.6612084259509354</v>
+      </c>
+      <c r="P31">
+        <v>0.7294615185504824</v>
+      </c>
+      <c r="Q31">
+        <v>0.3745201200003891</v>
+      </c>
+      <c r="R31">
+        <v>0.8452918428749513</v>
+      </c>
+      <c r="S31">
+        <v>0.3044659984893944</v>
+      </c>
+      <c r="T31">
+        <v>0.1237080643333698</v>
+      </c>
+      <c r="U31">
+        <v>0.6302960786379166</v>
+      </c>
+      <c r="V31">
+        <v>0.1864647889163495</v>
+      </c>
+      <c r="W31">
+        <v>0.7005131798891275</v>
+      </c>
+      <c r="X31">
+        <v>0.04903557204070613</v>
+      </c>
+      <c r="Y31">
         <v>1</v>
       </c>
     </row>
